--- a/dwas_mlp_output.xlsx
+++ b/dwas_mlp_output.xlsx
@@ -16,13 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>val_loss</t>
-  </si>
-  <si>
-    <t>val_mean_absolute_error</t>
-  </si>
-  <si>
-    <t>val_acc</t>
+    <t>acc</t>
   </si>
   <si>
     <t>loss</t>
@@ -31,7 +25,13 @@
     <t>mean_absolute_error</t>
   </si>
   <si>
-    <t>acc</t>
+    <t>val_acc</t>
+  </si>
+  <si>
+    <t>val_loss</t>
+  </si>
+  <si>
+    <t>val_mean_absolute_error</t>
   </si>
 </sst>
 </file>
@@ -420,22 +420,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1402052875076021</v>
+        <v>0.6485260795641378</v>
       </c>
       <c r="C2">
-        <v>0.1402052875076021</v>
+        <v>0.2339363681013081</v>
       </c>
       <c r="D2">
-        <v>0.637566139773717</v>
+        <v>0.2339363681013081</v>
       </c>
       <c r="E2">
-        <v>0.1781897246499721</v>
+        <v>0.7328042302812848</v>
       </c>
       <c r="F2">
-        <v>0.1781897246499721</v>
+        <v>0.1964499006668727</v>
       </c>
       <c r="G2">
-        <v>0.4965986449803625</v>
+        <v>0.1964499006668727</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -443,22 +443,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1221495544311231</v>
+        <v>0.7244897995000523</v>
       </c>
       <c r="C3">
-        <v>0.1221495544311231</v>
+        <v>0.1776597141003122</v>
       </c>
       <c r="D3">
-        <v>0.687830691772794</v>
+        <v>0.1776597141003122</v>
       </c>
       <c r="E3">
-        <v>0.1475462312736208</v>
+        <v>0.7645502632887906</v>
       </c>
       <c r="F3">
-        <v>0.1475462312736208</v>
+        <v>0.142791933049916</v>
       </c>
       <c r="G3">
-        <v>0.6065759702739802</v>
+        <v>0.142791933049916</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -466,22 +466,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09165052608365104</v>
+        <v>0.7823129222641726</v>
       </c>
       <c r="C4">
-        <v>0.09165052608365104</v>
+        <v>0.1254619428478266</v>
       </c>
       <c r="D4">
-        <v>0.8227513195976378</v>
+        <v>0.1254619428478266</v>
       </c>
       <c r="E4">
-        <v>0.1200687657205426</v>
+        <v>0.8544973519744066</v>
       </c>
       <c r="F4">
-        <v>0.1200687657205426</v>
+        <v>0.08517111991606062</v>
       </c>
       <c r="G4">
-        <v>0.6700680312656221</v>
+        <v>0.08517111991606062</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -489,22 +489,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.05705056485360262</v>
+        <v>0.8276643965249699</v>
       </c>
       <c r="C5">
-        <v>0.05705056485360262</v>
+        <v>0.08986162239698325</v>
       </c>
       <c r="D5">
-        <v>0.835978835348099</v>
+        <v>0.08986162239698325</v>
       </c>
       <c r="E5">
-        <v>0.08420573330385074</v>
+        <v>0.8597883569500434</v>
       </c>
       <c r="F5">
-        <v>0.08420573330385074</v>
+        <v>0.05679801029581872</v>
       </c>
       <c r="G5">
-        <v>0.6927437645102305</v>
+        <v>0.05679801029581872</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,22 +512,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04582747550947325</v>
+        <v>0.8605442121456</v>
       </c>
       <c r="C6">
-        <v>0.04582747550947325</v>
+        <v>0.07741538746928682</v>
       </c>
       <c r="D6">
-        <v>0.9285714210025848</v>
+        <v>0.07741538746928682</v>
       </c>
       <c r="E6">
-        <v>0.06256223664262127</v>
+        <v>0.8544973488207217</v>
       </c>
       <c r="F6">
-        <v>0.06256223664262127</v>
+        <v>0.04942771380461713</v>
       </c>
       <c r="G6">
-        <v>0.7789115619226918</v>
+        <v>0.04942771380461713</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -535,22 +535,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.04159605792827076</v>
+        <v>0.8458049856886571</v>
       </c>
       <c r="C7">
-        <v>0.04159605792827076</v>
+        <v>0.07219248730478103</v>
       </c>
       <c r="D7">
-        <v>0.941798937383783</v>
+        <v>0.07219248730478103</v>
       </c>
       <c r="E7">
-        <v>0.05538054810765108</v>
+        <v>0.8730158686007141</v>
       </c>
       <c r="F7">
-        <v>0.05538054810765108</v>
+        <v>0.04670578676950995</v>
       </c>
       <c r="G7">
-        <v>0.8265306087307919</v>
+        <v>0.04670578676950995</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -558,22 +558,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.03789735410027403</v>
+        <v>0.8412698395127882</v>
       </c>
       <c r="C8">
-        <v>0.03789735410027403</v>
+        <v>0.06853477337530681</v>
       </c>
       <c r="D8">
-        <v>0.90740740267688</v>
+        <v>0.06853477337530681</v>
       </c>
       <c r="E8">
-        <v>0.05094110303877297</v>
+        <v>0.8624338570725981</v>
       </c>
       <c r="F8">
-        <v>0.05094110303877297</v>
+        <v>0.04673912156392973</v>
       </c>
       <c r="G8">
-        <v>0.861677999939778</v>
+        <v>0.04673912156392973</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -581,22 +581,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.03688649099970621</v>
+        <v>0.8628117870581664</v>
       </c>
       <c r="C9">
-        <v>0.03688649099970621</v>
+        <v>0.06883696155821115</v>
       </c>
       <c r="D9">
-        <v>0.9391534341075433</v>
+        <v>0.06883696155821115</v>
       </c>
       <c r="E9">
-        <v>0.04845261695011267</v>
+        <v>0.8624338586494406</v>
       </c>
       <c r="F9">
-        <v>0.04845261695011267</v>
+        <v>0.04869715664437208</v>
       </c>
       <c r="G9">
-        <v>0.8696145030106006</v>
+        <v>0.04869715664437208</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -604,22 +604,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.03947740080692465</v>
+        <v>0.8458049833233935</v>
       </c>
       <c r="C10">
-        <v>0.03947740080692465</v>
+        <v>0.06833576908558946</v>
       </c>
       <c r="D10">
-        <v>0.9391534325307008</v>
+        <v>0.06833576908558946</v>
       </c>
       <c r="E10">
-        <v>0.04710489206117432</v>
+        <v>0.8597883553732009</v>
       </c>
       <c r="F10">
-        <v>0.04710489206117432</v>
+        <v>0.04528263484241155</v>
       </c>
       <c r="G10">
-        <v>0.8854875219922488</v>
+        <v>0.04528263484241155</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -627,22 +627,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.03693413500866247</v>
+        <v>0.8684807226501084</v>
       </c>
       <c r="C11">
-        <v>0.03693413500866247</v>
+        <v>0.06722350878949339</v>
       </c>
       <c r="D11">
-        <v>0.9550264490344537</v>
+        <v>0.06722350878949339</v>
       </c>
       <c r="E11">
-        <v>0.04649099244687563</v>
+        <v>0.8597883569500434</v>
       </c>
       <c r="F11">
-        <v>0.04649099244687563</v>
+        <v>0.04688214109569946</v>
       </c>
       <c r="G11">
-        <v>0.8911564575841908</v>
+        <v>0.04688214109569946</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -650,22 +650,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.03734829507413365</v>
+        <v>0.8594104270545804</v>
       </c>
       <c r="C12">
-        <v>0.03734829507413365</v>
+        <v>0.06408613091524766</v>
       </c>
       <c r="D12">
-        <v>0.9285714241562697</v>
+        <v>0.06408613091524766</v>
       </c>
       <c r="E12">
-        <v>0.04573449063750486</v>
+        <v>0.8624338586494406</v>
       </c>
       <c r="F12">
-        <v>0.04573449063750486</v>
+        <v>0.05066828141925196</v>
       </c>
       <c r="G12">
-        <v>0.9002267518281396</v>
+        <v>0.05066828141925196</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -673,22 +673,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.03753556544700312</v>
+        <v>0.8673469308011926</v>
       </c>
       <c r="C13">
-        <v>0.03753556544700312</v>
+        <v>0.0645740676476977</v>
       </c>
       <c r="D13">
-        <v>0.915343909351914</v>
+        <v>0.0645740676476977</v>
       </c>
       <c r="E13">
-        <v>0.04672209870348983</v>
+        <v>0.8597883569500434</v>
       </c>
       <c r="F13">
-        <v>0.04672209870348983</v>
+        <v>0.04672135800004951</v>
       </c>
       <c r="G13">
-        <v>0.8934240277662299</v>
+        <v>0.04672135800004951</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -696,22 +696,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.03588932555503946</v>
+        <v>0.8594104250272115</v>
       </c>
       <c r="C14">
-        <v>0.03588932555503946</v>
+        <v>0.06317227325336733</v>
       </c>
       <c r="D14">
-        <v>0.9365079292544612</v>
+        <v>0.06317227325336733</v>
       </c>
       <c r="E14">
-        <v>0.04432371058110612</v>
+        <v>0.8597883553732009</v>
       </c>
       <c r="F14">
-        <v>0.04432371058110612</v>
+        <v>0.04516204090779105</v>
       </c>
       <c r="G14">
-        <v>0.8866213070832683</v>
+        <v>0.04516204090779105</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -719,22 +719,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.03580366440669254</v>
+        <v>0.8752834426572804</v>
       </c>
       <c r="C15">
-        <v>0.03580366440669254</v>
+        <v>0.06278287619352341</v>
       </c>
       <c r="D15">
-        <v>0.9550264506112962</v>
+        <v>0.06278287619352341</v>
       </c>
       <c r="E15">
-        <v>0.04576858987951495</v>
+        <v>0.8756613718769538</v>
       </c>
       <c r="F15">
-        <v>0.04576858987951495</v>
+        <v>0.04462548879482759</v>
       </c>
       <c r="G15">
-        <v>0.9024943240375476</v>
+        <v>0.04462548879482759</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -742,22 +742,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.03570318221060372</v>
+        <v>0.8650793608894695</v>
       </c>
       <c r="C16">
-        <v>0.03570318221060372</v>
+        <v>0.06387534633684321</v>
       </c>
       <c r="D16">
-        <v>0.9656084621394122</v>
+        <v>0.06387534633684321</v>
       </c>
       <c r="E16">
-        <v>0.0444561225148826</v>
+        <v>0.8677248652019198</v>
       </c>
       <c r="F16">
-        <v>0.0444561225148826</v>
+        <v>0.04485266377765035</v>
       </c>
       <c r="G16">
-        <v>0.8990929653855408</v>
+        <v>0.04485266377765035</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -765,22 +765,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.03519799196649166</v>
+        <v>0.8571428507904347</v>
       </c>
       <c r="C17">
-        <v>0.03519799196649166</v>
+        <v>0.06122600532595127</v>
       </c>
       <c r="D17">
-        <v>0.9497354424819744</v>
+        <v>0.06122600532595127</v>
       </c>
       <c r="E17">
-        <v>0.04364877047181941</v>
+        <v>0.8650793635025227</v>
       </c>
       <c r="F17">
-        <v>0.04364877047181941</v>
+        <v>0.04338534040346978</v>
       </c>
       <c r="G17">
-        <v>0.8968253897971847</v>
+        <v>0.04338534040346978</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -788,22 +788,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.03558623953352845</v>
+        <v>0.8616780006155675</v>
       </c>
       <c r="C18">
-        <v>0.03558623953352845</v>
+        <v>0.06125166994475183</v>
       </c>
       <c r="D18">
-        <v>0.9417989326532555</v>
+        <v>0.06125166994475183</v>
       </c>
       <c r="E18">
-        <v>0.04289743174163122</v>
+        <v>0.8650793635025227</v>
       </c>
       <c r="F18">
-        <v>0.04289743174163122</v>
+        <v>0.04556353723324796</v>
       </c>
       <c r="G18">
-        <v>0.9081632542231727</v>
+        <v>0.04556353723324796</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -811,22 +811,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.03516028649986736</v>
+        <v>0.8639455735007652</v>
       </c>
       <c r="C19">
-        <v>0.03516028649986736</v>
+        <v>0.06037402545817856</v>
       </c>
       <c r="D19">
-        <v>0.9550264490344537</v>
+        <v>0.06037402545817856</v>
       </c>
       <c r="E19">
-        <v>0.04416943577175238</v>
+        <v>0.862433860226283</v>
       </c>
       <c r="F19">
-        <v>0.04416943577175238</v>
+        <v>0.04409303706356142</v>
       </c>
       <c r="G19">
-        <v>0.9024943236320738</v>
+        <v>0.04409303706356142</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -834,22 +834,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.03639352817344602</v>
+        <v>0.8730158670689243</v>
       </c>
       <c r="C20">
-        <v>0.03639352817344602</v>
+        <v>0.05889587356052161</v>
       </c>
       <c r="D20">
-        <v>0.9179894110513112</v>
+        <v>0.05889587356052161</v>
       </c>
       <c r="E20">
-        <v>0.04221977283354519</v>
+        <v>0.8571428552506462</v>
       </c>
       <c r="F20">
-        <v>0.04221977283354519</v>
+        <v>0.04559907312233927</v>
       </c>
       <c r="G20">
-        <v>0.8945578155604079</v>
+        <v>0.04559907312233927</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -857,22 +857,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.03978022464881183</v>
+        <v>0.8662131443585939</v>
       </c>
       <c r="C21">
-        <v>0.03978022464881183</v>
+        <v>0.05848183362087966</v>
       </c>
       <c r="D21">
-        <v>0.9576719523106934</v>
+        <v>0.05848183362087966</v>
       </c>
       <c r="E21">
-        <v>0.04406107021516818</v>
+        <v>0.862433860226283</v>
       </c>
       <c r="F21">
-        <v>0.04406107021516818</v>
+        <v>0.04671717172971478</v>
       </c>
       <c r="G21">
-        <v>0.9047618921922178</v>
+        <v>0.04671717172971478</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -880,22 +880,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.03576783270195678</v>
+        <v>0.8696145067274436</v>
       </c>
       <c r="C22">
-        <v>0.03576783270195678</v>
+        <v>0.05845955854742164</v>
       </c>
       <c r="D22">
-        <v>0.9470899392057348</v>
+        <v>0.05845955854742164</v>
       </c>
       <c r="E22">
-        <v>0.04314613651881277</v>
+        <v>0.8624338586494406</v>
       </c>
       <c r="F22">
-        <v>0.04314613651881277</v>
+        <v>0.04335810169183388</v>
       </c>
       <c r="G22">
-        <v>0.9013605375949487</v>
+        <v>0.04335810169183388</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.03510457081178193</v>
+        <v>0.8786848015796029</v>
       </c>
       <c r="C23">
-        <v>0.03510457081178193</v>
+        <v>0.05910817637634115</v>
       </c>
       <c r="D23">
-        <v>0.9206349143275508</v>
+        <v>0.05910817637634115</v>
       </c>
       <c r="E23">
-        <v>0.04284186959857979</v>
+        <v>0.8571428552506462</v>
       </c>
       <c r="F23">
-        <v>0.04284186959857979</v>
+        <v>0.04385818069968274</v>
       </c>
       <c r="G23">
-        <v>0.914965978960872</v>
+        <v>0.04385818069968274</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -926,22 +926,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.03591007152917208</v>
+        <v>0.8662131457101732</v>
       </c>
       <c r="C24">
-        <v>0.03591007152917208</v>
+        <v>0.05932440899751759</v>
       </c>
       <c r="D24">
-        <v>0.9391534325307008</v>
+        <v>0.05932440899751759</v>
       </c>
       <c r="E24">
-        <v>0.04248515140611569</v>
+        <v>0.8650793619256801</v>
       </c>
       <c r="F24">
-        <v>0.04248515140611569</v>
+        <v>0.04331020689594052</v>
       </c>
       <c r="G24">
-        <v>0.9036281131833048</v>
+        <v>0.04331020689594052</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -949,22 +949,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.03684360699521171</v>
+        <v>0.8809523741944847</v>
       </c>
       <c r="C25">
-        <v>0.03684360699521171</v>
+        <v>0.05623901362558341</v>
       </c>
       <c r="D25">
-        <v>0.9444444375063377</v>
+        <v>0.05623901362558341</v>
       </c>
       <c r="E25">
-        <v>0.04265420939646611</v>
+        <v>0.862433860226283</v>
       </c>
       <c r="F25">
-        <v>0.04265420939646611</v>
+        <v>0.04400462523181602</v>
       </c>
       <c r="G25">
-        <v>0.9036281096691988</v>
+        <v>0.04400462523181602</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -972,22 +972,22 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.03521015934606708</v>
+        <v>0.8809523741944847</v>
       </c>
       <c r="C26">
-        <v>0.03521015934606708</v>
+        <v>0.0570832078182508</v>
       </c>
       <c r="D26">
-        <v>0.9365079292544612</v>
+        <v>0.0570832078182508</v>
       </c>
       <c r="E26">
-        <v>0.04143558666447934</v>
+        <v>0.8597883569500434</v>
       </c>
       <c r="F26">
-        <v>0.04143558666447934</v>
+        <v>0.0433283896436767</v>
       </c>
       <c r="G26">
-        <v>0.9115646192276018</v>
+        <v>0.0433283896436767</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -995,22 +995,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.0356148698480514</v>
+        <v>0.8662131484133316</v>
       </c>
       <c r="C27">
-        <v>0.0356148698480514</v>
+        <v>0.05805420705757174</v>
       </c>
       <c r="D27">
-        <v>0.9047618962469555</v>
+        <v>0.05805420705757174</v>
       </c>
       <c r="E27">
-        <v>0.0416233340772439</v>
+        <v>0.862433860226283</v>
       </c>
       <c r="F27">
-        <v>0.0416233340772439</v>
+        <v>0.0440658430258433</v>
       </c>
       <c r="G27">
-        <v>0.9081632585482262</v>
+        <v>0.0440658430258433</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1018,22 +1018,22 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.03482892224318767</v>
+        <v>0.8718820804911677</v>
       </c>
       <c r="C28">
-        <v>0.03482892224318767</v>
+        <v>0.05873115098023631</v>
       </c>
       <c r="D28">
-        <v>0.9470899407825772</v>
+        <v>0.05873115098023631</v>
       </c>
       <c r="E28">
-        <v>0.04164812452415355</v>
+        <v>0.8677248652019198</v>
       </c>
       <c r="F28">
-        <v>0.04164812452415355</v>
+        <v>0.0437937399579419</v>
       </c>
       <c r="G28">
-        <v>0.8956916020030067</v>
+        <v>0.0437937399579419</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1041,22 +1041,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.03572052889676006</v>
+        <v>0.8707482935079371</v>
       </c>
       <c r="C29">
-        <v>0.03572052889676006</v>
+        <v>0.05624305710297863</v>
       </c>
       <c r="D29">
-        <v>0.923280416026948</v>
+        <v>0.05624305710297863</v>
       </c>
       <c r="E29">
-        <v>0.04108626565256086</v>
+        <v>0.862433860226283</v>
       </c>
       <c r="F29">
-        <v>0.04108626565256086</v>
+        <v>0.04509334475117386</v>
       </c>
       <c r="G29">
-        <v>0.8990929640339616</v>
+        <v>0.04509334475117386</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1064,22 +1064,22 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.03544495493252441</v>
+        <v>0.8764172263967207</v>
       </c>
       <c r="C30">
-        <v>0.03544495493252441</v>
+        <v>0.05858811671062121</v>
       </c>
       <c r="D30">
-        <v>0.9444444390831801</v>
+        <v>0.05858811671062121</v>
       </c>
       <c r="E30">
-        <v>0.04233572225755845</v>
+        <v>0.862433860226283</v>
       </c>
       <c r="F30">
-        <v>0.04233572225755845</v>
+        <v>0.04311702244732746</v>
       </c>
       <c r="G30">
-        <v>0.9024943274164957</v>
+        <v>0.04311702244732746</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1087,22 +1087,22 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.03466926297301023</v>
+        <v>0.8730158680150298</v>
       </c>
       <c r="C31">
-        <v>0.03466926297301023</v>
+        <v>0.05630175254039483</v>
       </c>
       <c r="D31">
-        <v>0.9576719523106934</v>
+        <v>0.05630175254039483</v>
       </c>
       <c r="E31">
-        <v>0.04169540375454221</v>
+        <v>0.862433860226283</v>
       </c>
       <c r="F31">
-        <v>0.04169540375454221</v>
+        <v>0.04890885344021535</v>
       </c>
       <c r="G31">
-        <v>0.9058956863388182</v>
+        <v>0.04890885344021535</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1110,22 +1110,22 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.03555108391970554</v>
+        <v>0.8798185870760963</v>
       </c>
       <c r="C32">
-        <v>0.03555108391970554</v>
+        <v>0.05527254869810849</v>
       </c>
       <c r="D32">
-        <v>0.9497354440588169</v>
+        <v>0.05527254869810849</v>
       </c>
       <c r="E32">
-        <v>0.041410243459671</v>
+        <v>0.8677248652019198</v>
       </c>
       <c r="F32">
-        <v>0.041410243459671</v>
+        <v>0.04301970048004358</v>
       </c>
       <c r="G32">
-        <v>0.922902486762222</v>
+        <v>0.04301970048004358</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1133,22 +1133,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.03582162030593113</v>
+        <v>0.8730158686908194</v>
       </c>
       <c r="C33">
-        <v>0.03582162030593113</v>
+        <v>0.05643147025721954</v>
       </c>
       <c r="D33">
-        <v>0.9523809457582141</v>
+        <v>0.05643147025721954</v>
       </c>
       <c r="E33">
-        <v>0.04171683757973501</v>
+        <v>0.8677248652019198</v>
       </c>
       <c r="F33">
-        <v>0.04171683757973501</v>
+        <v>0.04335480003997132</v>
       </c>
       <c r="G33">
-        <v>0.9149659755819238</v>
+        <v>0.04335480003997132</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1156,22 +1156,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.03540207078020093</v>
+        <v>0.875283437926753</v>
       </c>
       <c r="C34">
-        <v>0.03540207078020093</v>
+        <v>0.05549544602835259</v>
       </c>
       <c r="D34">
-        <v>0.9550264490344537</v>
+        <v>0.05549544602835259</v>
       </c>
       <c r="E34">
-        <v>0.04150166464737213</v>
+        <v>0.8730158686007141</v>
       </c>
       <c r="F34">
-        <v>0.04150166464737213</v>
+        <v>0.04462635708312509</v>
       </c>
       <c r="G34">
-        <v>0.9070294698079427</v>
+        <v>0.04462635708312509</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1179,22 +1179,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.03472280413621948</v>
+        <v>0.8820861606370836</v>
       </c>
       <c r="C35">
-        <v>0.03472280413621948</v>
+        <v>0.05622636406025649</v>
       </c>
       <c r="D35">
-        <v>0.9444444375063377</v>
+        <v>0.05622636406025649</v>
       </c>
       <c r="E35">
-        <v>0.04110376418582977</v>
+        <v>0.8650793619256801</v>
       </c>
       <c r="F35">
-        <v>0.04110376418582977</v>
+        <v>0.04771522864226311</v>
       </c>
       <c r="G35">
-        <v>0.9183673416676165</v>
+        <v>0.04771522864226311</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1202,22 +1202,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.0362396881417938</v>
+        <v>0.8786848026608663</v>
       </c>
       <c r="C36">
-        <v>0.0362396881417938</v>
+        <v>0.05475998533015349</v>
       </c>
       <c r="D36">
-        <v>0.9576719538875358</v>
+        <v>0.05475998533015349</v>
       </c>
       <c r="E36">
-        <v>0.04022877117251458</v>
+        <v>0.870370366901317</v>
       </c>
       <c r="F36">
-        <v>0.04022877117251458</v>
+        <v>0.0431286519363759</v>
       </c>
       <c r="G36">
-        <v>0.9183673378831946</v>
+        <v>0.0431286519363759</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1225,22 +1225,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.03566416741284744</v>
+        <v>0.8775510158127938</v>
       </c>
       <c r="C37">
-        <v>0.03566416741284744</v>
+        <v>0.05525013211430335</v>
       </c>
       <c r="D37">
-        <v>0.9497354440588169</v>
+        <v>0.05525013211430335</v>
       </c>
       <c r="E37">
-        <v>0.04146749748428122</v>
+        <v>0.8571428552506462</v>
       </c>
       <c r="F37">
-        <v>0.04146749748428122</v>
+        <v>0.04425570584597096</v>
       </c>
       <c r="G37">
-        <v>0.9104308325146871</v>
+        <v>0.04425570584597096</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1248,22 +1248,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.03824811220839226</v>
+        <v>0.8741496548631024</v>
       </c>
       <c r="C38">
-        <v>0.03824811220839226</v>
+        <v>0.05579157561367871</v>
       </c>
       <c r="D38">
-        <v>0.9417989358069405</v>
+        <v>0.05579157561367871</v>
       </c>
       <c r="E38">
-        <v>0.04119891974897612</v>
+        <v>0.8650793619256801</v>
       </c>
       <c r="F38">
-        <v>0.04119891974897612</v>
+        <v>0.04256838499001725</v>
       </c>
       <c r="G38">
-        <v>0.9160997674308397</v>
+        <v>0.04256838499001725</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1271,22 +1271,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.03470720908550359</v>
+        <v>0.8832199511344201</v>
       </c>
       <c r="C39">
-        <v>0.03470720908550359</v>
+        <v>0.05553818218697226</v>
       </c>
       <c r="D39">
-        <v>0.933862427555064</v>
+        <v>0.05553818218697226</v>
       </c>
       <c r="E39">
-        <v>0.04002149891353248</v>
+        <v>0.862433860226283</v>
       </c>
       <c r="F39">
-        <v>0.04002149891353248</v>
+        <v>0.04280567773317218</v>
       </c>
       <c r="G39">
-        <v>0.9138321911666939</v>
+        <v>0.04280567773317218</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1294,22 +1294,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.03692282943261994</v>
+        <v>0.8798185859948329</v>
       </c>
       <c r="C40">
-        <v>0.03692282943261994</v>
+        <v>0.05361374588408708</v>
       </c>
       <c r="D40">
-        <v>0.9153439061982291</v>
+        <v>0.05361374588408708</v>
       </c>
       <c r="E40">
-        <v>0.04104491875268299</v>
+        <v>0.862433860226283</v>
       </c>
       <c r="F40">
-        <v>0.04104491875268299</v>
+        <v>0.04301337968735468</v>
       </c>
       <c r="G40">
-        <v>0.9126984047240951</v>
+        <v>0.04301337968735468</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1317,22 +1317,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.03458956489093089</v>
+        <v>0.8798185870760963</v>
       </c>
       <c r="C41">
-        <v>0.03458956489093089</v>
+        <v>0.05503128954714118</v>
       </c>
       <c r="D41">
-        <v>0.9523809457582141</v>
+        <v>0.05503128954714118</v>
       </c>
       <c r="E41">
-        <v>0.04116767451015054</v>
+        <v>0.8597883569500434</v>
       </c>
       <c r="F41">
-        <v>0.04116767451015054</v>
+        <v>0.04389099790542214</v>
       </c>
       <c r="G41">
-        <v>0.9058956853927128</v>
+        <v>0.04389099790542214</v>
       </c>
     </row>
   </sheetData>

--- a/dwas_mlp_output.xlsx
+++ b/dwas_mlp_output.xlsx
@@ -16,7 +16,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>acc</t>
+    <t>val_loss</t>
+  </si>
+  <si>
+    <t>val_mean_absolute_error</t>
+  </si>
+  <si>
+    <t>val_acc</t>
   </si>
   <si>
     <t>loss</t>
@@ -25,13 +31,7 @@
     <t>mean_absolute_error</t>
   </si>
   <si>
-    <t>val_acc</t>
-  </si>
-  <si>
-    <t>val_loss</t>
-  </si>
-  <si>
-    <t>val_mean_absolute_error</t>
+    <t>acc</t>
   </si>
 </sst>
 </file>
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,22 +420,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6485260795641378</v>
+        <v>0.4010152227016741</v>
       </c>
       <c r="C2">
-        <v>0.2339363681013081</v>
+        <v>0.4010152227016741</v>
       </c>
       <c r="D2">
-        <v>0.2339363681013081</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.7328042302812848</v>
+        <v>0.4415975852583629</v>
       </c>
       <c r="F2">
-        <v>0.1964499006668727</v>
+        <v>0.4415975852583629</v>
       </c>
       <c r="G2">
-        <v>0.1964499006668727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -443,22 +443,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7244897995000523</v>
+        <v>0.2794351134262488</v>
       </c>
       <c r="C3">
-        <v>0.1776597141003122</v>
+        <v>0.2794351134262488</v>
       </c>
       <c r="D3">
-        <v>0.1776597141003122</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.7645502632887906</v>
+        <v>0.3636179543458499</v>
       </c>
       <c r="F3">
-        <v>0.142791933049916</v>
+        <v>0.3636179543458499</v>
       </c>
       <c r="G3">
-        <v>0.142791933049916</v>
+        <v>0.0007930214233950525</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -466,22 +466,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7823129222641726</v>
+        <v>0.1986906442368565</v>
       </c>
       <c r="C4">
-        <v>0.1254619428478266</v>
+        <v>0.1986906442368565</v>
       </c>
       <c r="D4">
-        <v>0.1254619428478266</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.8544973519744066</v>
+        <v>0.2681561212966028</v>
       </c>
       <c r="F4">
-        <v>0.08517111991606062</v>
+        <v>0.2681561212966028</v>
       </c>
       <c r="G4">
-        <v>0.08517111991606062</v>
+        <v>0.0007930214233950525</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -489,22 +489,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8276643965249699</v>
+        <v>0.1771358383283766</v>
       </c>
       <c r="C5">
-        <v>0.08986162239698325</v>
+        <v>0.1771358383283766</v>
       </c>
       <c r="D5">
-        <v>0.08986162239698325</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.8597883569500434</v>
+        <v>0.2251045434225371</v>
       </c>
       <c r="F5">
-        <v>0.05679801029581872</v>
+        <v>0.2251045434225371</v>
       </c>
       <c r="G5">
-        <v>0.05679801029581872</v>
+        <v>0.0007930214233950525</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,22 +512,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8605442121456</v>
+        <v>0.1699392376443012</v>
       </c>
       <c r="C6">
-        <v>0.07741538746928682</v>
+        <v>0.1699392376443012</v>
       </c>
       <c r="D6">
-        <v>0.07741538746928682</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.8544973488207217</v>
+        <v>0.2103536092483458</v>
       </c>
       <c r="F6">
-        <v>0.04942771380461713</v>
+        <v>0.2103536092483458</v>
       </c>
       <c r="G6">
-        <v>0.04942771380461713</v>
+        <v>0.0007930214233950525</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -535,22 +535,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8458049856886571</v>
+        <v>0.1653727136925846</v>
       </c>
       <c r="C7">
-        <v>0.07219248730478103</v>
+        <v>0.1653727136925846</v>
       </c>
       <c r="D7">
-        <v>0.07219248730478103</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.8730158686007141</v>
+        <v>0.2003586064436245</v>
       </c>
       <c r="F7">
-        <v>0.04670578676950995</v>
+        <v>0.2003586064436245</v>
       </c>
       <c r="G7">
-        <v>0.04670578676950995</v>
+        <v>0.00634417138716042</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -558,22 +558,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8412698395127882</v>
+        <v>0.1621243273519903</v>
       </c>
       <c r="C8">
-        <v>0.06853477337530681</v>
+        <v>0.1621243273519903</v>
       </c>
       <c r="D8">
-        <v>0.06853477337530681</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.8624338570725981</v>
+        <v>0.1945844686499292</v>
       </c>
       <c r="F8">
-        <v>0.04673912156392973</v>
+        <v>0.1945844686499292</v>
       </c>
       <c r="G8">
-        <v>0.04673912156392973</v>
+        <v>0.01348136419771589</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -581,22 +581,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8628117870581664</v>
+        <v>0.1594818155809569</v>
       </c>
       <c r="C9">
-        <v>0.06883696155821115</v>
+        <v>0.1594818155809569</v>
       </c>
       <c r="D9">
-        <v>0.06883696155821115</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.8624338586494406</v>
+        <v>0.1881042575075171</v>
       </c>
       <c r="F9">
-        <v>0.04869715664437208</v>
+        <v>0.1881042575075171</v>
       </c>
       <c r="G9">
-        <v>0.04869715664437208</v>
+        <v>0.01823949279717091</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -604,22 +604,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8458049833233935</v>
+        <v>0.1569725861256858</v>
       </c>
       <c r="C10">
-        <v>0.06833576908558946</v>
+        <v>0.1569725861256858</v>
       </c>
       <c r="D10">
-        <v>0.06833576908558946</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.8597883553732009</v>
+        <v>0.1842996663370367</v>
       </c>
       <c r="F10">
-        <v>0.04528263484241155</v>
+        <v>0.1842996663370367</v>
       </c>
       <c r="G10">
-        <v>0.04528263484241155</v>
+        <v>0.02616970703112143</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -627,22 +627,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8684807226501084</v>
+        <v>0.1544973091038047</v>
       </c>
       <c r="C11">
-        <v>0.06722350878949339</v>
+        <v>0.1544973091038047</v>
       </c>
       <c r="D11">
-        <v>0.06722350878949339</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.8597883569500434</v>
+        <v>0.1803897741198256</v>
       </c>
       <c r="F11">
-        <v>0.04688214109569946</v>
+        <v>0.1803897741198256</v>
       </c>
       <c r="G11">
-        <v>0.04688214109569946</v>
+        <v>0.03013481414809669</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -650,22 +650,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8594104270545804</v>
+        <v>0.1525205159486127</v>
       </c>
       <c r="C12">
-        <v>0.06408613091524766</v>
+        <v>0.1525205159486127</v>
       </c>
       <c r="D12">
-        <v>0.06408613091524766</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.8624338586494406</v>
+        <v>0.1774510880910055</v>
       </c>
       <c r="F12">
-        <v>0.05066828141925196</v>
+        <v>0.1774510880910055</v>
       </c>
       <c r="G12">
-        <v>0.05066828141925196</v>
+        <v>0.03647898547617241</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -673,22 +673,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8673469308011926</v>
+        <v>0.1508404698252363</v>
       </c>
       <c r="C13">
-        <v>0.0645740676476977</v>
+        <v>0.1508404698252363</v>
       </c>
       <c r="D13">
-        <v>0.0645740676476977</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.8597883569500434</v>
+        <v>0.1749070712751476</v>
       </c>
       <c r="F13">
-        <v>0.04672135800004951</v>
+        <v>0.1749070712751476</v>
       </c>
       <c r="G13">
-        <v>0.04672135800004951</v>
+        <v>0.03092783563057645</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -696,22 +696,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8594104250272115</v>
+        <v>0.149332008764423</v>
       </c>
       <c r="C14">
-        <v>0.06317227325336733</v>
+        <v>0.149332008764423</v>
       </c>
       <c r="D14">
-        <v>0.06317227325336733</v>
+        <v>0.01319261233378841</v>
       </c>
       <c r="E14">
-        <v>0.8597883553732009</v>
+        <v>0.1718772888112692</v>
       </c>
       <c r="F14">
-        <v>0.04516204090779105</v>
+        <v>0.1718772888112692</v>
       </c>
       <c r="G14">
-        <v>0.04516204090779105</v>
+        <v>0.04916732848683205</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -719,22 +719,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8752834426572804</v>
+        <v>0.1478872948318798</v>
       </c>
       <c r="C15">
-        <v>0.06278287619352341</v>
+        <v>0.1478872948318798</v>
       </c>
       <c r="D15">
-        <v>0.06278287619352341</v>
+        <v>0.06860158450921167</v>
       </c>
       <c r="E15">
-        <v>0.8756613718769538</v>
+        <v>0.1693951334393658</v>
       </c>
       <c r="F15">
-        <v>0.04462548879482759</v>
+        <v>0.1693951334393658</v>
       </c>
       <c r="G15">
-        <v>0.04462548879482759</v>
+        <v>0.04282315704058693</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -742,22 +742,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8650793608894695</v>
+        <v>0.1461401680056841</v>
       </c>
       <c r="C16">
-        <v>0.06387534633684321</v>
+        <v>0.1461401680056841</v>
       </c>
       <c r="D16">
-        <v>0.06387534633684321</v>
+        <v>0.08707124216968591</v>
       </c>
       <c r="E16">
-        <v>0.8677248652019198</v>
+        <v>0.1677820207957329</v>
       </c>
       <c r="F16">
-        <v>0.04485266377765035</v>
+        <v>0.1677820207957329</v>
       </c>
       <c r="G16">
-        <v>0.04485266377765035</v>
+        <v>0.06740682128400297</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -765,22 +765,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8571428507904347</v>
+        <v>0.1440207370431568</v>
       </c>
       <c r="C17">
-        <v>0.06122600532595127</v>
+        <v>0.1440207370431568</v>
       </c>
       <c r="D17">
-        <v>0.06122600532595127</v>
+        <v>0.1292876008514679</v>
       </c>
       <c r="E17">
-        <v>0.8650793635025227</v>
+        <v>0.1654780257750276</v>
       </c>
       <c r="F17">
-        <v>0.04338534040346978</v>
+        <v>0.1654780257750276</v>
       </c>
       <c r="G17">
-        <v>0.04338534040346978</v>
+        <v>0.04996034979205771</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -788,22 +788,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8616780006155675</v>
+        <v>0.1419359696807836</v>
       </c>
       <c r="C18">
-        <v>0.06125166994475183</v>
+        <v>0.1419359696807836</v>
       </c>
       <c r="D18">
-        <v>0.06125166994475183</v>
+        <v>0.1240105561145377</v>
       </c>
       <c r="E18">
-        <v>0.8650793635025227</v>
+        <v>0.163026437352424</v>
       </c>
       <c r="F18">
-        <v>0.04556353723324796</v>
+        <v>0.163026437352424</v>
       </c>
       <c r="G18">
-        <v>0.04556353723324796</v>
+        <v>0.05947660710913713</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -811,22 +811,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8639455735007652</v>
+        <v>0.1401078681360763</v>
       </c>
       <c r="C19">
-        <v>0.06037402545817856</v>
+        <v>0.1401078681360763</v>
       </c>
       <c r="D19">
-        <v>0.06037402545817856</v>
+        <v>0.163588393115903</v>
       </c>
       <c r="E19">
-        <v>0.862433860226283</v>
+        <v>0.1601464135083388</v>
       </c>
       <c r="F19">
-        <v>0.04409303706356142</v>
+        <v>0.1601464135083388</v>
       </c>
       <c r="G19">
-        <v>0.04409303706356142</v>
+        <v>0.0650277571319872</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -834,22 +834,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8730158670689243</v>
+        <v>0.1384247723072374</v>
       </c>
       <c r="C20">
-        <v>0.05889587356052161</v>
+        <v>0.1384247723072374</v>
       </c>
       <c r="D20">
-        <v>0.05889587356052161</v>
+        <v>0.2163588422348128</v>
       </c>
       <c r="E20">
-        <v>0.8571428552506462</v>
+        <v>0.1585499733615545</v>
       </c>
       <c r="F20">
-        <v>0.04559907312233927</v>
+        <v>0.1585499733615545</v>
       </c>
       <c r="G20">
-        <v>0.04559907312233927</v>
+        <v>0.06026962853253218</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -857,22 +857,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8662131443585939</v>
+        <v>0.1351442154998201</v>
       </c>
       <c r="C21">
-        <v>0.05848183362087966</v>
+        <v>0.1351442154998201</v>
       </c>
       <c r="D21">
-        <v>0.05848183362087966</v>
+        <v>0.2058047523677821</v>
       </c>
       <c r="E21">
-        <v>0.862433860226283</v>
+        <v>0.15567444217621</v>
       </c>
       <c r="F21">
-        <v>0.04671717172971478</v>
+        <v>0.15567444217621</v>
       </c>
       <c r="G21">
-        <v>0.04671717172971478</v>
+        <v>0.05551149969673837</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -880,22 +880,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8696145067274436</v>
+        <v>0.1325863472783157</v>
       </c>
       <c r="C22">
-        <v>0.05845955854742164</v>
+        <v>0.1325863472783157</v>
       </c>
       <c r="D22">
-        <v>0.05845955854742164</v>
+        <v>0.1978891853606795</v>
       </c>
       <c r="E22">
-        <v>0.8624338586494406</v>
+        <v>0.1532243567915496</v>
       </c>
       <c r="F22">
-        <v>0.04335810169183388</v>
+        <v>0.1532243567915496</v>
       </c>
       <c r="G22">
-        <v>0.04335810169183388</v>
+        <v>0.05630452147464162</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8786848015796029</v>
+        <v>0.1300314979377082</v>
       </c>
       <c r="C23">
-        <v>0.05910817637634115</v>
+        <v>0.1300314979377082</v>
       </c>
       <c r="D23">
-        <v>0.05910817637634115</v>
+        <v>0.1688654392092712</v>
       </c>
       <c r="E23">
-        <v>0.8571428552506462</v>
+        <v>0.1508582774298613</v>
       </c>
       <c r="F23">
-        <v>0.04385818069968274</v>
+        <v>0.1508582774298613</v>
       </c>
       <c r="G23">
-        <v>0.04385818069968274</v>
+        <v>0.0650277569547331</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -926,22 +926,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8662131457101732</v>
+        <v>0.1275834105417408</v>
       </c>
       <c r="C24">
-        <v>0.05932440899751759</v>
+        <v>0.1275834105417408</v>
       </c>
       <c r="D24">
-        <v>0.05932440899751759</v>
+        <v>0.1029023763804763</v>
       </c>
       <c r="E24">
-        <v>0.8650793619256801</v>
+        <v>0.1477682683129428</v>
       </c>
       <c r="F24">
-        <v>0.04331020689594052</v>
+        <v>0.1477682683129428</v>
       </c>
       <c r="G24">
-        <v>0.04331020689594052</v>
+        <v>0.05630452135647222</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -949,22 +949,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8809523741944847</v>
+        <v>0.1239694226385736</v>
       </c>
       <c r="C25">
-        <v>0.05623901362558341</v>
+        <v>0.1239694226385736</v>
       </c>
       <c r="D25">
-        <v>0.05623901362558341</v>
+        <v>0.1451187350622582</v>
       </c>
       <c r="E25">
-        <v>0.862433860226283</v>
+        <v>0.1454876307619648</v>
       </c>
       <c r="F25">
-        <v>0.04400462523181602</v>
+        <v>0.1454876307619648</v>
       </c>
       <c r="G25">
-        <v>0.04400462523181602</v>
+        <v>0.0650277573092413</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -972,22 +972,22 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.8809523741944847</v>
+        <v>0.1211488738773995</v>
       </c>
       <c r="C26">
-        <v>0.0570832078182508</v>
+        <v>0.1211488738773995</v>
       </c>
       <c r="D26">
-        <v>0.0570832078182508</v>
+        <v>0.0923482867100308</v>
       </c>
       <c r="E26">
-        <v>0.8597883569500434</v>
+        <v>0.1422899372515274</v>
       </c>
       <c r="F26">
-        <v>0.0433283896436767</v>
+        <v>0.1422899372515274</v>
       </c>
       <c r="G26">
-        <v>0.0433283896436767</v>
+        <v>0.06264869292088675</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -995,22 +995,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.8662131484133316</v>
+        <v>0.1178593553779622</v>
       </c>
       <c r="C27">
-        <v>0.05805420705757174</v>
+        <v>0.1178593553779622</v>
       </c>
       <c r="D27">
-        <v>0.05805420705757174</v>
+        <v>0.08179419703958532</v>
       </c>
       <c r="E27">
-        <v>0.862433860226283</v>
+        <v>0.1387727608007632</v>
       </c>
       <c r="F27">
-        <v>0.0440658430258433</v>
+        <v>0.1387727608007632</v>
       </c>
       <c r="G27">
-        <v>0.0440658430258433</v>
+        <v>0.04599524279325184</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1018,22 +1018,22 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.8718820804911677</v>
+        <v>0.1152263800158979</v>
       </c>
       <c r="C28">
-        <v>0.05873115098023631</v>
+        <v>0.1152263800158979</v>
       </c>
       <c r="D28">
-        <v>0.05873115098023631</v>
+        <v>0.05277044970866558</v>
       </c>
       <c r="E28">
-        <v>0.8677248652019198</v>
+        <v>0.1367697214780111</v>
       </c>
       <c r="F28">
-        <v>0.0437937399579419</v>
+        <v>0.1367697214780111</v>
       </c>
       <c r="G28">
-        <v>0.0437937399579419</v>
+        <v>0.06582077849629756</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1041,22 +1041,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.8707482935079371</v>
+        <v>0.1117871984603537</v>
       </c>
       <c r="C29">
-        <v>0.05624305710297863</v>
+        <v>0.1117871984603537</v>
       </c>
       <c r="D29">
-        <v>0.05624305710297863</v>
+        <v>0.04485488232805106</v>
       </c>
       <c r="E29">
-        <v>0.862433860226283</v>
+        <v>0.1334696427448509</v>
       </c>
       <c r="F29">
-        <v>0.04509334475117386</v>
+        <v>0.1334696427448509</v>
       </c>
       <c r="G29">
-        <v>0.04509334475117386</v>
+        <v>0.0483743072406911</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1064,22 +1064,22 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.8764172263967207</v>
+        <v>0.1093181222480646</v>
       </c>
       <c r="C30">
-        <v>0.05858811671062121</v>
+        <v>0.1093181222480646</v>
       </c>
       <c r="D30">
-        <v>0.05858811671062121</v>
+        <v>0.07651715190948472</v>
       </c>
       <c r="E30">
-        <v>0.862433860226283</v>
+        <v>0.1313089023238605</v>
       </c>
       <c r="F30">
-        <v>0.04311702244732746</v>
+        <v>0.1313089023238605</v>
       </c>
       <c r="G30">
-        <v>0.04311702244732746</v>
+        <v>0.04520222125168739</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1087,22 +1087,22 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.8730158680150298</v>
+        <v>0.1076835559626997</v>
       </c>
       <c r="C31">
-        <v>0.05630175254039483</v>
+        <v>0.1076835559626997</v>
       </c>
       <c r="D31">
-        <v>0.05630175254039483</v>
+        <v>0.05540897197883802</v>
       </c>
       <c r="E31">
-        <v>0.862433860226283</v>
+        <v>0.1301065388118625</v>
       </c>
       <c r="F31">
-        <v>0.04890885344021535</v>
+        <v>0.1301065388118625</v>
       </c>
       <c r="G31">
-        <v>0.04890885344021535</v>
+        <v>0.04758128546278785</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1110,22 +1110,22 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.8798185870760963</v>
+        <v>0.104345583762374</v>
       </c>
       <c r="C32">
-        <v>0.05527254869810849</v>
+        <v>0.104345583762374</v>
       </c>
       <c r="D32">
-        <v>0.05527254869810849</v>
+        <v>0.0448548821118073</v>
       </c>
       <c r="E32">
-        <v>0.8677248652019198</v>
+        <v>0.1265672467040411</v>
       </c>
       <c r="F32">
-        <v>0.04301970048004358</v>
+        <v>0.1265672467040411</v>
       </c>
       <c r="G32">
-        <v>0.04301970048004358</v>
+        <v>0.04044409271131708</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1133,22 +1133,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.8730158686908194</v>
+        <v>0.1024979756933718</v>
       </c>
       <c r="C33">
-        <v>0.05643147025721954</v>
+        <v>0.1024979756933718</v>
       </c>
       <c r="D33">
-        <v>0.05643147025721954</v>
+        <v>0.05540897197883802</v>
       </c>
       <c r="E33">
-        <v>0.8677248652019198</v>
+        <v>0.1250517350354902</v>
       </c>
       <c r="F33">
-        <v>0.04335480003997132</v>
+        <v>0.1250517350354902</v>
       </c>
       <c r="G33">
-        <v>0.04335480003997132</v>
+        <v>0.04282315709967163</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1156,22 +1156,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.875283437926753</v>
+        <v>0.1005848221539822</v>
       </c>
       <c r="C34">
-        <v>0.05549544602835259</v>
+        <v>0.1005848221539822</v>
       </c>
       <c r="D34">
-        <v>0.05549544602835259</v>
+        <v>0.05277044951208034</v>
       </c>
       <c r="E34">
-        <v>0.8730158686007141</v>
+        <v>0.123657755234665</v>
       </c>
       <c r="F34">
-        <v>0.04462635708312509</v>
+        <v>0.123657755234665</v>
       </c>
       <c r="G34">
-        <v>0.04462635708312509</v>
+        <v>0.05154639287518661</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1179,22 +1179,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.8820861606370836</v>
+        <v>0.09840411464818864</v>
       </c>
       <c r="C35">
-        <v>0.05622636406025649</v>
+        <v>0.09840411464818864</v>
       </c>
       <c r="D35">
-        <v>0.05622636406025649</v>
+        <v>0.06596306204245399</v>
       </c>
       <c r="E35">
-        <v>0.8650793619256801</v>
+        <v>0.1205892125284927</v>
       </c>
       <c r="F35">
-        <v>0.04771522864226311</v>
+        <v>0.1205892125284927</v>
       </c>
       <c r="G35">
-        <v>0.04771522864226311</v>
+        <v>0.0483743070043523</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1202,22 +1202,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.8786848026608663</v>
+        <v>0.0966375706850067</v>
       </c>
       <c r="C36">
-        <v>0.05475998533015349</v>
+        <v>0.0966375706850067</v>
       </c>
       <c r="D36">
-        <v>0.05475998533015349</v>
+        <v>0.05277044951208034</v>
       </c>
       <c r="E36">
-        <v>0.870370366901317</v>
+        <v>0.1198733086852116</v>
       </c>
       <c r="F36">
-        <v>0.0431286519363759</v>
+        <v>0.1198733086852116</v>
       </c>
       <c r="G36">
-        <v>0.0431286519363759</v>
+        <v>0.05154639263884781</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1225,22 +1225,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.8775510158127938</v>
+        <v>0.09502795421196478</v>
       </c>
       <c r="C37">
-        <v>0.05525013211430335</v>
+        <v>0.09502795421196478</v>
       </c>
       <c r="D37">
-        <v>0.05525013211430335</v>
+        <v>0.03957783698170669</v>
       </c>
       <c r="E37">
-        <v>0.8571428552506462</v>
+        <v>0.1181313868709541</v>
       </c>
       <c r="F37">
-        <v>0.04425570584597096</v>
+        <v>0.1181313868709541</v>
       </c>
       <c r="G37">
-        <v>0.04425570584597096</v>
+        <v>0.04996034979205771</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1248,22 +1248,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.8741496548631024</v>
+        <v>0.09367196780867816</v>
       </c>
       <c r="C38">
-        <v>0.05579157561367871</v>
+        <v>0.09367196780867816</v>
       </c>
       <c r="D38">
-        <v>0.05579157561367871</v>
+        <v>0.04221635944846438</v>
       </c>
       <c r="E38">
-        <v>0.8650793619256801</v>
+        <v>0.1163112087962554</v>
       </c>
       <c r="F38">
-        <v>0.04256838499001725</v>
+        <v>0.1163112087962554</v>
       </c>
       <c r="G38">
-        <v>0.04256838499001725</v>
+        <v>0.04440919982829234</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1271,22 +1271,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.8832199511344201</v>
+        <v>0.09239263952486118</v>
       </c>
       <c r="C39">
-        <v>0.05553818218697226</v>
+        <v>0.09239263952486118</v>
       </c>
       <c r="D39">
-        <v>0.05553818218697226</v>
+        <v>0.03430079204819133</v>
       </c>
       <c r="E39">
-        <v>0.862433860226283</v>
+        <v>0.1141044607919232</v>
       </c>
       <c r="F39">
-        <v>0.04280567773317218</v>
+        <v>0.1141044607919232</v>
       </c>
       <c r="G39">
-        <v>0.04280567773317218</v>
+        <v>0.03568596411186206</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1294,22 +1294,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.8798185859948329</v>
+        <v>0.09155277325956047</v>
       </c>
       <c r="C40">
-        <v>0.05361374588408708</v>
+        <v>0.09155277325956047</v>
       </c>
       <c r="D40">
-        <v>0.05361374588408708</v>
+        <v>0.05013192704532266</v>
       </c>
       <c r="E40">
-        <v>0.862433860226283</v>
+        <v>0.1137700185746923</v>
       </c>
       <c r="F40">
-        <v>0.04301337968735468</v>
+        <v>0.1137700185746923</v>
       </c>
       <c r="G40">
-        <v>0.04301337968735468</v>
+        <v>0.04361617846398198</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1317,22 +1317,8302 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.8798185870760963</v>
+        <v>0.08988188352622584</v>
       </c>
       <c r="C41">
-        <v>0.05503128954714118</v>
+        <v>0.08988188352622584</v>
       </c>
       <c r="D41">
-        <v>0.05503128954714118</v>
+        <v>0.05013192684873742</v>
       </c>
       <c r="E41">
-        <v>0.8597883569500434</v>
+        <v>0.1117832992849229</v>
       </c>
       <c r="F41">
-        <v>0.04389099790542214</v>
+        <v>0.1117832992849229</v>
       </c>
       <c r="G41">
-        <v>0.04389099790542214</v>
+        <v>0.05154639269793251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0.08907111592610467</v>
+      </c>
+      <c r="C42">
+        <v>0.08907111592610467</v>
+      </c>
+      <c r="D42">
+        <v>0.03430079204819133</v>
+      </c>
+      <c r="E42">
+        <v>0.1104771694630786</v>
+      </c>
+      <c r="F42">
+        <v>0.1104771694630786</v>
+      </c>
+      <c r="G42">
+        <v>0.04044409271131708</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0.08848570413042184</v>
+      </c>
+      <c r="C43">
+        <v>0.08848570413042184</v>
+      </c>
+      <c r="D43">
+        <v>0.02902374711467597</v>
+      </c>
+      <c r="E43">
+        <v>0.1102704100139457</v>
+      </c>
+      <c r="F43">
+        <v>0.1102704100139457</v>
+      </c>
+      <c r="G43">
+        <v>0.05551149987399247</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0.08861721499692796</v>
+      </c>
+      <c r="C44">
+        <v>0.08861721499692796</v>
+      </c>
+      <c r="D44">
+        <v>0.02902374711467597</v>
+      </c>
+      <c r="E44">
+        <v>0.108898289300779</v>
+      </c>
+      <c r="F44">
+        <v>0.108898289300779</v>
+      </c>
+      <c r="G44">
+        <v>0.04996034979205771</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0.08593832021259695</v>
+      </c>
+      <c r="C45">
+        <v>0.08593832021259695</v>
+      </c>
+      <c r="D45">
+        <v>0.02902374713433449</v>
+      </c>
+      <c r="E45">
+        <v>0.1078585663915248</v>
+      </c>
+      <c r="F45">
+        <v>0.1078585663915248</v>
+      </c>
+      <c r="G45">
+        <v>0.05630452117921812</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0.08512608070014964</v>
+      </c>
+      <c r="C46">
+        <v>0.08512608070014964</v>
+      </c>
+      <c r="D46">
+        <v>0.03166226960109218</v>
+      </c>
+      <c r="E46">
+        <v>0.1070249271856046</v>
+      </c>
+      <c r="F46">
+        <v>0.1070249271856046</v>
+      </c>
+      <c r="G46">
+        <v>0.0483743071816064</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0.0843225642448994</v>
+      </c>
+      <c r="C47">
+        <v>0.0843225642448994</v>
+      </c>
+      <c r="D47">
+        <v>0.02902374713433449</v>
+      </c>
+      <c r="E47">
+        <v>0.1062282230719794</v>
+      </c>
+      <c r="F47">
+        <v>0.1062282230719794</v>
+      </c>
+      <c r="G47">
+        <v>0.05154639275701721</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0.08363525384648808</v>
+      </c>
+      <c r="C48">
+        <v>0.08363525384648808</v>
+      </c>
+      <c r="D48">
+        <v>0.03957783698170669</v>
+      </c>
+      <c r="E48">
+        <v>0.1047825389183485</v>
+      </c>
+      <c r="F48">
+        <v>0.1047825389183485</v>
+      </c>
+      <c r="G48">
+        <v>0.05551149987399247</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0.08295110253356693</v>
+      </c>
+      <c r="C49">
+        <v>0.08295110253356693</v>
+      </c>
+      <c r="D49">
+        <v>0.02902374713433449</v>
+      </c>
+      <c r="E49">
+        <v>0.1042361306669124</v>
+      </c>
+      <c r="F49">
+        <v>0.1042361306669124</v>
+      </c>
+      <c r="G49">
+        <v>0.04599524267508244</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0.08271797626502911</v>
+      </c>
+      <c r="C50">
+        <v>0.08271797626502911</v>
+      </c>
+      <c r="D50">
+        <v>0.02374670220081913</v>
+      </c>
+      <c r="E50">
+        <v>0.1032623137974437</v>
+      </c>
+      <c r="F50">
+        <v>0.1032623137974437</v>
+      </c>
+      <c r="G50">
+        <v>0.05630452153372632</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0.08137543967342628</v>
+      </c>
+      <c r="C51">
+        <v>0.08137543967342628</v>
+      </c>
+      <c r="D51">
+        <v>0.04221635944846438</v>
+      </c>
+      <c r="E51">
+        <v>0.1020607352847622</v>
+      </c>
+      <c r="F51">
+        <v>0.1020607352847622</v>
+      </c>
+      <c r="G51">
+        <v>0.05313243566289201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0.08092723743582149</v>
+      </c>
+      <c r="C52">
+        <v>0.08092723743582149</v>
+      </c>
+      <c r="D52">
+        <v>0.03957783698170669</v>
+      </c>
+      <c r="E52">
+        <v>0.1019241838323796</v>
+      </c>
+      <c r="F52">
+        <v>0.1019241838323796</v>
+      </c>
+      <c r="G52">
+        <v>0.05789056420326233</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0.08037701072195903</v>
+      </c>
+      <c r="C53">
+        <v>0.08037701072195903</v>
+      </c>
+      <c r="D53">
+        <v>0.04749340438197974</v>
+      </c>
+      <c r="E53">
+        <v>0.1010500216039753</v>
+      </c>
+      <c r="F53">
+        <v>0.1010500216039753</v>
+      </c>
+      <c r="G53">
+        <v>0.05947660705005244</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0.07957964600862488</v>
+      </c>
+      <c r="C54">
+        <v>0.07957964600862488</v>
+      </c>
+      <c r="D54">
+        <v>0.03430079204819133</v>
+      </c>
+      <c r="E54">
+        <v>0.1004962471744354</v>
+      </c>
+      <c r="F54">
+        <v>0.1004962471744354</v>
+      </c>
+      <c r="G54">
+        <v>0.04599524261599774</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>0.07884922452605179</v>
+      </c>
+      <c r="C55">
+        <v>0.07884922452605179</v>
+      </c>
+      <c r="D55">
+        <v>0.03166226960109218</v>
+      </c>
+      <c r="E55">
+        <v>0.09986306518954384</v>
+      </c>
+      <c r="F55">
+        <v>0.09986306518954384</v>
+      </c>
+      <c r="G55">
+        <v>0.05789056408509293</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>0.07822900756918345</v>
+      </c>
+      <c r="C56">
+        <v>0.07822900756918345</v>
+      </c>
+      <c r="D56">
+        <v>0.02374670220081913</v>
+      </c>
+      <c r="E56">
+        <v>0.09920461649558168</v>
+      </c>
+      <c r="F56">
+        <v>0.09920461649558168</v>
+      </c>
+      <c r="G56">
+        <v>0.05233941400315816</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0.07822902905595019</v>
+      </c>
+      <c r="C57">
+        <v>0.07822902905595019</v>
+      </c>
+      <c r="D57">
+        <v>0.04221635966470814</v>
+      </c>
+      <c r="E57">
+        <v>0.09811341473618544</v>
+      </c>
+      <c r="F57">
+        <v>0.09811341473618544</v>
+      </c>
+      <c r="G57">
+        <v>0.05075337133362216</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>0.07713813690522729</v>
+      </c>
+      <c r="C58">
+        <v>0.07713813690522729</v>
+      </c>
+      <c r="D58">
+        <v>0.03693931473119278</v>
+      </c>
+      <c r="E58">
+        <v>0.09749048627458046</v>
+      </c>
+      <c r="F58">
+        <v>0.09749048627458046</v>
+      </c>
+      <c r="G58">
+        <v>0.06026962865070158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0.07666340934255192</v>
+      </c>
+      <c r="C59">
+        <v>0.07666340934255192</v>
+      </c>
+      <c r="D59">
+        <v>0.02374670220081913</v>
+      </c>
+      <c r="E59">
+        <v>0.09668549058056369</v>
+      </c>
+      <c r="F59">
+        <v>0.09668549058056369</v>
+      </c>
+      <c r="G59">
+        <v>0.05709754266169788</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0.07598750025898926</v>
+      </c>
+      <c r="C60">
+        <v>0.07598750025898926</v>
+      </c>
+      <c r="D60">
+        <v>0.02110817973406145</v>
+      </c>
+      <c r="E60">
+        <v>0.09693973370835858</v>
+      </c>
+      <c r="F60">
+        <v>0.09693973370835858</v>
+      </c>
+      <c r="G60">
+        <v>0.05233941406224286</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>0.07568708404230254</v>
+      </c>
+      <c r="C61">
+        <v>0.07568708404230254</v>
+      </c>
+      <c r="D61">
+        <v>0.0474934045982235</v>
+      </c>
+      <c r="E61">
+        <v>0.09515887752919798</v>
+      </c>
+      <c r="F61">
+        <v>0.09515887752919798</v>
+      </c>
+      <c r="G61">
+        <v>0.05075337121545276</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>0.07492978933775959</v>
+      </c>
+      <c r="C62">
+        <v>0.07492978933775959</v>
+      </c>
+      <c r="D62">
+        <v>0.06332453957569631</v>
+      </c>
+      <c r="E62">
+        <v>0.09446655469669604</v>
+      </c>
+      <c r="F62">
+        <v>0.09446655469669604</v>
+      </c>
+      <c r="G62">
+        <v>0.07137192863731702</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>0.07470070047790582</v>
+      </c>
+      <c r="C63">
+        <v>0.07470070047790582</v>
+      </c>
+      <c r="D63">
+        <v>0.05013192684873742</v>
+      </c>
+      <c r="E63">
+        <v>0.09441216226185625</v>
+      </c>
+      <c r="F63">
+        <v>0.09441216226185625</v>
+      </c>
+      <c r="G63">
+        <v>0.05471847839151272</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>0.07435253032515106</v>
+      </c>
+      <c r="C64">
+        <v>0.07435253032515106</v>
+      </c>
+      <c r="D64">
+        <v>0.03693931473119278</v>
+      </c>
+      <c r="E64">
+        <v>0.09457428895770133</v>
+      </c>
+      <c r="F64">
+        <v>0.09457428895770133</v>
+      </c>
+      <c r="G64">
+        <v>0.05392545714537177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0.07345791369440688</v>
+      </c>
+      <c r="C65">
+        <v>0.07345791369440688</v>
+      </c>
+      <c r="D65">
+        <v>0.06596306204245399</v>
+      </c>
+      <c r="E65">
+        <v>0.09346460598882089</v>
+      </c>
+      <c r="F65">
+        <v>0.09346460598882089</v>
+      </c>
+      <c r="G65">
+        <v>0.07057890703666787</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>0.07308758606539553</v>
+      </c>
+      <c r="C66">
+        <v>0.07308758606539553</v>
+      </c>
+      <c r="D66">
+        <v>0.05277044992490935</v>
+      </c>
+      <c r="E66">
+        <v>0.09287259370254014</v>
+      </c>
+      <c r="F66">
+        <v>0.09287259370254014</v>
+      </c>
+      <c r="G66">
+        <v>0.06819984270739801</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>0.07293616396456092</v>
+      </c>
+      <c r="C67">
+        <v>0.07293616396456092</v>
+      </c>
+      <c r="D67">
+        <v>0.03166226979767742</v>
+      </c>
+      <c r="E67">
+        <v>0.09188547319807201</v>
+      </c>
+      <c r="F67">
+        <v>0.09188547319807201</v>
+      </c>
+      <c r="G67">
+        <v>0.05709754272078258</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0.07231961178905416</v>
+      </c>
+      <c r="C68">
+        <v>0.07231961178905416</v>
+      </c>
+      <c r="D68">
+        <v>0.07387862963931227</v>
+      </c>
+      <c r="E68">
+        <v>0.09229931938421339</v>
+      </c>
+      <c r="F68">
+        <v>0.09229931938421339</v>
+      </c>
+      <c r="G68">
+        <v>0.05947660716822183</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>0.07181711268849612</v>
+      </c>
+      <c r="C69">
+        <v>0.07181711268849612</v>
+      </c>
+      <c r="D69">
+        <v>0.02902374711467597</v>
+      </c>
+      <c r="E69">
+        <v>0.09203055052531323</v>
+      </c>
+      <c r="F69">
+        <v>0.09203055052531323</v>
+      </c>
+      <c r="G69">
+        <v>0.06026962847344749</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>0.07145309233964275</v>
+      </c>
+      <c r="C70">
+        <v>0.07145309233964275</v>
+      </c>
+      <c r="D70">
+        <v>0.01846965724764525</v>
+      </c>
+      <c r="E70">
+        <v>0.09097794342334076</v>
+      </c>
+      <c r="F70">
+        <v>0.09097794342334076</v>
+      </c>
+      <c r="G70">
+        <v>0.05471847850968212</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>0.07154304349406727</v>
+      </c>
+      <c r="C71">
+        <v>0.07154304349406727</v>
+      </c>
+      <c r="D71">
+        <v>0.04221635982197633</v>
+      </c>
+      <c r="E71">
+        <v>0.09051576767243817</v>
+      </c>
+      <c r="F71">
+        <v>0.09051576767243817</v>
+      </c>
+      <c r="G71">
+        <v>0.0650277571910719</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>0.07051555440812753</v>
+      </c>
+      <c r="C72">
+        <v>0.07051555440812753</v>
+      </c>
+      <c r="D72">
+        <v>0.03430079204819133</v>
+      </c>
+      <c r="E72">
+        <v>0.09054732258290549</v>
+      </c>
+      <c r="F72">
+        <v>0.09054732258290549</v>
+      </c>
+      <c r="G72">
+        <v>0.05868358556757268</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>0.07110690675420309</v>
+      </c>
+      <c r="C73">
+        <v>0.07110690675420309</v>
+      </c>
+      <c r="D73">
+        <v>0.05013192722224938</v>
+      </c>
+      <c r="E73">
+        <v>0.08933627546353533</v>
+      </c>
+      <c r="F73">
+        <v>0.08933627546353533</v>
+      </c>
+      <c r="G73">
+        <v>0.06264869286180204</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>0.06987499398496345</v>
+      </c>
+      <c r="C74">
+        <v>0.06987499398496345</v>
+      </c>
+      <c r="D74">
+        <v>0.05540897235234998</v>
+      </c>
+      <c r="E74">
+        <v>0.08975711061924246</v>
+      </c>
+      <c r="F74">
+        <v>0.08975711061924246</v>
+      </c>
+      <c r="G74">
+        <v>0.04916732848683205</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>0.06960499557939243</v>
+      </c>
+      <c r="C75">
+        <v>0.06960499557939243</v>
+      </c>
+      <c r="D75">
+        <v>0.06596306202279546</v>
+      </c>
+      <c r="E75">
+        <v>0.08831348497653933</v>
+      </c>
+      <c r="F75">
+        <v>0.08831348497653933</v>
+      </c>
+      <c r="G75">
+        <v>0.05868358562665738</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>0.06916702908308965</v>
+      </c>
+      <c r="C76">
+        <v>0.06916702908308965</v>
+      </c>
+      <c r="D76">
+        <v>0.06332453975262302</v>
+      </c>
+      <c r="E76">
+        <v>0.08857148983216682</v>
+      </c>
+      <c r="F76">
+        <v>0.08857148983216682</v>
+      </c>
+      <c r="G76">
+        <v>0.04361617840489729</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>0.06860634423104314</v>
+      </c>
+      <c r="C77">
+        <v>0.06860634423104314</v>
+      </c>
+      <c r="D77">
+        <v>0.05277044970866558</v>
+      </c>
+      <c r="E77">
+        <v>0.08805433061035922</v>
+      </c>
+      <c r="F77">
+        <v>0.08805433061035922</v>
+      </c>
+      <c r="G77">
+        <v>0.06026962835527809</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>0.06854621348484839</v>
+      </c>
+      <c r="C78">
+        <v>0.06854621348484839</v>
+      </c>
+      <c r="D78">
+        <v>0.03166226958143365</v>
+      </c>
+      <c r="E78">
+        <v>0.08747773738629661</v>
+      </c>
+      <c r="F78">
+        <v>0.08747773738629661</v>
+      </c>
+      <c r="G78">
+        <v>0.05392545708628706</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>0.06801954344268839</v>
+      </c>
+      <c r="C79">
+        <v>0.06801954344268839</v>
+      </c>
+      <c r="D79">
+        <v>0.04749340457856498</v>
+      </c>
+      <c r="E79">
+        <v>0.08711580669213438</v>
+      </c>
+      <c r="F79">
+        <v>0.08711580669213438</v>
+      </c>
+      <c r="G79">
+        <v>0.05789056426234703</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>0.06799001592680773</v>
+      </c>
+      <c r="C80">
+        <v>0.06799001592680773</v>
+      </c>
+      <c r="D80">
+        <v>0.0659630622193807</v>
+      </c>
+      <c r="E80">
+        <v>0.0868303766451971</v>
+      </c>
+      <c r="F80">
+        <v>0.0868303766451971</v>
+      </c>
+      <c r="G80">
+        <v>0.06026962840254585</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>0.06734763331573683</v>
+      </c>
+      <c r="C81">
+        <v>0.06734763331573683</v>
+      </c>
+      <c r="D81">
+        <v>0.02638522464791829</v>
+      </c>
+      <c r="E81">
+        <v>0.08658639912941832</v>
+      </c>
+      <c r="F81">
+        <v>0.08658639912941832</v>
+      </c>
+      <c r="G81">
+        <v>0.05392545708628706</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>0.06736203849237009</v>
+      </c>
+      <c r="C82">
+        <v>0.06736203849237009</v>
+      </c>
+      <c r="D82">
+        <v>0.05540897215576474</v>
+      </c>
+      <c r="E82">
+        <v>0.0857287377981701</v>
+      </c>
+      <c r="F82">
+        <v>0.0857287377981701</v>
+      </c>
+      <c r="G82">
+        <v>0.05471847833242802</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>0.06719595775755226</v>
+      </c>
+      <c r="C83">
+        <v>0.06719595775755226</v>
+      </c>
+      <c r="D83">
+        <v>0.02110817971440293</v>
+      </c>
+      <c r="E83">
+        <v>0.08616291681964845</v>
+      </c>
+      <c r="F83">
+        <v>0.08616291681964845</v>
+      </c>
+      <c r="G83">
+        <v>0.07771609990630804</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>0.06710796516221557</v>
+      </c>
+      <c r="C84">
+        <v>0.06710796516221557</v>
+      </c>
+      <c r="D84">
+        <v>0.02110817971440293</v>
+      </c>
+      <c r="E84">
+        <v>0.08487153022559647</v>
+      </c>
+      <c r="F84">
+        <v>0.08487153022559647</v>
+      </c>
+      <c r="G84">
+        <v>0.05868358562665738</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>0.06650063094724766</v>
+      </c>
+      <c r="C85">
+        <v>0.06650063094724766</v>
+      </c>
+      <c r="D85">
+        <v>0.05540897176259426</v>
+      </c>
+      <c r="E85">
+        <v>0.08497179920573163</v>
+      </c>
+      <c r="F85">
+        <v>0.08497179920573163</v>
+      </c>
+      <c r="G85">
+        <v>0.05075337121545276</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>0.06614202410375852</v>
+      </c>
+      <c r="C86">
+        <v>0.06614202410375852</v>
+      </c>
+      <c r="D86">
+        <v>0.05013192722224938</v>
+      </c>
+      <c r="E86">
+        <v>0.084483146661572</v>
+      </c>
+      <c r="F86">
+        <v>0.084483146661572</v>
+      </c>
+      <c r="G86">
+        <v>0.05551149981490777</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>0.0658126565232126</v>
+      </c>
+      <c r="C87">
+        <v>0.0658126565232126</v>
+      </c>
+      <c r="D87">
+        <v>0.02374670218116061</v>
+      </c>
+      <c r="E87">
+        <v>0.0842939142276615</v>
+      </c>
+      <c r="F87">
+        <v>0.0842939142276615</v>
+      </c>
+      <c r="G87">
+        <v>0.0650277570729025</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>0.06539658553367554</v>
+      </c>
+      <c r="C88">
+        <v>0.06539658553367554</v>
+      </c>
+      <c r="D88">
+        <v>0.01846965724764525</v>
+      </c>
+      <c r="E88">
+        <v>0.0837755531580745</v>
+      </c>
+      <c r="F88">
+        <v>0.0837755531580745</v>
+      </c>
+      <c r="G88">
+        <v>0.05709754277986728</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>0.06514948409905849</v>
+      </c>
+      <c r="C89">
+        <v>0.06514948409905849</v>
+      </c>
+      <c r="D89">
+        <v>0.05804749462252242</v>
+      </c>
+      <c r="E89">
+        <v>0.08365402404369578</v>
+      </c>
+      <c r="F89">
+        <v>0.08365402404369578</v>
+      </c>
+      <c r="G89">
+        <v>0.04916732854591675</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>0.06506420740744684</v>
+      </c>
+      <c r="C90">
+        <v>0.06506420740744684</v>
+      </c>
+      <c r="D90">
+        <v>0.09762533162388763</v>
+      </c>
+      <c r="E90">
+        <v>0.08294667409323776</v>
+      </c>
+      <c r="F90">
+        <v>0.08294667409323776</v>
+      </c>
+      <c r="G90">
+        <v>0.06423473588584624</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>0.06450102814426523</v>
+      </c>
+      <c r="C91">
+        <v>0.06450102814426523</v>
+      </c>
+      <c r="D91">
+        <v>0.1266490789548074</v>
+      </c>
+      <c r="E91">
+        <v>0.08326128089149068</v>
+      </c>
+      <c r="F91">
+        <v>0.08326128089149068</v>
+      </c>
+      <c r="G91">
+        <v>0.08247422844667836</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>0.06467464640933165</v>
+      </c>
+      <c r="C92">
+        <v>0.06467464640933165</v>
+      </c>
+      <c r="D92">
+        <v>0.03166226975836037</v>
+      </c>
+      <c r="E92">
+        <v>0.08326778697362502</v>
+      </c>
+      <c r="F92">
+        <v>0.08326778697362502</v>
+      </c>
+      <c r="G92">
+        <v>0.06819984288465211</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>0.06455997047370846</v>
+      </c>
+      <c r="C93">
+        <v>0.06455997047370846</v>
+      </c>
+      <c r="D93">
+        <v>0.08707124195344215</v>
+      </c>
+      <c r="E93">
+        <v>0.08262060914102951</v>
+      </c>
+      <c r="F93">
+        <v>0.08262060914102951</v>
+      </c>
+      <c r="G93">
+        <v>0.04520222113351799</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>0.06391262408532694</v>
+      </c>
+      <c r="C94">
+        <v>0.06391262408532694</v>
+      </c>
+      <c r="D94">
+        <v>0.0817941970199268</v>
+      </c>
+      <c r="E94">
+        <v>0.08255195413833569</v>
+      </c>
+      <c r="F94">
+        <v>0.08255195413833569</v>
+      </c>
+      <c r="G94">
+        <v>0.06582077837812815</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>0.06339474857875728</v>
+      </c>
+      <c r="C95">
+        <v>0.06339474857875728</v>
+      </c>
+      <c r="D95">
+        <v>0.07124010695631082</v>
+      </c>
+      <c r="E95">
+        <v>0.08170748640274264</v>
+      </c>
+      <c r="F95">
+        <v>0.08170748640274264</v>
+      </c>
+      <c r="G95">
+        <v>0.06582077867355166</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>0.06332824678015268</v>
+      </c>
+      <c r="C96">
+        <v>0.06332824678015268</v>
+      </c>
+      <c r="D96">
+        <v>0.02110817971440293</v>
+      </c>
+      <c r="E96">
+        <v>0.08138149530640866</v>
+      </c>
+      <c r="F96">
+        <v>0.08138149530640866</v>
+      </c>
+      <c r="G96">
+        <v>0.0499603499102271</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>0.06300729821807162</v>
+      </c>
+      <c r="C97">
+        <v>0.06300729821807162</v>
+      </c>
+      <c r="D97">
+        <v>0.04221635944846438</v>
+      </c>
+      <c r="E97">
+        <v>0.08116050139010472</v>
+      </c>
+      <c r="F97">
+        <v>0.08116050139010472</v>
+      </c>
+      <c r="G97">
+        <v>0.06819984276648271</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>0.06295422735896777</v>
+      </c>
+      <c r="C98">
+        <v>0.06295422735896777</v>
+      </c>
+      <c r="D98">
+        <v>0.05804749442593718</v>
+      </c>
+      <c r="E98">
+        <v>0.08144911268724514</v>
+      </c>
+      <c r="F98">
+        <v>0.08144911268724514</v>
+      </c>
+      <c r="G98">
+        <v>0.0666137999196926</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>0.0628649552885964</v>
+      </c>
+      <c r="C99">
+        <v>0.0628649552885964</v>
+      </c>
+      <c r="D99">
+        <v>0.08443271970292823</v>
+      </c>
+      <c r="E99">
+        <v>0.0804107453523412</v>
+      </c>
+      <c r="F99">
+        <v>0.0804107453523412</v>
+      </c>
+      <c r="G99">
+        <v>0.05471847850968212</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>0.06293689577513446</v>
+      </c>
+      <c r="C100">
+        <v>0.06293689577513446</v>
+      </c>
+      <c r="D100">
+        <v>0.07124010695631082</v>
+      </c>
+      <c r="E100">
+        <v>0.08099980738005121</v>
+      </c>
+      <c r="F100">
+        <v>0.08099980738005121</v>
+      </c>
+      <c r="G100">
+        <v>0.05709754283895198</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>0.06360081380778693</v>
+      </c>
+      <c r="C101">
+        <v>0.06360081380778693</v>
+      </c>
+      <c r="D101">
+        <v>0.08970976442019983</v>
+      </c>
+      <c r="E101">
+        <v>0.08044816281212218</v>
+      </c>
+      <c r="F101">
+        <v>0.08044816281212218</v>
+      </c>
+      <c r="G101">
+        <v>0.05630452123830283</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>0.06229797799857751</v>
+      </c>
+      <c r="C102">
+        <v>0.06229797799857751</v>
+      </c>
+      <c r="D102">
+        <v>0.07387862961965375</v>
+      </c>
+      <c r="E102">
+        <v>0.08078508068416726</v>
+      </c>
+      <c r="F102">
+        <v>0.08078508068416726</v>
+      </c>
+      <c r="G102">
+        <v>0.05709754283895198</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>0.06215763090075163</v>
+      </c>
+      <c r="C103">
+        <v>0.06215763090075163</v>
+      </c>
+      <c r="D103">
+        <v>0.06332453957569631</v>
+      </c>
+      <c r="E103">
+        <v>0.08009484033916414</v>
+      </c>
+      <c r="F103">
+        <v>0.08009484033916414</v>
+      </c>
+      <c r="G103">
+        <v>0.07930214310760635</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>0.06160934892603464</v>
+      </c>
+      <c r="C104">
+        <v>0.06160934892603464</v>
+      </c>
+      <c r="D104">
+        <v>0.06860158429296791</v>
+      </c>
+      <c r="E104">
+        <v>0.07944390953508849</v>
+      </c>
+      <c r="F104">
+        <v>0.07944390953508849</v>
+      </c>
+      <c r="G104">
+        <v>0.05551149975582308</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>0.06181336844973954</v>
+      </c>
+      <c r="C105">
+        <v>0.06181336844973954</v>
+      </c>
+      <c r="D105">
+        <v>0.06596306202279546</v>
+      </c>
+      <c r="E105">
+        <v>0.07912223916101985</v>
+      </c>
+      <c r="F105">
+        <v>0.07912223916101985</v>
+      </c>
+      <c r="G105">
+        <v>0.05313243554472261</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>0.06120074972864191</v>
+      </c>
+      <c r="C106">
+        <v>0.06120074972864191</v>
+      </c>
+      <c r="D106">
+        <v>0.07387862944272704</v>
+      </c>
+      <c r="E106">
+        <v>0.07912254093021368</v>
+      </c>
+      <c r="F106">
+        <v>0.07912254093021368</v>
+      </c>
+      <c r="G106">
+        <v>0.05789056408509293</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>0.06128420832131972</v>
+      </c>
+      <c r="C107">
+        <v>0.06128420832131972</v>
+      </c>
+      <c r="D107">
+        <v>0.06596306204245399</v>
+      </c>
+      <c r="E107">
+        <v>0.0795710355303384</v>
+      </c>
+      <c r="F107">
+        <v>0.0795710355303384</v>
+      </c>
+      <c r="G107">
+        <v>0.0467882640393928</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>0.06138364787859778</v>
+      </c>
+      <c r="C108">
+        <v>0.06138364787859778</v>
+      </c>
+      <c r="D108">
+        <v>0.06068601689269486</v>
+      </c>
+      <c r="E108">
+        <v>0.07891568490713953</v>
+      </c>
+      <c r="F108">
+        <v>0.07891568490713953</v>
+      </c>
+      <c r="G108">
+        <v>0.06026962847344749</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>0.0604925104527486</v>
+      </c>
+      <c r="C109">
+        <v>0.0604925104527486</v>
+      </c>
+      <c r="D109">
+        <v>0.05277044951208034</v>
+      </c>
+      <c r="E109">
+        <v>0.07829893939935623</v>
+      </c>
+      <c r="F109">
+        <v>0.07829893939935623</v>
+      </c>
+      <c r="G109">
+        <v>0.06661379980152321</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>0.06139717365081832</v>
+      </c>
+      <c r="C110">
+        <v>0.06139717365081832</v>
+      </c>
+      <c r="D110">
+        <v>0.07124010717255459</v>
+      </c>
+      <c r="E110">
+        <v>0.07837837851184593</v>
+      </c>
+      <c r="F110">
+        <v>0.07837837851184593</v>
+      </c>
+      <c r="G110">
+        <v>0.05709754283895198</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>0.05999858427723983</v>
+      </c>
+      <c r="C111">
+        <v>0.05999858427723983</v>
+      </c>
+      <c r="D111">
+        <v>0.05540897197883802</v>
+      </c>
+      <c r="E111">
+        <v>0.07859495458245561</v>
+      </c>
+      <c r="F111">
+        <v>0.07859495458245561</v>
+      </c>
+      <c r="G111">
+        <v>0.05947660675462894</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>0.06006183546026653</v>
+      </c>
+      <c r="C112">
+        <v>0.06006183546026653</v>
+      </c>
+      <c r="D112">
+        <v>0.04749340457856498</v>
+      </c>
+      <c r="E112">
+        <v>0.0781819443148247</v>
+      </c>
+      <c r="F112">
+        <v>0.0781819443148247</v>
+      </c>
+      <c r="G112">
+        <v>0.05947660710913713</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>0.05991460276782355</v>
+      </c>
+      <c r="C113">
+        <v>0.05991460276782355</v>
+      </c>
+      <c r="D113">
+        <v>0.08179419684300007</v>
+      </c>
+      <c r="E113">
+        <v>0.07793704345881419</v>
+      </c>
+      <c r="F113">
+        <v>0.07793704345881419</v>
+      </c>
+      <c r="G113">
+        <v>0.0650277572501566</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>0.05979421569678274</v>
+      </c>
+      <c r="C114">
+        <v>0.05979421569678274</v>
+      </c>
+      <c r="D114">
+        <v>0.05540897217542326</v>
+      </c>
+      <c r="E114">
+        <v>0.07730001423871299</v>
+      </c>
+      <c r="F114">
+        <v>0.07730001423871299</v>
+      </c>
+      <c r="G114">
+        <v>0.06026962841436279</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>0.05963734981645695</v>
+      </c>
+      <c r="C115">
+        <v>0.05963734981645695</v>
+      </c>
+      <c r="D115">
+        <v>0.07387862983589751</v>
+      </c>
+      <c r="E115">
+        <v>0.07754452335725788</v>
+      </c>
+      <c r="F115">
+        <v>0.07754452335725788</v>
+      </c>
+      <c r="G115">
+        <v>0.06740682140217236</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>0.05931299754804231</v>
+      </c>
+      <c r="C116">
+        <v>0.05931299754804231</v>
+      </c>
+      <c r="D116">
+        <v>0.07915567496599811</v>
+      </c>
+      <c r="E116">
+        <v>0.07759611238263885</v>
+      </c>
+      <c r="F116">
+        <v>0.07759611238263885</v>
+      </c>
+      <c r="G116">
+        <v>0.05471847826152638</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>0.061332538625653</v>
+      </c>
+      <c r="C117">
+        <v>0.061332538625653</v>
+      </c>
+      <c r="D117">
+        <v>0.08707124236627116</v>
+      </c>
+      <c r="E117">
+        <v>0.07705201847297062</v>
+      </c>
+      <c r="F117">
+        <v>0.07705201847297062</v>
+      </c>
+      <c r="G117">
+        <v>0.0666137997424385</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>0.05948463647496103</v>
+      </c>
+      <c r="C118">
+        <v>0.05948463647496103</v>
+      </c>
+      <c r="D118">
+        <v>0.06596306184586875</v>
+      </c>
+      <c r="E118">
+        <v>0.07701662402603004</v>
+      </c>
+      <c r="F118">
+        <v>0.07701662402603004</v>
+      </c>
+      <c r="G118">
+        <v>0.05789056408509293</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>0.05950142769511583</v>
+      </c>
+      <c r="C119">
+        <v>0.05950142769511583</v>
+      </c>
+      <c r="D119">
+        <v>0.09234828690661603</v>
+      </c>
+      <c r="E119">
+        <v>0.0768321784749379</v>
+      </c>
+      <c r="F119">
+        <v>0.0768321784749379</v>
+      </c>
+      <c r="G119">
+        <v>0.05630452123830283</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>0.05907154822412455</v>
+      </c>
+      <c r="C120">
+        <v>0.05907154822412455</v>
+      </c>
+      <c r="D120">
+        <v>0.0765171523026552</v>
+      </c>
+      <c r="E120">
+        <v>0.07639355111415191</v>
+      </c>
+      <c r="F120">
+        <v>0.07639355111415191</v>
+      </c>
+      <c r="G120">
+        <v>0.06740682146125705</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>0.059022504728199</v>
+      </c>
+      <c r="C121">
+        <v>0.059022504728199</v>
+      </c>
+      <c r="D121">
+        <v>0.06332453957569631</v>
+      </c>
+      <c r="E121">
+        <v>0.07594107445344199</v>
+      </c>
+      <c r="F121">
+        <v>0.07594107445344199</v>
+      </c>
+      <c r="G121">
+        <v>0.06185567126115289</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>0.05879988070174384</v>
+      </c>
+      <c r="C122">
+        <v>0.05879988070174384</v>
+      </c>
+      <c r="D122">
+        <v>0.07387862983589751</v>
+      </c>
+      <c r="E122">
+        <v>0.07567294348477371</v>
+      </c>
+      <c r="F122">
+        <v>0.07567294348477371</v>
+      </c>
+      <c r="G122">
+        <v>0.05868358586299618</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>0.05871712651329808</v>
+      </c>
+      <c r="C123">
+        <v>0.05871712651329808</v>
+      </c>
+      <c r="D123">
+        <v>0.06860158470579691</v>
+      </c>
+      <c r="E123">
+        <v>0.07480345135237092</v>
+      </c>
+      <c r="F123">
+        <v>0.07480345135237092</v>
+      </c>
+      <c r="G123">
+        <v>0.05630452159281102</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>0.05833358702920672</v>
+      </c>
+      <c r="C124">
+        <v>0.05833358702920672</v>
+      </c>
+      <c r="D124">
+        <v>0.03957783717829193</v>
+      </c>
+      <c r="E124">
+        <v>0.07523084248133258</v>
+      </c>
+      <c r="F124">
+        <v>0.07523084248133258</v>
+      </c>
+      <c r="G124">
+        <v>0.06026962847344749</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>0.05846101205825491</v>
+      </c>
+      <c r="C125">
+        <v>0.05846101205825491</v>
+      </c>
+      <c r="D125">
+        <v>0.07387862944272704</v>
+      </c>
+      <c r="E125">
+        <v>0.07488103271192449</v>
+      </c>
+      <c r="F125">
+        <v>0.07488103271192449</v>
+      </c>
+      <c r="G125">
+        <v>0.05789056402600823</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>0.05811773190437017</v>
+      </c>
+      <c r="C126">
+        <v>0.05811773190437017</v>
+      </c>
+      <c r="D126">
+        <v>0.06596306243562447</v>
+      </c>
+      <c r="E126">
+        <v>0.07524436761896162</v>
+      </c>
+      <c r="F126">
+        <v>0.07524436761896162</v>
+      </c>
+      <c r="G126">
+        <v>0.06106264989684254</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>0.05826988491895645</v>
+      </c>
+      <c r="C127">
+        <v>0.05826988491895645</v>
+      </c>
+      <c r="D127">
+        <v>0.06068601730552386</v>
+      </c>
+      <c r="E127">
+        <v>0.07487129548255836</v>
+      </c>
+      <c r="F127">
+        <v>0.07487129548255836</v>
+      </c>
+      <c r="G127">
+        <v>0.05789056420326233</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>0.05747612485155896</v>
+      </c>
+      <c r="C128">
+        <v>0.05747612485155896</v>
+      </c>
+      <c r="D128">
+        <v>0.07124010736913983</v>
+      </c>
+      <c r="E128">
+        <v>0.07453226841082183</v>
+      </c>
+      <c r="F128">
+        <v>0.07453226841082183</v>
+      </c>
+      <c r="G128">
+        <v>0.04758128558095725</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>0.05742397271391584</v>
+      </c>
+      <c r="C129">
+        <v>0.05742397271391584</v>
+      </c>
+      <c r="D129">
+        <v>0.05540897217542326</v>
+      </c>
+      <c r="E129">
+        <v>0.07500108106329174</v>
+      </c>
+      <c r="F129">
+        <v>0.07500108106329174</v>
+      </c>
+      <c r="G129">
+        <v>0.06661379980152321</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>0.05869679671950579</v>
+      </c>
+      <c r="C130">
+        <v>0.05869679671950579</v>
+      </c>
+      <c r="D130">
+        <v>0.08179419684300007</v>
+      </c>
+      <c r="E130">
+        <v>0.0744898471741994</v>
+      </c>
+      <c r="F130">
+        <v>0.0744898471741994</v>
+      </c>
+      <c r="G130">
+        <v>0.05630452135647222</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>0.05723028263386762</v>
+      </c>
+      <c r="C131">
+        <v>0.05723028263386762</v>
+      </c>
+      <c r="D131">
+        <v>0.08179419684300007</v>
+      </c>
+      <c r="E131">
+        <v>0.07427973553691943</v>
+      </c>
+      <c r="F131">
+        <v>0.07427973553691943</v>
+      </c>
+      <c r="G131">
+        <v>0.06423473569677521</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>0.05685993169967606</v>
+      </c>
+      <c r="C132">
+        <v>0.05685993169967606</v>
+      </c>
+      <c r="D132">
+        <v>0.0448548821118073</v>
+      </c>
+      <c r="E132">
+        <v>0.07359590379020507</v>
+      </c>
+      <c r="F132">
+        <v>0.07359590379020507</v>
+      </c>
+      <c r="G132">
+        <v>0.06185567130842065</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>0.05655430181635086</v>
+      </c>
+      <c r="C133">
+        <v>0.05655430181635086</v>
+      </c>
+      <c r="D133">
+        <v>0.0554089723720085</v>
+      </c>
+      <c r="E133">
+        <v>0.07367653161594548</v>
+      </c>
+      <c r="F133">
+        <v>0.07367653161594548</v>
+      </c>
+      <c r="G133">
+        <v>0.06661379997877731</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>0.05673033700848003</v>
+      </c>
+      <c r="C134">
+        <v>0.05673033700848003</v>
+      </c>
+      <c r="D134">
+        <v>0.08707124236627116</v>
+      </c>
+      <c r="E134">
+        <v>0.07352318146179632</v>
+      </c>
+      <c r="F134">
+        <v>0.07352318146179632</v>
+      </c>
+      <c r="G134">
+        <v>0.05551149993307717</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>0.05623855407406284</v>
+      </c>
+      <c r="C135">
+        <v>0.05623855407406284</v>
+      </c>
+      <c r="D135">
+        <v>0.06596306243562447</v>
+      </c>
+      <c r="E135">
+        <v>0.07322009814154241</v>
+      </c>
+      <c r="F135">
+        <v>0.07322009814154241</v>
+      </c>
+      <c r="G135">
+        <v>0.05709754289803667</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>0.05627460478949987</v>
+      </c>
+      <c r="C136">
+        <v>0.05627460478949987</v>
+      </c>
+      <c r="D136">
+        <v>0.07915567476941288</v>
+      </c>
+      <c r="E136">
+        <v>0.07383261776391142</v>
+      </c>
+      <c r="F136">
+        <v>0.07383261776391142</v>
+      </c>
+      <c r="G136">
+        <v>0.06264869280271734</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>0.05695711597210499</v>
+      </c>
+      <c r="C137">
+        <v>0.05695711597210499</v>
+      </c>
+      <c r="D137">
+        <v>0.03430079204819133</v>
+      </c>
+      <c r="E137">
+        <v>0.07333494434509837</v>
+      </c>
+      <c r="F137">
+        <v>0.07333494434509837</v>
+      </c>
+      <c r="G137">
+        <v>0.04996034973297301</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>0.05610299449522137</v>
+      </c>
+      <c r="C138">
+        <v>0.05610299449522137</v>
+      </c>
+      <c r="D138">
+        <v>0.07915567496599811</v>
+      </c>
+      <c r="E138">
+        <v>0.07263716593869238</v>
+      </c>
+      <c r="F138">
+        <v>0.07263716593869238</v>
+      </c>
+      <c r="G138">
+        <v>0.06582077848448062</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>0.05556296564068518</v>
+      </c>
+      <c r="C139">
+        <v>0.05556296564068518</v>
+      </c>
+      <c r="D139">
+        <v>0.09234828710320128</v>
+      </c>
+      <c r="E139">
+        <v>0.07299113948367873</v>
+      </c>
+      <c r="F139">
+        <v>0.07299113948367873</v>
+      </c>
+      <c r="G139">
+        <v>0.06106264983775784</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>0.05552980799159148</v>
+      </c>
+      <c r="C140">
+        <v>0.05552980799159148</v>
+      </c>
+      <c r="D140">
+        <v>0.08443271970292823</v>
+      </c>
+      <c r="E140">
+        <v>0.07194247262214121</v>
+      </c>
+      <c r="F140">
+        <v>0.07194247262214121</v>
+      </c>
+      <c r="G140">
+        <v>0.05709754270896564</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>0.05542477673425838</v>
+      </c>
+      <c r="C141">
+        <v>0.05542477673425838</v>
+      </c>
+      <c r="D141">
+        <v>0.06596306243562447</v>
+      </c>
+      <c r="E141">
+        <v>0.07190636414842508</v>
+      </c>
+      <c r="F141">
+        <v>0.07190636414842508</v>
+      </c>
+      <c r="G141">
+        <v>0.05947660693188304</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>0.05547110096485131</v>
+      </c>
+      <c r="C142">
+        <v>0.05547110096485131</v>
+      </c>
+      <c r="D142">
+        <v>0.09762533223330189</v>
+      </c>
+      <c r="E142">
+        <v>0.0717618817095715</v>
+      </c>
+      <c r="F142">
+        <v>0.0717618817095715</v>
+      </c>
+      <c r="G142">
+        <v>0.06026962835527809</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>0.05509571394929785</v>
+      </c>
+      <c r="C143">
+        <v>0.05509571394929785</v>
+      </c>
+      <c r="D143">
+        <v>0.08707124216968591</v>
+      </c>
+      <c r="E143">
+        <v>0.07154152941765245</v>
+      </c>
+      <c r="F143">
+        <v>0.07154152941765245</v>
+      </c>
+      <c r="G143">
+        <v>0.05947660699096773</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>0.0566628202107934</v>
+      </c>
+      <c r="C144">
+        <v>0.0566628202107934</v>
+      </c>
+      <c r="D144">
+        <v>0.08707124236627116</v>
+      </c>
+      <c r="E144">
+        <v>0.07199422378775433</v>
+      </c>
+      <c r="F144">
+        <v>0.07199422378775433</v>
+      </c>
+      <c r="G144">
+        <v>0.06026962835527809</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>0.05555693877954282</v>
+      </c>
+      <c r="C145">
+        <v>0.05555693877954282</v>
+      </c>
+      <c r="D145">
+        <v>0.09498680976654419</v>
+      </c>
+      <c r="E145">
+        <v>0.07135809129613624</v>
+      </c>
+      <c r="F145">
+        <v>0.07135809129613624</v>
+      </c>
+      <c r="G145">
+        <v>0.06026962853253218</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>0.05523382379897037</v>
+      </c>
+      <c r="C146">
+        <v>0.05523382379897037</v>
+      </c>
+      <c r="D146">
+        <v>0.09762533223330189</v>
+      </c>
+      <c r="E146">
+        <v>0.0717976181210269</v>
+      </c>
+      <c r="F146">
+        <v>0.0717976181210269</v>
+      </c>
+      <c r="G146">
+        <v>0.05392545684994827</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>0.05456900101223847</v>
+      </c>
+      <c r="C147">
+        <v>0.05456900101223847</v>
+      </c>
+      <c r="D147">
+        <v>0.08707124216968591</v>
+      </c>
+      <c r="E147">
+        <v>0.07150497311145705</v>
+      </c>
+      <c r="F147">
+        <v>0.07150497311145705</v>
+      </c>
+      <c r="G147">
+        <v>0.06344171398977359</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>0.05454268535515563</v>
+      </c>
+      <c r="C148">
+        <v>0.05454268535515563</v>
+      </c>
+      <c r="D148">
+        <v>0.09234828749637176</v>
+      </c>
+      <c r="E148">
+        <v>0.07110920264832468</v>
+      </c>
+      <c r="F148">
+        <v>0.07110920264832468</v>
+      </c>
+      <c r="G148">
+        <v>0.0634417142261124</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>0.05446231730852404</v>
+      </c>
+      <c r="C149">
+        <v>0.05446231730852404</v>
+      </c>
+      <c r="D149">
+        <v>0.09498680956995896</v>
+      </c>
+      <c r="E149">
+        <v>0.07022254339742055</v>
+      </c>
+      <c r="F149">
+        <v>0.07022254339742055</v>
+      </c>
+      <c r="G149">
+        <v>0.05630452129738753</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>0.05420629746012763</v>
+      </c>
+      <c r="C150">
+        <v>0.05420629746012763</v>
+      </c>
+      <c r="D150">
+        <v>0.08970976443985836</v>
+      </c>
+      <c r="E150">
+        <v>0.07053427755667235</v>
+      </c>
+      <c r="F150">
+        <v>0.07053427755667235</v>
+      </c>
+      <c r="G150">
+        <v>0.05630452141555693</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>0.05495994685507701</v>
+      </c>
+      <c r="C151">
+        <v>0.05495994685507701</v>
+      </c>
+      <c r="D151">
+        <v>0.08970976483302884</v>
+      </c>
+      <c r="E151">
+        <v>0.07036774770949777</v>
+      </c>
+      <c r="F151">
+        <v>0.07036774770949777</v>
+      </c>
+      <c r="G151">
+        <v>0.05630452147464162</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>0.0543250059094624</v>
+      </c>
+      <c r="C152">
+        <v>0.0543250059094624</v>
+      </c>
+      <c r="D152">
+        <v>0.08970976483302884</v>
+      </c>
+      <c r="E152">
+        <v>0.0701016201375497</v>
+      </c>
+      <c r="F152">
+        <v>0.0701016201375497</v>
+      </c>
+      <c r="G152">
+        <v>0.05630452129738753</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>0.05335992353533377</v>
+      </c>
+      <c r="C153">
+        <v>0.05335992353533377</v>
+      </c>
+      <c r="D153">
+        <v>0.08179419743275579</v>
+      </c>
+      <c r="E153">
+        <v>0.06995173572643137</v>
+      </c>
+      <c r="F153">
+        <v>0.06995173572643137</v>
+      </c>
+      <c r="G153">
+        <v>0.05630452135647222</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>0.05328980439138601</v>
+      </c>
+      <c r="C154">
+        <v>0.05328980439138601</v>
+      </c>
+      <c r="D154">
+        <v>0.09498680976654419</v>
+      </c>
+      <c r="E154">
+        <v>0.0692991096759769</v>
+      </c>
+      <c r="F154">
+        <v>0.0692991096759769</v>
+      </c>
+      <c r="G154">
+        <v>0.06026962859161689</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>0.05325134704012355</v>
+      </c>
+      <c r="C155">
+        <v>0.05325134704012355</v>
+      </c>
+      <c r="D155">
+        <v>0.08970976483302884</v>
+      </c>
+      <c r="E155">
+        <v>0.06944541472418737</v>
+      </c>
+      <c r="F155">
+        <v>0.06944541472418737</v>
+      </c>
+      <c r="G155">
+        <v>0.0666137999196926</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>0.05304498157628608</v>
+      </c>
+      <c r="C156">
+        <v>0.05304498157628608</v>
+      </c>
+      <c r="D156">
+        <v>0.1029023773634025</v>
+      </c>
+      <c r="E156">
+        <v>0.06936112932512252</v>
+      </c>
+      <c r="F156">
+        <v>0.06936112932512252</v>
+      </c>
+      <c r="G156">
+        <v>0.06661380003786201</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>0.05317439983222919</v>
+      </c>
+      <c r="C157">
+        <v>0.05317439983222919</v>
+      </c>
+      <c r="D157">
+        <v>0.09762533203671664</v>
+      </c>
+      <c r="E157">
+        <v>0.06971580122762214</v>
+      </c>
+      <c r="F157">
+        <v>0.06971580122762214</v>
+      </c>
+      <c r="G157">
+        <v>0.05789056426234703</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>0.0551893556377504</v>
+      </c>
+      <c r="C158">
+        <v>0.0551893556377504</v>
+      </c>
+      <c r="D158">
+        <v>0.07124010756572507</v>
+      </c>
+      <c r="E158">
+        <v>0.06886865124756339</v>
+      </c>
+      <c r="F158">
+        <v>0.06886865124756339</v>
+      </c>
+      <c r="G158">
+        <v>0.05947660716822183</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>0.05297400461298495</v>
+      </c>
+      <c r="C159">
+        <v>0.05297400461298495</v>
+      </c>
+      <c r="D159">
+        <v>0.06860158511862591</v>
+      </c>
+      <c r="E159">
+        <v>0.06883679704945962</v>
+      </c>
+      <c r="F159">
+        <v>0.06883679704945962</v>
+      </c>
+      <c r="G159">
+        <v>0.0467882642166469</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>0.05207709251536857</v>
+      </c>
+      <c r="C160">
+        <v>0.05207709251536857</v>
+      </c>
+      <c r="D160">
+        <v>0.07651715249924043</v>
+      </c>
+      <c r="E160">
+        <v>0.06879408447800128</v>
+      </c>
+      <c r="F160">
+        <v>0.06879408447800128</v>
+      </c>
+      <c r="G160">
+        <v>0.05233941388498876</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>0.05208728002448195</v>
+      </c>
+      <c r="C161">
+        <v>0.05208728002448195</v>
+      </c>
+      <c r="D161">
+        <v>0.0897097646364436</v>
+      </c>
+      <c r="E161">
+        <v>0.06894988508143186</v>
+      </c>
+      <c r="F161">
+        <v>0.06894988508143186</v>
+      </c>
+      <c r="G161">
+        <v>0.05154639269793251</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>0.05251862284651218</v>
+      </c>
+      <c r="C162">
+        <v>0.05251862284651218</v>
+      </c>
+      <c r="D162">
+        <v>0.08707124236627116</v>
+      </c>
+      <c r="E162">
+        <v>0.06845673233341547</v>
+      </c>
+      <c r="F162">
+        <v>0.06845673233341547</v>
+      </c>
+      <c r="G162">
+        <v>0.0650277573092413</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>0.05264571843801513</v>
+      </c>
+      <c r="C163">
+        <v>0.05264571843801513</v>
+      </c>
+      <c r="D163">
+        <v>0.09234828729978652</v>
+      </c>
+      <c r="E163">
+        <v>0.06826566007877512</v>
+      </c>
+      <c r="F163">
+        <v>0.06826566007877512</v>
+      </c>
+      <c r="G163">
+        <v>0.05075337145179155</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>0.05107719574054816</v>
+      </c>
+      <c r="C164">
+        <v>0.05107719574054816</v>
+      </c>
+      <c r="D164">
+        <v>0.09234828729978652</v>
+      </c>
+      <c r="E164">
+        <v>0.06832381596081225</v>
+      </c>
+      <c r="F164">
+        <v>0.06832381596081225</v>
+      </c>
+      <c r="G164">
+        <v>0.05947660710913713</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>0.05215924628334499</v>
+      </c>
+      <c r="C165">
+        <v>0.05215924628334499</v>
+      </c>
+      <c r="D165">
+        <v>0.08970976522619932</v>
+      </c>
+      <c r="E165">
+        <v>0.06750303786321825</v>
+      </c>
+      <c r="F165">
+        <v>0.06750303786321825</v>
+      </c>
+      <c r="G165">
+        <v>0.05075337139270686</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>0.05170234156118848</v>
+      </c>
+      <c r="C166">
+        <v>0.05170234156118848</v>
+      </c>
+      <c r="D166">
+        <v>0.09498680956995896</v>
+      </c>
+      <c r="E166">
+        <v>0.06783921623707385</v>
+      </c>
+      <c r="F166">
+        <v>0.06783921623707385</v>
+      </c>
+      <c r="G166">
+        <v>0.07057890715483726</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>0.05124459798032501</v>
+      </c>
+      <c r="C167">
+        <v>0.05124459798032501</v>
+      </c>
+      <c r="D167">
+        <v>0.09234828749637176</v>
+      </c>
+      <c r="E167">
+        <v>0.06793627656352227</v>
+      </c>
+      <c r="F167">
+        <v>0.06793627656352227</v>
+      </c>
+      <c r="G167">
+        <v>0.05709754277986728</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>0.05068883277220273</v>
+      </c>
+      <c r="C168">
+        <v>0.05068883277220273</v>
+      </c>
+      <c r="D168">
+        <v>0.10026385509323</v>
+      </c>
+      <c r="E168">
+        <v>0.0677779857999838</v>
+      </c>
+      <c r="F168">
+        <v>0.0677779857999838</v>
+      </c>
+      <c r="G168">
+        <v>0.0666137997424385</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>0.05088829467353217</v>
+      </c>
+      <c r="C169">
+        <v>0.05088829467353217</v>
+      </c>
+      <c r="D169">
+        <v>0.09498680956995896</v>
+      </c>
+      <c r="E169">
+        <v>0.0665413999928547</v>
+      </c>
+      <c r="F169">
+        <v>0.0665413999928547</v>
+      </c>
+      <c r="G169">
+        <v>0.05471847856876682</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>0.05023645936931658</v>
+      </c>
+      <c r="C170">
+        <v>0.05023645936931658</v>
+      </c>
+      <c r="D170">
+        <v>0.09234828690661603</v>
+      </c>
+      <c r="E170">
+        <v>0.06683183987281513</v>
+      </c>
+      <c r="F170">
+        <v>0.06683183987281513</v>
+      </c>
+      <c r="G170">
+        <v>0.0634417142851971</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>0.05025804463508576</v>
+      </c>
+      <c r="C171">
+        <v>0.05025804463508576</v>
+      </c>
+      <c r="D171">
+        <v>0.08707124197310068</v>
+      </c>
+      <c r="E171">
+        <v>0.0669971603684535</v>
+      </c>
+      <c r="F171">
+        <v>0.0669971603684535</v>
+      </c>
+      <c r="G171">
+        <v>0.05233941412132756</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>0.05044450954900254</v>
+      </c>
+      <c r="C172">
+        <v>0.05044450954900254</v>
+      </c>
+      <c r="D172">
+        <v>0.07915567518224188</v>
+      </c>
+      <c r="E172">
+        <v>0.06692414781895542</v>
+      </c>
+      <c r="F172">
+        <v>0.06692414781895542</v>
+      </c>
+      <c r="G172">
+        <v>0.06582077843721286</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>0.05208450903757266</v>
+      </c>
+      <c r="C173">
+        <v>0.05208450903757266</v>
+      </c>
+      <c r="D173">
+        <v>0.10026385509323</v>
+      </c>
+      <c r="E173">
+        <v>0.06588454647942443</v>
+      </c>
+      <c r="F173">
+        <v>0.06588454647942443</v>
+      </c>
+      <c r="G173">
+        <v>0.05313243560380732</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>0.04940690427507449</v>
+      </c>
+      <c r="C174">
+        <v>0.04940690427507449</v>
+      </c>
+      <c r="D174">
+        <v>0.09234828690661603</v>
+      </c>
+      <c r="E174">
+        <v>0.06668303673533009</v>
+      </c>
+      <c r="F174">
+        <v>0.06668303673533009</v>
+      </c>
+      <c r="G174">
+        <v>0.06026962859161689</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>0.04928142314968448</v>
+      </c>
+      <c r="C175">
+        <v>0.04928142314968448</v>
+      </c>
+      <c r="D175">
+        <v>0.09498680937337373</v>
+      </c>
+      <c r="E175">
+        <v>0.06636991112549848</v>
+      </c>
+      <c r="F175">
+        <v>0.06636991112549848</v>
+      </c>
+      <c r="G175">
+        <v>0.05471847833242802</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>0.04877248679663701</v>
+      </c>
+      <c r="C176">
+        <v>0.04877248679663701</v>
+      </c>
+      <c r="D176">
+        <v>0.0897097646364436</v>
+      </c>
+      <c r="E176">
+        <v>0.06600873323835427</v>
+      </c>
+      <c r="F176">
+        <v>0.06600873323835427</v>
+      </c>
+      <c r="G176">
+        <v>0.06978588573144222</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>0.04913241308094014</v>
+      </c>
+      <c r="C177">
+        <v>0.04913241308094014</v>
+      </c>
+      <c r="D177">
+        <v>0.07915567496599811</v>
+      </c>
+      <c r="E177">
+        <v>0.06562459067656444</v>
+      </c>
+      <c r="F177">
+        <v>0.06562459067656444</v>
+      </c>
+      <c r="G177">
+        <v>0.06423473559042275</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>0.0489124979007999</v>
+      </c>
+      <c r="C178">
+        <v>0.0489124979007999</v>
+      </c>
+      <c r="D178">
+        <v>0.08443271970292823</v>
+      </c>
+      <c r="E178">
+        <v>0.06532574523887305</v>
+      </c>
+      <c r="F178">
+        <v>0.06532574523887305</v>
+      </c>
+      <c r="G178">
+        <v>0.05471847850968212</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>0.04828499407952253</v>
+      </c>
+      <c r="C179">
+        <v>0.04828499407952253</v>
+      </c>
+      <c r="D179">
+        <v>0.07915567476941288</v>
+      </c>
+      <c r="E179">
+        <v>0.06517896008316626</v>
+      </c>
+      <c r="F179">
+        <v>0.06517896008316626</v>
+      </c>
+      <c r="G179">
+        <v>0.0483743071816064</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>0.04835561505644177</v>
+      </c>
+      <c r="C180">
+        <v>0.04835561505644177</v>
+      </c>
+      <c r="D180">
+        <v>0.08443271970292823</v>
+      </c>
+      <c r="E180">
+        <v>0.06471496647331659</v>
+      </c>
+      <c r="F180">
+        <v>0.06471496647331659</v>
+      </c>
+      <c r="G180">
+        <v>0.06026962841436279</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>0.04777828616760966</v>
+      </c>
+      <c r="C181">
+        <v>0.04777828616760966</v>
+      </c>
+      <c r="D181">
+        <v>0.08707124197310068</v>
+      </c>
+      <c r="E181">
+        <v>0.06456162535617221</v>
+      </c>
+      <c r="F181">
+        <v>0.06456162535617221</v>
+      </c>
+      <c r="G181">
+        <v>0.06026962865070158</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>0.04795326815431539</v>
+      </c>
+      <c r="C182">
+        <v>0.04795326815431539</v>
+      </c>
+      <c r="D182">
+        <v>0.08443271970292823</v>
+      </c>
+      <c r="E182">
+        <v>0.06402232448890226</v>
+      </c>
+      <c r="F182">
+        <v>0.06402232448890226</v>
+      </c>
+      <c r="G182">
+        <v>0.04440919994646174</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>0.04705076111298753</v>
+      </c>
+      <c r="C183">
+        <v>0.04705076111298753</v>
+      </c>
+      <c r="D183">
+        <v>0.08443271911317252</v>
+      </c>
+      <c r="E183">
+        <v>0.06428083934002127</v>
+      </c>
+      <c r="F183">
+        <v>0.06428083934002127</v>
+      </c>
+      <c r="G183">
+        <v>0.05789056443960112</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>0.04725706070111106</v>
+      </c>
+      <c r="C184">
+        <v>0.04725706070111106</v>
+      </c>
+      <c r="D184">
+        <v>0.084432719506343</v>
+      </c>
+      <c r="E184">
+        <v>0.06405037094400952</v>
+      </c>
+      <c r="F184">
+        <v>0.06405037094400952</v>
+      </c>
+      <c r="G184">
+        <v>0.06185567161566109</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>0.04722909476008453</v>
+      </c>
+      <c r="C185">
+        <v>0.04722909476008453</v>
+      </c>
+      <c r="D185">
+        <v>0.07915567476941288</v>
+      </c>
+      <c r="E185">
+        <v>0.06357780253126166</v>
+      </c>
+      <c r="F185">
+        <v>0.06357780253126166</v>
+      </c>
+      <c r="G185">
+        <v>0.06185567126115289</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>0.04653388014097642</v>
+      </c>
+      <c r="C186">
+        <v>0.04653388014097642</v>
+      </c>
+      <c r="D186">
+        <v>0.08970976443985836</v>
+      </c>
+      <c r="E186">
+        <v>0.06387679959506293</v>
+      </c>
+      <c r="F186">
+        <v>0.06387679959506293</v>
+      </c>
+      <c r="G186">
+        <v>0.07057890703666787</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>0.04632874899654401</v>
+      </c>
+      <c r="C187">
+        <v>0.04632874899654401</v>
+      </c>
+      <c r="D187">
+        <v>0.08970976424327312</v>
+      </c>
+      <c r="E187">
+        <v>0.06304298848811829</v>
+      </c>
+      <c r="F187">
+        <v>0.06304298848811829</v>
+      </c>
+      <c r="G187">
+        <v>0.06899286424896246</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>0.04751377697237878</v>
+      </c>
+      <c r="C188">
+        <v>0.04751377697237878</v>
+      </c>
+      <c r="D188">
+        <v>0.08707124197310068</v>
+      </c>
+      <c r="E188">
+        <v>0.06302901338800658</v>
+      </c>
+      <c r="F188">
+        <v>0.06302901338800658</v>
+      </c>
+      <c r="G188">
+        <v>0.05947660687279833</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>0.04651282013131006</v>
+      </c>
+      <c r="C189">
+        <v>0.04651282013131006</v>
+      </c>
+      <c r="D189">
+        <v>0.08970976424327312</v>
+      </c>
+      <c r="E189">
+        <v>0.06284833249534812</v>
+      </c>
+      <c r="F189">
+        <v>0.06284833249534812</v>
+      </c>
+      <c r="G189">
+        <v>0.04996034985114241</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>0.04575170142119038</v>
+      </c>
+      <c r="C190">
+        <v>0.04575170142119038</v>
+      </c>
+      <c r="D190">
+        <v>0.09498680996312944</v>
+      </c>
+      <c r="E190">
+        <v>0.06277579840783748</v>
+      </c>
+      <c r="F190">
+        <v>0.06277579840783748</v>
+      </c>
+      <c r="G190">
+        <v>0.05471847839151272</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>0.04569736761987052</v>
+      </c>
+      <c r="C191">
+        <v>0.04569736761987052</v>
+      </c>
+      <c r="D191">
+        <v>0.08707124177651544</v>
+      </c>
+      <c r="E191">
+        <v>0.06268631075460886</v>
+      </c>
+      <c r="F191">
+        <v>0.06268631075460886</v>
+      </c>
+      <c r="G191">
+        <v>0.05868358562665738</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>0.04566921311428176</v>
+      </c>
+      <c r="C192">
+        <v>0.04566921311428176</v>
+      </c>
+      <c r="D192">
+        <v>0.08707124216968591</v>
+      </c>
+      <c r="E192">
+        <v>0.06232433822847944</v>
+      </c>
+      <c r="F192">
+        <v>0.06232433822847944</v>
+      </c>
+      <c r="G192">
+        <v>0.0467882641575622</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>0.04480468203610984</v>
+      </c>
+      <c r="C193">
+        <v>0.04480468203610984</v>
+      </c>
+      <c r="D193">
+        <v>0.08707124216968591</v>
+      </c>
+      <c r="E193">
+        <v>0.06239358751098851</v>
+      </c>
+      <c r="F193">
+        <v>0.06239358751098851</v>
+      </c>
+      <c r="G193">
+        <v>0.07137192863731702</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>0.04537722781929617</v>
+      </c>
+      <c r="C194">
+        <v>0.04537722781929617</v>
+      </c>
+      <c r="D194">
+        <v>0.09234828690661603</v>
+      </c>
+      <c r="E194">
+        <v>0.06202384524348706</v>
+      </c>
+      <c r="F194">
+        <v>0.06202384524348706</v>
+      </c>
+      <c r="G194">
+        <v>0.06582077873263635</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>0.04517816878992838</v>
+      </c>
+      <c r="C195">
+        <v>0.04517816878992838</v>
+      </c>
+      <c r="D195">
+        <v>0.08707124197310068</v>
+      </c>
+      <c r="E195">
+        <v>0.0620282732842462</v>
+      </c>
+      <c r="F195">
+        <v>0.0620282732842462</v>
+      </c>
+      <c r="G195">
+        <v>0.05313243566289201</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>0.04693037793433446</v>
+      </c>
+      <c r="C196">
+        <v>0.04693037793433446</v>
+      </c>
+      <c r="D196">
+        <v>0.08970976483302884</v>
+      </c>
+      <c r="E196">
+        <v>0.06203672386156388</v>
+      </c>
+      <c r="F196">
+        <v>0.06203672386156388</v>
+      </c>
+      <c r="G196">
+        <v>0.05709754272078258</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>0.04417468515030627</v>
+      </c>
+      <c r="C197">
+        <v>0.04417468515030627</v>
+      </c>
+      <c r="D197">
+        <v>0.09498680917678848</v>
+      </c>
+      <c r="E197">
+        <v>0.06196846023001054</v>
+      </c>
+      <c r="F197">
+        <v>0.06196846023001054</v>
+      </c>
+      <c r="G197">
+        <v>0.05947660693188304</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>0.04479841956755731</v>
+      </c>
+      <c r="C198">
+        <v>0.04479841956755731</v>
+      </c>
+      <c r="D198">
+        <v>0.08970976424327312</v>
+      </c>
+      <c r="E198">
+        <v>0.06117260422406926</v>
+      </c>
+      <c r="F198">
+        <v>0.06117260422406926</v>
+      </c>
+      <c r="G198">
+        <v>0.05471847833242802</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>0.04389864109004393</v>
+      </c>
+      <c r="C199">
+        <v>0.04389864109004393</v>
+      </c>
+      <c r="D199">
+        <v>0.07915567476941288</v>
+      </c>
+      <c r="E199">
+        <v>0.06140654524647934</v>
+      </c>
+      <c r="F199">
+        <v>0.06140654524647934</v>
+      </c>
+      <c r="G199">
+        <v>0.06423473582676155</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>0.04576021458432668</v>
+      </c>
+      <c r="C200">
+        <v>0.04576021458432668</v>
+      </c>
+      <c r="D200">
+        <v>0.08179419664641484</v>
+      </c>
+      <c r="E200">
+        <v>0.06083172037429416</v>
+      </c>
+      <c r="F200">
+        <v>0.06083172037429416</v>
+      </c>
+      <c r="G200">
+        <v>0.06185567132023759</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>0.04405373927589142</v>
+      </c>
+      <c r="C201">
+        <v>0.04405373927589142</v>
+      </c>
+      <c r="D201">
+        <v>0.084432719506343</v>
+      </c>
+      <c r="E201">
+        <v>0.06072492533253357</v>
+      </c>
+      <c r="F201">
+        <v>0.06072492533253357</v>
+      </c>
+      <c r="G201">
+        <v>0.06661380003786201</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>0.04380541739095799</v>
+      </c>
+      <c r="C202">
+        <v>0.04380541739095799</v>
+      </c>
+      <c r="D202">
+        <v>0.08970976424327312</v>
+      </c>
+      <c r="E202">
+        <v>0.06052660344435902</v>
+      </c>
+      <c r="F202">
+        <v>0.06052660344435902</v>
+      </c>
+      <c r="G202">
+        <v>0.05471847845059742</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>0.0426226764779764</v>
+      </c>
+      <c r="C203">
+        <v>0.0426226764779764</v>
+      </c>
+      <c r="D203">
+        <v>0.1055408996335749</v>
+      </c>
+      <c r="E203">
+        <v>0.06070221460097182</v>
+      </c>
+      <c r="F203">
+        <v>0.06070221460097182</v>
+      </c>
+      <c r="G203">
+        <v>0.07295797142502243</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>0.04269574763435172</v>
+      </c>
+      <c r="C204">
+        <v>0.04269574763435172</v>
+      </c>
+      <c r="D204">
+        <v>0.0923482867100308</v>
+      </c>
+      <c r="E204">
+        <v>0.05936497039236217</v>
+      </c>
+      <c r="F204">
+        <v>0.05936497039236217</v>
+      </c>
+      <c r="G204">
+        <v>0.06582077825995876</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>0.04263976774618305</v>
+      </c>
+      <c r="C205">
+        <v>0.04263976774618305</v>
+      </c>
+      <c r="D205">
+        <v>0.08970976424327312</v>
+      </c>
+      <c r="E205">
+        <v>0.05971268248064096</v>
+      </c>
+      <c r="F205">
+        <v>0.05971268248064096</v>
+      </c>
+      <c r="G205">
+        <v>0.06344171409612606</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>0.04214373718465538</v>
+      </c>
+      <c r="C206">
+        <v>0.04214373718465538</v>
+      </c>
+      <c r="D206">
+        <v>0.08443271930975775</v>
+      </c>
+      <c r="E206">
+        <v>0.05971037977855892</v>
+      </c>
+      <c r="F206">
+        <v>0.05971037977855892</v>
+      </c>
+      <c r="G206">
+        <v>0.06740682134308766</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>0.04282160702906058</v>
+      </c>
+      <c r="C207">
+        <v>0.04282160702906058</v>
+      </c>
+      <c r="D207">
+        <v>0.09498680937337373</v>
+      </c>
+      <c r="E207">
+        <v>0.05907134918243426</v>
+      </c>
+      <c r="F207">
+        <v>0.05907134918243426</v>
+      </c>
+      <c r="G207">
+        <v>0.05392545702720237</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>0.042411887944531</v>
+      </c>
+      <c r="C208">
+        <v>0.042411887944531</v>
+      </c>
+      <c r="D208">
+        <v>0.08179419703958532</v>
+      </c>
+      <c r="E208">
+        <v>0.0596915899903693</v>
+      </c>
+      <c r="F208">
+        <v>0.0596915899903693</v>
+      </c>
+      <c r="G208">
+        <v>0.05471847839151272</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>0.04243372738518627</v>
+      </c>
+      <c r="C209">
+        <v>0.04243372738518627</v>
+      </c>
+      <c r="D209">
+        <v>0.08179419723617055</v>
+      </c>
+      <c r="E209">
+        <v>0.05873896778338869</v>
+      </c>
+      <c r="F209">
+        <v>0.05873896778338869</v>
+      </c>
+      <c r="G209">
+        <v>0.05551149993307717</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>0.04151069082929151</v>
+      </c>
+      <c r="C210">
+        <v>0.04151069082929151</v>
+      </c>
+      <c r="D210">
+        <v>0.09498680976654419</v>
+      </c>
+      <c r="E210">
+        <v>0.05952744053574803</v>
+      </c>
+      <c r="F210">
+        <v>0.05952744053574803</v>
+      </c>
+      <c r="G210">
+        <v>0.06582077867355166</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>0.04186265674815329</v>
+      </c>
+      <c r="C211">
+        <v>0.04186265674815329</v>
+      </c>
+      <c r="D211">
+        <v>0.09234828690661603</v>
+      </c>
+      <c r="E211">
+        <v>0.05928301204418399</v>
+      </c>
+      <c r="F211">
+        <v>0.05928301204418399</v>
+      </c>
+      <c r="G211">
+        <v>0.04758128564004194</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>0.04209324966201996</v>
+      </c>
+      <c r="C212">
+        <v>0.04209324966201996</v>
+      </c>
+      <c r="D212">
+        <v>0.1029023765770615</v>
+      </c>
+      <c r="E212">
+        <v>0.05881611028838309</v>
+      </c>
+      <c r="F212">
+        <v>0.05881611028838309</v>
+      </c>
+      <c r="G212">
+        <v>0.06026962859161689</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>0.04138572439354768</v>
+      </c>
+      <c r="C213">
+        <v>0.04138572439354768</v>
+      </c>
+      <c r="D213">
+        <v>0.0976253318401314</v>
+      </c>
+      <c r="E213">
+        <v>0.05820615045448601</v>
+      </c>
+      <c r="F213">
+        <v>0.05820615045448601</v>
+      </c>
+      <c r="G213">
+        <v>0.07454401403547373</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>0.04175583420611308</v>
+      </c>
+      <c r="C214">
+        <v>0.04175583420611308</v>
+      </c>
+      <c r="D214">
+        <v>0.08970976443985836</v>
+      </c>
+      <c r="E214">
+        <v>0.05858030117616873</v>
+      </c>
+      <c r="F214">
+        <v>0.05858030117616873</v>
+      </c>
+      <c r="G214">
+        <v>0.06582077843721286</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>0.0433143584013457</v>
+      </c>
+      <c r="C215">
+        <v>0.0433143584013457</v>
+      </c>
+      <c r="D215">
+        <v>0.1029023765770615</v>
+      </c>
+      <c r="E215">
+        <v>0.05831743765572155</v>
+      </c>
+      <c r="F215">
+        <v>0.05831743765572155</v>
+      </c>
+      <c r="G215">
+        <v>0.07295797154319182</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>0.04080436576285588</v>
+      </c>
+      <c r="C216">
+        <v>0.04080436576285588</v>
+      </c>
+      <c r="D216">
+        <v>0.1029023765770615</v>
+      </c>
+      <c r="E216">
+        <v>0.05808129533239058</v>
+      </c>
+      <c r="F216">
+        <v>0.05808129533239058</v>
+      </c>
+      <c r="G216">
+        <v>0.06582077855538225</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>0.040629695904365</v>
+      </c>
+      <c r="C217">
+        <v>0.040629695904365</v>
+      </c>
+      <c r="D217">
+        <v>0.1029023763804763</v>
+      </c>
+      <c r="E217">
+        <v>0.0575285836091172</v>
+      </c>
+      <c r="F217">
+        <v>0.0575285836091172</v>
+      </c>
+      <c r="G217">
+        <v>0.06819984264831332</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>0.04161978894377761</v>
+      </c>
+      <c r="C218">
+        <v>0.04161978894377761</v>
+      </c>
+      <c r="D218">
+        <v>0.1055408996335749</v>
+      </c>
+      <c r="E218">
+        <v>0.05822023365596379</v>
+      </c>
+      <c r="F218">
+        <v>0.05822023365596379</v>
+      </c>
+      <c r="G218">
+        <v>0.06264869280271734</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>0.04061206114677452</v>
+      </c>
+      <c r="C219">
+        <v>0.04061206114677452</v>
+      </c>
+      <c r="D219">
+        <v>0.09498680917678848</v>
+      </c>
+      <c r="E219">
+        <v>0.05777412689306451</v>
+      </c>
+      <c r="F219">
+        <v>0.05777412689306451</v>
+      </c>
+      <c r="G219">
+        <v>0.07216495006071207</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>0.0402242221960449</v>
+      </c>
+      <c r="C220">
+        <v>0.0402242221960449</v>
+      </c>
+      <c r="D220">
+        <v>0.09762533223330189</v>
+      </c>
+      <c r="E220">
+        <v>0.05783727388418354</v>
+      </c>
+      <c r="F220">
+        <v>0.05783727388418354</v>
+      </c>
+      <c r="G220">
+        <v>0.06423473582676155</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>0.04020413902826548</v>
+      </c>
+      <c r="C221">
+        <v>0.04020413902826548</v>
+      </c>
+      <c r="D221">
+        <v>0.09762533223330189</v>
+      </c>
+      <c r="E221">
+        <v>0.05705789131873851</v>
+      </c>
+      <c r="F221">
+        <v>0.05705789131873851</v>
+      </c>
+      <c r="G221">
+        <v>0.0666137999196926</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>0.03980540559875305</v>
+      </c>
+      <c r="C222">
+        <v>0.03980540559875305</v>
+      </c>
+      <c r="D222">
+        <v>0.1160949893040204</v>
+      </c>
+      <c r="E222">
+        <v>0.05757506173414242</v>
+      </c>
+      <c r="F222">
+        <v>0.05757506173414242</v>
+      </c>
+      <c r="G222">
+        <v>0.07057890697758316</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>0.04022118820757224</v>
+      </c>
+      <c r="C223">
+        <v>0.04022118820757224</v>
+      </c>
+      <c r="D223">
+        <v>0.1002638547000596</v>
+      </c>
+      <c r="E223">
+        <v>0.05736256571313769</v>
+      </c>
+      <c r="F223">
+        <v>0.05736256571313769</v>
+      </c>
+      <c r="G223">
+        <v>0.07930214269401345</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>0.03933893444906124</v>
+      </c>
+      <c r="C224">
+        <v>0.03933893444906124</v>
+      </c>
+      <c r="D224">
+        <v>0.1055408996335749</v>
+      </c>
+      <c r="E224">
+        <v>0.05727873214954048</v>
+      </c>
+      <c r="F224">
+        <v>0.05727873214954048</v>
+      </c>
+      <c r="G224">
+        <v>0.06978588579052691</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>0.03932175501237444</v>
+      </c>
+      <c r="C225">
+        <v>0.03932175501237444</v>
+      </c>
+      <c r="D225">
+        <v>0.1055408996335749</v>
+      </c>
+      <c r="E225">
+        <v>0.05693124878699585</v>
+      </c>
+      <c r="F225">
+        <v>0.05693124878699585</v>
+      </c>
+      <c r="G225">
+        <v>0.06740682152034176</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>0.04096346534297145</v>
+      </c>
+      <c r="C226">
+        <v>0.04096346534297145</v>
+      </c>
+      <c r="D226">
+        <v>0.09498680917678848</v>
+      </c>
+      <c r="E226">
+        <v>0.0570042712095472</v>
+      </c>
+      <c r="F226">
+        <v>0.0570042712095472</v>
+      </c>
+      <c r="G226">
+        <v>0.0666137999196926</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>0.03950930248189098</v>
+      </c>
+      <c r="C227">
+        <v>0.03950930248189098</v>
+      </c>
+      <c r="D227">
+        <v>0.1187335123605338</v>
+      </c>
+      <c r="E227">
+        <v>0.05651506223227654</v>
+      </c>
+      <c r="F227">
+        <v>0.05651506223227654</v>
+      </c>
+      <c r="G227">
+        <v>0.05789056420326233</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>0.03899196650351257</v>
+      </c>
+      <c r="C228">
+        <v>0.03899196650351257</v>
+      </c>
+      <c r="D228">
+        <v>0.1187335121639486</v>
+      </c>
+      <c r="E228">
+        <v>0.05675902635946244</v>
+      </c>
+      <c r="F228">
+        <v>0.05675902635946244</v>
+      </c>
+      <c r="G228">
+        <v>0.08168120708236801</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>0.03915443184901039</v>
+      </c>
+      <c r="C229">
+        <v>0.03915443184901039</v>
+      </c>
+      <c r="D229">
+        <v>0.1266490791513926</v>
+      </c>
+      <c r="E229">
+        <v>0.05677994835787969</v>
+      </c>
+      <c r="F229">
+        <v>0.05677994835787969</v>
+      </c>
+      <c r="G229">
+        <v>0.06026962835527809</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>0.03926971195005175</v>
+      </c>
+      <c r="C230">
+        <v>0.03926971195005175</v>
+      </c>
+      <c r="D230">
+        <v>0.1187335119673633</v>
+      </c>
+      <c r="E230">
+        <v>0.05654155261206022</v>
+      </c>
+      <c r="F230">
+        <v>0.05654155261206022</v>
+      </c>
+      <c r="G230">
+        <v>0.07375099302567158</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>0.03919199574984472</v>
+      </c>
+      <c r="C231">
+        <v>0.03919199574984472</v>
+      </c>
+      <c r="D231">
+        <v>0.1081794222969178</v>
+      </c>
+      <c r="E231">
+        <v>0.05637601022678741</v>
+      </c>
+      <c r="F231">
+        <v>0.05637601022678741</v>
+      </c>
+      <c r="G231">
+        <v>0.06978588519967992</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>0.03900245880821135</v>
+      </c>
+      <c r="C232">
+        <v>0.03900245880821135</v>
+      </c>
+      <c r="D232">
+        <v>0.1108179445670903</v>
+      </c>
+      <c r="E232">
+        <v>0.05620544192268204</v>
+      </c>
+      <c r="F232">
+        <v>0.05620544192268204</v>
+      </c>
+      <c r="G232">
+        <v>0.06740682140217236</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>0.03888196082377812</v>
+      </c>
+      <c r="C233">
+        <v>0.03888196082377812</v>
+      </c>
+      <c r="D233">
+        <v>0.102902376970232</v>
+      </c>
+      <c r="E233">
+        <v>0.05568327100077477</v>
+      </c>
+      <c r="F233">
+        <v>0.05568327100077477</v>
+      </c>
+      <c r="G233">
+        <v>0.07613005705951793</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>0.03920020265283559</v>
+      </c>
+      <c r="C234">
+        <v>0.03920020265283559</v>
+      </c>
+      <c r="D234">
+        <v>0.1240105570974639</v>
+      </c>
+      <c r="E234">
+        <v>0.05538112617893223</v>
+      </c>
+      <c r="F234">
+        <v>0.05538112617893223</v>
+      </c>
+      <c r="G234">
+        <v>0.05947660746364533</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>0.03868366133097294</v>
+      </c>
+      <c r="C235">
+        <v>0.03868366133097294</v>
+      </c>
+      <c r="D235">
+        <v>0.1081794221003326</v>
+      </c>
+      <c r="E235">
+        <v>0.0556274068310656</v>
+      </c>
+      <c r="F235">
+        <v>0.0556274068310656</v>
+      </c>
+      <c r="G235">
+        <v>0.07692307848291299</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>0.03842916211855443</v>
+      </c>
+      <c r="C236">
+        <v>0.03842916211855443</v>
+      </c>
+      <c r="D236">
+        <v>0.09762533144696092</v>
+      </c>
+      <c r="E236">
+        <v>0.05577858775842294</v>
+      </c>
+      <c r="F236">
+        <v>0.05577858775842294</v>
+      </c>
+      <c r="G236">
+        <v>0.07375099284841748</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>0.0383908450112022</v>
+      </c>
+      <c r="C237">
+        <v>0.0383908450112022</v>
+      </c>
+      <c r="D237">
+        <v>0.09498680917678848</v>
+      </c>
+      <c r="E237">
+        <v>0.0550502789466037</v>
+      </c>
+      <c r="F237">
+        <v>0.0550502789466037</v>
+      </c>
+      <c r="G237">
+        <v>0.07137192851914761</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>0.03759848384437272</v>
+      </c>
+      <c r="C238">
+        <v>0.03759848384437272</v>
+      </c>
+      <c r="D238">
+        <v>0.1372031694312524</v>
+      </c>
+      <c r="E238">
+        <v>0.05488840749370589</v>
+      </c>
+      <c r="F238">
+        <v>0.05488840749370589</v>
+      </c>
+      <c r="G238">
+        <v>0.06819984282556742</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>0.03790037285801918</v>
+      </c>
+      <c r="C239">
+        <v>0.03790037285801918</v>
+      </c>
+      <c r="D239">
+        <v>0.1213720348272915</v>
+      </c>
+      <c r="E239">
+        <v>0.05552582433750051</v>
+      </c>
+      <c r="F239">
+        <v>0.05552582433750051</v>
+      </c>
+      <c r="G239">
+        <v>0.07454401409455844</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>0.03827412991654276</v>
+      </c>
+      <c r="C240">
+        <v>0.03827412991654276</v>
+      </c>
+      <c r="D240">
+        <v>0.1451187368118668</v>
+      </c>
+      <c r="E240">
+        <v>0.05542859710711605</v>
+      </c>
+      <c r="F240">
+        <v>0.05542859710711605</v>
+      </c>
+      <c r="G240">
+        <v>0.07454401438998193</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>0.03709541352608273</v>
+      </c>
+      <c r="C241">
+        <v>0.03709541352608273</v>
+      </c>
+      <c r="D241">
+        <v>0.1398416917014248</v>
+      </c>
+      <c r="E241">
+        <v>0.05558971416952589</v>
+      </c>
+      <c r="F241">
+        <v>0.05558971416952589</v>
+      </c>
+      <c r="G241">
+        <v>0.07137192881457112</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>0.03832229054815536</v>
+      </c>
+      <c r="C242">
+        <v>0.03832229054815536</v>
+      </c>
+      <c r="D242">
+        <v>0.1055408990438192</v>
+      </c>
+      <c r="E242">
+        <v>0.05483099226644123</v>
+      </c>
+      <c r="F242">
+        <v>0.05483099226644123</v>
+      </c>
+      <c r="G242">
+        <v>0.06899286395353897</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>0.03769495663550095</v>
+      </c>
+      <c r="C243">
+        <v>0.03769495663550095</v>
+      </c>
+      <c r="D243">
+        <v>0.1055408996335749</v>
+      </c>
+      <c r="E243">
+        <v>0.05495899929432383</v>
+      </c>
+      <c r="F243">
+        <v>0.05495899929432383</v>
+      </c>
+      <c r="G243">
+        <v>0.07295797148410713</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>0.03719185772388781</v>
+      </c>
+      <c r="C244">
+        <v>0.03719185772388781</v>
+      </c>
+      <c r="D244">
+        <v>0.1002638539137186</v>
+      </c>
+      <c r="E244">
+        <v>0.05450504835662532</v>
+      </c>
+      <c r="F244">
+        <v>0.05450504835662532</v>
+      </c>
+      <c r="G244">
+        <v>0.07137192857823232</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>0.03861832993208261</v>
+      </c>
+      <c r="C245">
+        <v>0.03861832993208261</v>
+      </c>
+      <c r="D245">
+        <v>0.1108179445670903</v>
+      </c>
+      <c r="E245">
+        <v>0.05498216827352023</v>
+      </c>
+      <c r="F245">
+        <v>0.05498216827352023</v>
+      </c>
+      <c r="G245">
+        <v>0.07613005700043324</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>0.03851178098755021</v>
+      </c>
+      <c r="C246">
+        <v>0.03851178098755021</v>
+      </c>
+      <c r="D246">
+        <v>0.1187335121639486</v>
+      </c>
+      <c r="E246">
+        <v>0.05445879216850229</v>
+      </c>
+      <c r="F246">
+        <v>0.05445879216850229</v>
+      </c>
+      <c r="G246">
+        <v>0.06978588525876461</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>0.03661286427902358</v>
+      </c>
+      <c r="C247">
+        <v>0.03661286427902358</v>
+      </c>
+      <c r="D247">
+        <v>0.1240105567042935</v>
+      </c>
+      <c r="E247">
+        <v>0.05451219817837678</v>
+      </c>
+      <c r="F247">
+        <v>0.05451219817837678</v>
+      </c>
+      <c r="G247">
+        <v>0.06899286430804716</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>0.0373642299923859</v>
+      </c>
+      <c r="C248">
+        <v>0.0373642299923859</v>
+      </c>
+      <c r="D248">
+        <v>0.1029023771668172</v>
+      </c>
+      <c r="E248">
+        <v>0.05438274227254075</v>
+      </c>
+      <c r="F248">
+        <v>0.05438274227254075</v>
+      </c>
+      <c r="G248">
+        <v>0.07692307860108238</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>0.03684765130949838</v>
+      </c>
+      <c r="C249">
+        <v>0.03684765130949838</v>
+      </c>
+      <c r="D249">
+        <v>0.1187335121639486</v>
+      </c>
+      <c r="E249">
+        <v>0.05407333503714352</v>
+      </c>
+      <c r="F249">
+        <v>0.05407333503714352</v>
+      </c>
+      <c r="G249">
+        <v>0.07613005729585673</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>0.03624256582326185</v>
+      </c>
+      <c r="C250">
+        <v>0.03624256582326185</v>
+      </c>
+      <c r="D250">
+        <v>0.1187335119673633</v>
+      </c>
+      <c r="E250">
+        <v>0.05424263019448562</v>
+      </c>
+      <c r="F250">
+        <v>0.05424263019448562</v>
+      </c>
+      <c r="G250">
+        <v>0.06423473553133804</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>0.03656382993414094</v>
+      </c>
+      <c r="C251">
+        <v>0.03656382993414094</v>
+      </c>
+      <c r="D251">
+        <v>0.1134564664440923</v>
+      </c>
+      <c r="E251">
+        <v>0.05400305382854215</v>
+      </c>
+      <c r="F251">
+        <v>0.05400305382854215</v>
+      </c>
+      <c r="G251">
+        <v>0.07533703551795348</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>0.03683951592421783</v>
+      </c>
+      <c r="C252">
+        <v>0.03683951592421783</v>
+      </c>
+      <c r="D252">
+        <v>0.1029023765770615</v>
+      </c>
+      <c r="E252">
+        <v>0.05374082745976811</v>
+      </c>
+      <c r="F252">
+        <v>0.05374082745976811</v>
+      </c>
+      <c r="G252">
+        <v>0.07533703581337699</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>0.03750004981076812</v>
+      </c>
+      <c r="C253">
+        <v>0.03750004981076812</v>
+      </c>
+      <c r="D253">
+        <v>0.1002638541103038</v>
+      </c>
+      <c r="E253">
+        <v>0.05373480720452899</v>
+      </c>
+      <c r="F253">
+        <v>0.05373480720452899</v>
+      </c>
+      <c r="G253">
+        <v>0.08088818583622705</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>0.03706679203225629</v>
+      </c>
+      <c r="C254">
+        <v>0.03706679203225629</v>
+      </c>
+      <c r="D254">
+        <v>0.1055408996335749</v>
+      </c>
+      <c r="E254">
+        <v>0.05292621724053473</v>
+      </c>
+      <c r="F254">
+        <v>0.05292621724053473</v>
+      </c>
+      <c r="G254">
+        <v>0.07057890697758316</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>0.03623588185629618</v>
+      </c>
+      <c r="C255">
+        <v>0.03623588185629618</v>
+      </c>
+      <c r="D255">
+        <v>0.1187335117707781</v>
+      </c>
+      <c r="E255">
+        <v>0.05376015536481194</v>
+      </c>
+      <c r="F255">
+        <v>0.05376015536481194</v>
+      </c>
+      <c r="G255">
+        <v>0.06582077861446695</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>0.03652098609778372</v>
+      </c>
+      <c r="C256">
+        <v>0.03652098609778372</v>
+      </c>
+      <c r="D256">
+        <v>0.1134564664440923</v>
+      </c>
+      <c r="E256">
+        <v>0.05320985998713148</v>
+      </c>
+      <c r="F256">
+        <v>0.05320985998713148</v>
+      </c>
+      <c r="G256">
+        <v>0.07692307848291299</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>0.03624090733188438</v>
+      </c>
+      <c r="C257">
+        <v>0.03624090733188438</v>
+      </c>
+      <c r="D257">
+        <v>0.1160949895006056</v>
+      </c>
+      <c r="E257">
+        <v>0.05367456455430655</v>
+      </c>
+      <c r="F257">
+        <v>0.05367456455430655</v>
+      </c>
+      <c r="G257">
+        <v>0.06582077867355166</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>0.0355069185643995</v>
+      </c>
+      <c r="C258">
+        <v>0.0355069185643995</v>
+      </c>
+      <c r="D258">
+        <v>0.1213720346307063</v>
+      </c>
+      <c r="E258">
+        <v>0.0535009537072384</v>
+      </c>
+      <c r="F258">
+        <v>0.0535009537072384</v>
+      </c>
+      <c r="G258">
+        <v>0.08247422862393246</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>0.03596141266987946</v>
+      </c>
+      <c r="C259">
+        <v>0.03596141266987946</v>
+      </c>
+      <c r="D259">
+        <v>0.1108179447636755</v>
+      </c>
+      <c r="E259">
+        <v>0.05326129875716758</v>
+      </c>
+      <c r="F259">
+        <v>0.05326129875716758</v>
+      </c>
+      <c r="G259">
+        <v>0.07850912138878779</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>0.03628445935673952</v>
+      </c>
+      <c r="C260">
+        <v>0.03628445935673952</v>
+      </c>
+      <c r="D260">
+        <v>0.1266490793676364</v>
+      </c>
+      <c r="E260">
+        <v>0.05333019829961537</v>
+      </c>
+      <c r="F260">
+        <v>0.05333019829961537</v>
+      </c>
+      <c r="G260">
+        <v>0.07930214281218284</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>0.03534733500125226</v>
+      </c>
+      <c r="C261">
+        <v>0.03534733500125226</v>
+      </c>
+      <c r="D261">
+        <v>0.1266490793676364</v>
+      </c>
+      <c r="E261">
+        <v>0.05282453597950897</v>
+      </c>
+      <c r="F261">
+        <v>0.05282453597950897</v>
+      </c>
+      <c r="G261">
+        <v>0.07533703581337699</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>0.03605649865043195</v>
+      </c>
+      <c r="C262">
+        <v>0.03605649865043195</v>
+      </c>
+      <c r="D262">
+        <v>0.1213720342375358</v>
+      </c>
+      <c r="E262">
+        <v>0.05242085908255248</v>
+      </c>
+      <c r="F262">
+        <v>0.05242085908255248</v>
+      </c>
+      <c r="G262">
+        <v>0.08723235680979458</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>0.03501125538136839</v>
+      </c>
+      <c r="C263">
+        <v>0.03501125538136839</v>
+      </c>
+      <c r="D263">
+        <v>0.1081794222969178</v>
+      </c>
+      <c r="E263">
+        <v>0.05300339648734947</v>
+      </c>
+      <c r="F263">
+        <v>0.05300339648734947</v>
+      </c>
+      <c r="G263">
+        <v>0.08406027129346846</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>0.03525799145248761</v>
+      </c>
+      <c r="C264">
+        <v>0.03525799145248761</v>
+      </c>
+      <c r="D264">
+        <v>0.113456467033848</v>
+      </c>
+      <c r="E264">
+        <v>0.05310103240807693</v>
+      </c>
+      <c r="F264">
+        <v>0.05310103240807693</v>
+      </c>
+      <c r="G264">
+        <v>0.07375099284841748</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>0.03543594038226988</v>
+      </c>
+      <c r="C265">
+        <v>0.03543594038226988</v>
+      </c>
+      <c r="D265">
+        <v>0.1240105569008787</v>
+      </c>
+      <c r="E265">
+        <v>0.05195414323675831</v>
+      </c>
+      <c r="F265">
+        <v>0.05195414323675831</v>
+      </c>
+      <c r="G265">
+        <v>0.07771610020173153</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>0.03502630119981111</v>
+      </c>
+      <c r="C266">
+        <v>0.03502630119981111</v>
+      </c>
+      <c r="D266">
+        <v>0.1266490793676364</v>
+      </c>
+      <c r="E266">
+        <v>0.05317063614265206</v>
+      </c>
+      <c r="F266">
+        <v>0.05317063614265206</v>
+      </c>
+      <c r="G266">
+        <v>0.08406027134073622</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>0.03496229871714335</v>
+      </c>
+      <c r="C267">
+        <v>0.03496229871714335</v>
+      </c>
+      <c r="D267">
+        <v>0.1160949895006056</v>
+      </c>
+      <c r="E267">
+        <v>0.05209059058190054</v>
+      </c>
+      <c r="F267">
+        <v>0.05209059058190054</v>
+      </c>
+      <c r="G267">
+        <v>0.09040444262154418</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>0.03586064452074449</v>
+      </c>
+      <c r="C268">
+        <v>0.03586064452074449</v>
+      </c>
+      <c r="D268">
+        <v>0.1240105569008787</v>
+      </c>
+      <c r="E268">
+        <v>0.05267436062055954</v>
+      </c>
+      <c r="F268">
+        <v>0.05267436062055954</v>
+      </c>
+      <c r="G268">
+        <v>0.06740682140217236</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>0.03556147472328435</v>
+      </c>
+      <c r="C269">
+        <v>0.03556147472328435</v>
+      </c>
+      <c r="D269">
+        <v>0.1292876018343941</v>
+      </c>
+      <c r="E269">
+        <v>0.05198357848363391</v>
+      </c>
+      <c r="F269">
+        <v>0.05198357848363391</v>
+      </c>
+      <c r="G269">
+        <v>0.07771609984722334</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>0.03537566892036033</v>
+      </c>
+      <c r="C270">
+        <v>0.03537566892036033</v>
+      </c>
+      <c r="D270">
+        <v>0.1213720338443653</v>
+      </c>
+      <c r="E270">
+        <v>0.05228832876051257</v>
+      </c>
+      <c r="F270">
+        <v>0.05228832876051257</v>
+      </c>
+      <c r="G270">
+        <v>0.08247422850576305</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>0.03547408845580348</v>
+      </c>
+      <c r="C271">
+        <v>0.03547408845580348</v>
+      </c>
+      <c r="D271">
+        <v>0.1292876020309793</v>
+      </c>
+      <c r="E271">
+        <v>0.05212037569291529</v>
+      </c>
+      <c r="F271">
+        <v>0.05212037569291529</v>
+      </c>
+      <c r="G271">
+        <v>0.08326724981098871</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>0.03433728981812271</v>
+      </c>
+      <c r="C272">
+        <v>0.03433728981812271</v>
+      </c>
+      <c r="D272">
+        <v>0.1266490793676364</v>
+      </c>
+      <c r="E272">
+        <v>0.05207938133996692</v>
+      </c>
+      <c r="F272">
+        <v>0.05207938133996692</v>
+      </c>
+      <c r="G272">
+        <v>0.08326724981098871</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>0.03510928551093884</v>
+      </c>
+      <c r="C273">
+        <v>0.03510928551093884</v>
+      </c>
+      <c r="D273">
+        <v>0.1266490793676364</v>
+      </c>
+      <c r="E273">
+        <v>0.05166204537809321</v>
+      </c>
+      <c r="F273">
+        <v>0.05166204537809321</v>
+      </c>
+      <c r="G273">
+        <v>0.08247422844667836</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>0.03403130334883063</v>
+      </c>
+      <c r="C274">
+        <v>0.03403130334883063</v>
+      </c>
+      <c r="D274">
+        <v>0.1266490793676364</v>
+      </c>
+      <c r="E274">
+        <v>0.05200543932315379</v>
+      </c>
+      <c r="F274">
+        <v>0.05200543932315379</v>
+      </c>
+      <c r="G274">
+        <v>0.07850912150695719</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>0.03797634029490652</v>
+      </c>
+      <c r="C275">
+        <v>0.03797634029490652</v>
+      </c>
+      <c r="D275">
+        <v>0.1002638543068891</v>
+      </c>
+      <c r="E275">
+        <v>0.05191935688954417</v>
+      </c>
+      <c r="F275">
+        <v>0.05191935688954417</v>
+      </c>
+      <c r="G275">
+        <v>0.07375099302567158</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>0.0341807399878873</v>
+      </c>
+      <c r="C276">
+        <v>0.0341807399878873</v>
+      </c>
+      <c r="D276">
+        <v>0.1240105569008787</v>
+      </c>
+      <c r="E276">
+        <v>0.05140505587529985</v>
+      </c>
+      <c r="F276">
+        <v>0.05140505587529985</v>
+      </c>
+      <c r="G276">
+        <v>0.09119746422219333</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>0.03434523968591224</v>
+      </c>
+      <c r="C277">
+        <v>0.03434523968591224</v>
+      </c>
+      <c r="D277">
+        <v>0.1240105569008787</v>
+      </c>
+      <c r="E277">
+        <v>0.05136682158432056</v>
+      </c>
+      <c r="F277">
+        <v>0.05136682158432056</v>
+      </c>
+      <c r="G277">
+        <v>0.07771610014264684</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>0.03385670856624291</v>
+      </c>
+      <c r="C278">
+        <v>0.03385670856624291</v>
+      </c>
+      <c r="D278">
+        <v>0.1266490793676364</v>
+      </c>
+      <c r="E278">
+        <v>0.05125652216552128</v>
+      </c>
+      <c r="F278">
+        <v>0.05125652216552128</v>
+      </c>
+      <c r="G278">
+        <v>0.08326724992915811</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>0.03360035562381581</v>
+      </c>
+      <c r="C279">
+        <v>0.03360035562381581</v>
+      </c>
+      <c r="D279">
+        <v>0.1187335119673633</v>
+      </c>
+      <c r="E279">
+        <v>0.05110288296015985</v>
+      </c>
+      <c r="F279">
+        <v>0.05110288296015985</v>
+      </c>
+      <c r="G279">
+        <v>0.08961142143448793</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>0.0336407487990831</v>
+      </c>
+      <c r="C280">
+        <v>0.0336407487990831</v>
+      </c>
+      <c r="D280">
+        <v>0.1240105569008787</v>
+      </c>
+      <c r="E280">
+        <v>0.0515830719682501</v>
+      </c>
+      <c r="F280">
+        <v>0.0515830719682501</v>
+      </c>
+      <c r="G280">
+        <v>0.07930214281218284</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>0.03422191485487377</v>
+      </c>
+      <c r="C281">
+        <v>0.03422191485487377</v>
+      </c>
+      <c r="D281">
+        <v>0.1240105569008787</v>
+      </c>
+      <c r="E281">
+        <v>0.05083104001740725</v>
+      </c>
+      <c r="F281">
+        <v>0.05083104001740725</v>
+      </c>
+      <c r="G281">
+        <v>0.07850912121153369</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>0.0336494279784546</v>
+      </c>
+      <c r="C282">
+        <v>0.0336494279784546</v>
+      </c>
+      <c r="D282">
+        <v>0.1319261243011517</v>
+      </c>
+      <c r="E282">
+        <v>0.05159355664565202</v>
+      </c>
+      <c r="F282">
+        <v>0.05159355664565202</v>
+      </c>
+      <c r="G282">
+        <v>0.07850912121153369</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>0.03504567450811806</v>
+      </c>
+      <c r="C283">
+        <v>0.03504567450811806</v>
+      </c>
+      <c r="D283">
+        <v>0.1187335111810224</v>
+      </c>
+      <c r="E283">
+        <v>0.05110833852963255</v>
+      </c>
+      <c r="F283">
+        <v>0.05110833852963255</v>
+      </c>
+      <c r="G283">
+        <v>0.08247422867120022</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>0.03346681936906951</v>
+      </c>
+      <c r="C284">
+        <v>0.03346681936906951</v>
+      </c>
+      <c r="D284">
+        <v>0.1292876018343941</v>
+      </c>
+      <c r="E284">
+        <v>0.0508620213424753</v>
+      </c>
+      <c r="F284">
+        <v>0.0508620213424753</v>
+      </c>
+      <c r="G284">
+        <v>0.07692307860108238</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>0.03325366093175078</v>
+      </c>
+      <c r="C285">
+        <v>0.03325366093175078</v>
+      </c>
+      <c r="D285">
+        <v>0.1240105569008787</v>
+      </c>
+      <c r="E285">
+        <v>0.05125750419310782</v>
+      </c>
+      <c r="F285">
+        <v>0.05125750419310782</v>
+      </c>
+      <c r="G285">
+        <v>0.08168120690511391</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>0.03388225437586729</v>
+      </c>
+      <c r="C286">
+        <v>0.03388225437586729</v>
+      </c>
+      <c r="D286">
+        <v>0.1213720342375358</v>
+      </c>
+      <c r="E286">
+        <v>0.05023790214396866</v>
+      </c>
+      <c r="F286">
+        <v>0.05023790214396866</v>
+      </c>
+      <c r="G286">
+        <v>0.08247422886027125</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>0.03357229085938911</v>
+      </c>
+      <c r="C287">
+        <v>0.03357229085938911</v>
+      </c>
+      <c r="D287">
+        <v>0.1213720346307063</v>
+      </c>
+      <c r="E287">
+        <v>0.05026202909737045</v>
+      </c>
+      <c r="F287">
+        <v>0.05026202909737045</v>
+      </c>
+      <c r="G287">
+        <v>0.07692307842382828</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>0.03377643855667051</v>
+      </c>
+      <c r="C288">
+        <v>0.03377643855667051</v>
+      </c>
+      <c r="D288">
+        <v>0.1134564668372627</v>
+      </c>
+      <c r="E288">
+        <v>0.0508221304553733</v>
+      </c>
+      <c r="F288">
+        <v>0.0508221304553733</v>
+      </c>
+      <c r="G288">
+        <v>0.08643933609541592</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>0.03270572255854556</v>
+      </c>
+      <c r="C289">
+        <v>0.03270572255854556</v>
+      </c>
+      <c r="D289">
+        <v>0.1134564664440923</v>
+      </c>
+      <c r="E289">
+        <v>0.05079414219869497</v>
+      </c>
+      <c r="F289">
+        <v>0.05079414219869497</v>
+      </c>
+      <c r="G289">
+        <v>0.07216495011979678</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>0.03295438676718672</v>
+      </c>
+      <c r="C290">
+        <v>0.03295438676718672</v>
+      </c>
+      <c r="D290">
+        <v>0.1240105569008787</v>
+      </c>
+      <c r="E290">
+        <v>0.05013131850135411</v>
+      </c>
+      <c r="F290">
+        <v>0.05013131850135411</v>
+      </c>
+      <c r="G290">
+        <v>0.08088818576532542</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>0.03377644613503152</v>
+      </c>
+      <c r="C291">
+        <v>0.03377644613503152</v>
+      </c>
+      <c r="D291">
+        <v>0.1055408990438192</v>
+      </c>
+      <c r="E291">
+        <v>0.05010131098814515</v>
+      </c>
+      <c r="F291">
+        <v>0.05010131098814515</v>
+      </c>
+      <c r="G291">
+        <v>0.078509121152449</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>0.03311144056334345</v>
+      </c>
+      <c r="C292">
+        <v>0.03311144056334345</v>
+      </c>
+      <c r="D292">
+        <v>0.1240105569008787</v>
+      </c>
+      <c r="E292">
+        <v>0.05027136612391065</v>
+      </c>
+      <c r="F292">
+        <v>0.05027136612391065</v>
+      </c>
+      <c r="G292">
+        <v>0.08881840001109287</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <v>0.03381896281423229</v>
+      </c>
+      <c r="C293">
+        <v>0.03381896281423229</v>
+      </c>
+      <c r="D293">
+        <v>0.0976253318401314</v>
+      </c>
+      <c r="E293">
+        <v>0.04972713041244094</v>
+      </c>
+      <c r="F293">
+        <v>0.04972713041244094</v>
+      </c>
+      <c r="G293">
+        <v>0.07692307854199769</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>0.03300518375430699</v>
+      </c>
+      <c r="C294">
+        <v>0.03300518375430699</v>
+      </c>
+      <c r="D294">
+        <v>0.1266490793676364</v>
+      </c>
+      <c r="E294">
+        <v>0.05081970458828108</v>
+      </c>
+      <c r="F294">
+        <v>0.05081970458828108</v>
+      </c>
+      <c r="G294">
+        <v>0.08564631455385147</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>0.03275399743567042</v>
+      </c>
+      <c r="C295">
+        <v>0.03275399743567042</v>
+      </c>
+      <c r="D295">
+        <v>0.1213720338443653</v>
+      </c>
+      <c r="E295">
+        <v>0.05000059531881968</v>
+      </c>
+      <c r="F295">
+        <v>0.05000059531881968</v>
+      </c>
+      <c r="G295">
+        <v>0.08881840030651637</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>0.03258172655600985</v>
+      </c>
+      <c r="C296">
+        <v>0.03258172655600985</v>
+      </c>
+      <c r="D296">
+        <v>0.1240105569008787</v>
+      </c>
+      <c r="E296">
+        <v>0.04975557687982598</v>
+      </c>
+      <c r="F296">
+        <v>0.04975557687982598</v>
+      </c>
+      <c r="G296">
+        <v>0.06740682116583356</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>0.03273833259979465</v>
+      </c>
+      <c r="C297">
+        <v>0.03273833259979465</v>
+      </c>
+      <c r="D297">
+        <v>0.1187335121639486</v>
+      </c>
+      <c r="E297">
+        <v>0.04988952240154065</v>
+      </c>
+      <c r="F297">
+        <v>0.04988952240154065</v>
+      </c>
+      <c r="G297">
+        <v>0.07613005705951793</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>0.03233269154828897</v>
+      </c>
+      <c r="C298">
+        <v>0.03233269154828897</v>
+      </c>
+      <c r="D298">
+        <v>0.1266490793676364</v>
+      </c>
+      <c r="E298">
+        <v>0.05046291010931406</v>
+      </c>
+      <c r="F298">
+        <v>0.05046291010931406</v>
+      </c>
+      <c r="G298">
+        <v>0.07057890697758316</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <v>0.03298286121525362</v>
+      </c>
+      <c r="C299">
+        <v>0.03298286121525362</v>
+      </c>
+      <c r="D299">
+        <v>0.1292876024241498</v>
+      </c>
+      <c r="E299">
+        <v>0.05014070659184579</v>
+      </c>
+      <c r="F299">
+        <v>0.05014070659184579</v>
+      </c>
+      <c r="G299">
+        <v>0.07613005729585673</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>0.03263990161326127</v>
+      </c>
+      <c r="C300">
+        <v>0.03263990161326127</v>
+      </c>
+      <c r="D300">
+        <v>0.1187335111810224</v>
+      </c>
+      <c r="E300">
+        <v>0.04999344278064916</v>
+      </c>
+      <c r="F300">
+        <v>0.04999344278064916</v>
+      </c>
+      <c r="G300">
+        <v>0.07295797142502243</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <v>0.03301856043628149</v>
+      </c>
+      <c r="C301">
+        <v>0.03301856043628149</v>
+      </c>
+      <c r="D301">
+        <v>0.0897097646364436</v>
+      </c>
+      <c r="E301">
+        <v>0.04933579260458273</v>
+      </c>
+      <c r="F301">
+        <v>0.04933579260458273</v>
+      </c>
+      <c r="G301">
+        <v>0.08406027129346846</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <v>0.0323000898324248</v>
+      </c>
+      <c r="C302">
+        <v>0.0323000898324248</v>
+      </c>
+      <c r="D302">
+        <v>0.1240105569008787</v>
+      </c>
+      <c r="E302">
+        <v>0.04882936184955532</v>
+      </c>
+      <c r="F302">
+        <v>0.04882936184955532</v>
+      </c>
+      <c r="G302">
+        <v>0.08643933568182302</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <v>0.03205568446608206</v>
+      </c>
+      <c r="C303">
+        <v>0.03205568446608206</v>
+      </c>
+      <c r="D303">
+        <v>0.1187335115741928</v>
+      </c>
+      <c r="E303">
+        <v>0.04965209291212432</v>
+      </c>
+      <c r="F303">
+        <v>0.04965209291212432</v>
+      </c>
+      <c r="G303">
+        <v>0.08723235710521807</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <v>0.03198118035074589</v>
+      </c>
+      <c r="C304">
+        <v>0.03198118035074589</v>
+      </c>
+      <c r="D304">
+        <v>0.1266490793676364</v>
+      </c>
+      <c r="E304">
+        <v>0.04908824900813655</v>
+      </c>
+      <c r="F304">
+        <v>0.04908824900813655</v>
+      </c>
+      <c r="G304">
+        <v>0.07930214269401345</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <v>0.03213016258302024</v>
+      </c>
+      <c r="C305">
+        <v>0.03213016258302024</v>
+      </c>
+      <c r="D305">
+        <v>0.1213720338443653</v>
+      </c>
+      <c r="E305">
+        <v>0.04920891203535728</v>
+      </c>
+      <c r="F305">
+        <v>0.04920891203535728</v>
+      </c>
+      <c r="G305">
+        <v>0.0832672500473275</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <v>0.03207768589297511</v>
+      </c>
+      <c r="C306">
+        <v>0.03207768589297511</v>
+      </c>
+      <c r="D306">
+        <v>0.124010556311123</v>
+      </c>
+      <c r="E306">
+        <v>0.04975277115424695</v>
+      </c>
+      <c r="F306">
+        <v>0.04975277115424695</v>
+      </c>
+      <c r="G306">
+        <v>0.07850912127061839</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <v>0.03230471707546302</v>
+      </c>
+      <c r="C307">
+        <v>0.03230471707546302</v>
+      </c>
+      <c r="D307">
+        <v>0.124010556311123</v>
+      </c>
+      <c r="E307">
+        <v>0.04927517374730791</v>
+      </c>
+      <c r="F307">
+        <v>0.04927517374730791</v>
+      </c>
+      <c r="G307">
+        <v>0.08247422813943792</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <v>0.03227740220509293</v>
+      </c>
+      <c r="C308">
+        <v>0.03227740220509293</v>
+      </c>
+      <c r="D308">
+        <v>0.1108179441739198</v>
+      </c>
+      <c r="E308">
+        <v>0.0491424265489703</v>
+      </c>
+      <c r="F308">
+        <v>0.0491424265489703</v>
+      </c>
+      <c r="G308">
+        <v>0.08485329277594821</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <v>0.03197349065369226</v>
+      </c>
+      <c r="C309">
+        <v>0.03197349065369226</v>
+      </c>
+      <c r="D309">
+        <v>0.124010556311123</v>
+      </c>
+      <c r="E309">
+        <v>0.04923579049821793</v>
+      </c>
+      <c r="F309">
+        <v>0.04923579049821793</v>
+      </c>
+      <c r="G309">
+        <v>0.07930214257584405</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <v>0.03227327495695419</v>
+      </c>
+      <c r="C310">
+        <v>0.03227327495695419</v>
+      </c>
+      <c r="D310">
+        <v>0.1266490793676364</v>
+      </c>
+      <c r="E310">
+        <v>0.04862771885769411</v>
+      </c>
+      <c r="F310">
+        <v>0.04862771885769411</v>
+      </c>
+      <c r="G310">
+        <v>0.08643933591816182</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <v>0.03222324709975625</v>
+      </c>
+      <c r="C311">
+        <v>0.03222324709975625</v>
+      </c>
+      <c r="D311">
+        <v>0.1081794219037474</v>
+      </c>
+      <c r="E311">
+        <v>0.04867595078794375</v>
+      </c>
+      <c r="F311">
+        <v>0.04867595078794375</v>
+      </c>
+      <c r="G311">
+        <v>0.07771610008356214</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <v>0.03180362644917418</v>
+      </c>
+      <c r="C312">
+        <v>0.03180362644917418</v>
+      </c>
+      <c r="D312">
+        <v>0.1213720338443653</v>
+      </c>
+      <c r="E312">
+        <v>0.04809840471970477</v>
+      </c>
+      <c r="F312">
+        <v>0.04809840471970477</v>
+      </c>
+      <c r="G312">
+        <v>0.07850912144787249</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <v>0.03155694967799262</v>
+      </c>
+      <c r="C313">
+        <v>0.03155694967799262</v>
+      </c>
+      <c r="D313">
+        <v>0.1187335123605338</v>
+      </c>
+      <c r="E313">
+        <v>0.04895943149770658</v>
+      </c>
+      <c r="F313">
+        <v>0.04895943149770658</v>
+      </c>
+      <c r="G313">
+        <v>0.08326724992915811</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <v>0.03193230016800848</v>
+      </c>
+      <c r="C314">
+        <v>0.03193230016800848</v>
+      </c>
+      <c r="D314">
+        <v>0.1213720338443653</v>
+      </c>
+      <c r="E314">
+        <v>0.04874875981133198</v>
+      </c>
+      <c r="F314">
+        <v>0.04874875981133198</v>
+      </c>
+      <c r="G314">
+        <v>0.0666137997424385</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <v>0.03206912928450076</v>
+      </c>
+      <c r="C315">
+        <v>0.03206912928450076</v>
+      </c>
+      <c r="D315">
+        <v>0.1160949893040204</v>
+      </c>
+      <c r="E315">
+        <v>0.04863648375379576</v>
+      </c>
+      <c r="F315">
+        <v>0.04863648375379576</v>
+      </c>
+      <c r="G315">
+        <v>0.09595559276256364</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <v>0.03123337043188807</v>
+      </c>
+      <c r="C316">
+        <v>0.03123337043188807</v>
+      </c>
+      <c r="D316">
+        <v>0.1213720342375358</v>
+      </c>
+      <c r="E316">
+        <v>0.04848717237268054</v>
+      </c>
+      <c r="F316">
+        <v>0.04848717237268054</v>
+      </c>
+      <c r="G316">
+        <v>0.07533703587246168</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <v>0.03214527078778889</v>
+      </c>
+      <c r="C317">
+        <v>0.03214527078778889</v>
+      </c>
+      <c r="D317">
+        <v>0.1266490789548074</v>
+      </c>
+      <c r="E317">
+        <v>0.04837232108193196</v>
+      </c>
+      <c r="F317">
+        <v>0.04837232108193196</v>
+      </c>
+      <c r="G317">
+        <v>0.0816812073777915</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <v>0.03136505986659697</v>
+      </c>
+      <c r="C318">
+        <v>0.03136505986659697</v>
+      </c>
+      <c r="D318">
+        <v>0.1266490793676364</v>
+      </c>
+      <c r="E318">
+        <v>0.04838431301297034</v>
+      </c>
+      <c r="F318">
+        <v>0.04838431301297034</v>
+      </c>
+      <c r="G318">
+        <v>0.07930214287126755</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>0.03114196092951895</v>
+      </c>
+      <c r="C319">
+        <v>0.03114196092951895</v>
+      </c>
+      <c r="D319">
+        <v>0.1213720338443653</v>
+      </c>
+      <c r="E319">
+        <v>0.04848584027858975</v>
+      </c>
+      <c r="F319">
+        <v>0.04848584027858975</v>
+      </c>
+      <c r="G319">
+        <v>0.08961142137540323</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>0.03168173630704666</v>
+      </c>
+      <c r="C320">
+        <v>0.03168173630704666</v>
+      </c>
+      <c r="D320">
+        <v>0.1002638545034743</v>
+      </c>
+      <c r="E320">
+        <v>0.04846046172218319</v>
+      </c>
+      <c r="F320">
+        <v>0.04846046172218319</v>
+      </c>
+      <c r="G320">
+        <v>0.0666137999196926</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>0.0310204423040073</v>
+      </c>
+      <c r="C321">
+        <v>0.0310204423040073</v>
+      </c>
+      <c r="D321">
+        <v>0.1134564668372627</v>
+      </c>
+      <c r="E321">
+        <v>0.0482916632529812</v>
+      </c>
+      <c r="F321">
+        <v>0.0482916632529812</v>
+      </c>
+      <c r="G321">
+        <v>0.07613005717768734</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>0.0316154421614311</v>
+      </c>
+      <c r="C322">
+        <v>0.0316154421614311</v>
+      </c>
+      <c r="D322">
+        <v>0.07915567496599811</v>
+      </c>
+      <c r="E322">
+        <v>0.04795686723952441</v>
+      </c>
+      <c r="F322">
+        <v>0.04795686723952441</v>
+      </c>
+      <c r="G322">
+        <v>0.07454401444906662</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>0.03152437631954933</v>
+      </c>
+      <c r="C323">
+        <v>0.03152437631954933</v>
+      </c>
+      <c r="D323">
+        <v>0.09498680937337373</v>
+      </c>
+      <c r="E323">
+        <v>0.04797899749050246</v>
+      </c>
+      <c r="F323">
+        <v>0.04797899749050246</v>
+      </c>
+      <c r="G323">
+        <v>0.07930214287126755</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>0.03130652731908657</v>
+      </c>
+      <c r="C324">
+        <v>0.03130652731908657</v>
+      </c>
+      <c r="D324">
+        <v>0.1002638548966448</v>
+      </c>
+      <c r="E324">
+        <v>0.04813871378762962</v>
+      </c>
+      <c r="F324">
+        <v>0.04813871378762962</v>
+      </c>
+      <c r="G324">
+        <v>0.0650277571319872</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>0.03194792988393112</v>
+      </c>
+      <c r="C325">
+        <v>0.03194792988393112</v>
+      </c>
+      <c r="D325">
+        <v>0.124010556311123</v>
+      </c>
+      <c r="E325">
+        <v>0.04766767969521901</v>
+      </c>
+      <c r="F325">
+        <v>0.04766767969521901</v>
+      </c>
+      <c r="G325">
+        <v>0.09278350736440694</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>0.03061000366835292</v>
+      </c>
+      <c r="C326">
+        <v>0.03061000366835292</v>
+      </c>
+      <c r="D326">
+        <v>0.1240105572940492</v>
+      </c>
+      <c r="E326">
+        <v>0.04814766365281416</v>
+      </c>
+      <c r="F326">
+        <v>0.04814766365281416</v>
+      </c>
+      <c r="G326">
+        <v>0.07533703569520758</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>0.03137082023678794</v>
+      </c>
+      <c r="C327">
+        <v>0.03137082023678794</v>
+      </c>
+      <c r="D327">
+        <v>0.08970976424327312</v>
+      </c>
+      <c r="E327">
+        <v>0.04813359117964069</v>
+      </c>
+      <c r="F327">
+        <v>0.04813359117964069</v>
+      </c>
+      <c r="G327">
+        <v>0.07771609972905394</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>0.03050996763213958</v>
+      </c>
+      <c r="C328">
+        <v>0.03050996763213958</v>
+      </c>
+      <c r="D328">
+        <v>0.1108179441739198</v>
+      </c>
+      <c r="E328">
+        <v>0.04743392327999804</v>
+      </c>
+      <c r="F328">
+        <v>0.04743392327999804</v>
+      </c>
+      <c r="G328">
+        <v>0.07771609996539273</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>0.03189474464170537</v>
+      </c>
+      <c r="C329">
+        <v>0.03189474464170537</v>
+      </c>
+      <c r="D329">
+        <v>0.1160949891074352</v>
+      </c>
+      <c r="E329">
+        <v>0.04762702309995488</v>
+      </c>
+      <c r="F329">
+        <v>0.04762702309995488</v>
+      </c>
+      <c r="G329">
+        <v>0.08564631448294982</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>0.03130605788336266</v>
+      </c>
+      <c r="C330">
+        <v>0.03130605788336266</v>
+      </c>
+      <c r="D330">
+        <v>0.1081794215105769</v>
+      </c>
+      <c r="E330">
+        <v>0.04765480297080682</v>
+      </c>
+      <c r="F330">
+        <v>0.04765480297080682</v>
+      </c>
+      <c r="G330">
+        <v>0.08406027169524441</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>0.03085653933064919</v>
+      </c>
+      <c r="C331">
+        <v>0.03085653933064919</v>
+      </c>
+      <c r="D331">
+        <v>0.1160949891074352</v>
+      </c>
+      <c r="E331">
+        <v>0.04755712491973443</v>
+      </c>
+      <c r="F331">
+        <v>0.04755712491973443</v>
+      </c>
+      <c r="G331">
+        <v>0.07771610001266049</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>0.03117436578492376</v>
+      </c>
+      <c r="C332">
+        <v>0.03117436578492376</v>
+      </c>
+      <c r="D332">
+        <v>0.1081794222969178</v>
+      </c>
+      <c r="E332">
+        <v>0.04738096117051607</v>
+      </c>
+      <c r="F332">
+        <v>0.04738096117051607</v>
+      </c>
+      <c r="G332">
+        <v>0.08564631425842796</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>0.03021939912697885</v>
+      </c>
+      <c r="C333">
+        <v>0.03021939912697885</v>
+      </c>
+      <c r="D333">
+        <v>0.1187335115741928</v>
+      </c>
+      <c r="E333">
+        <v>0.04746010592303325</v>
+      </c>
+      <c r="F333">
+        <v>0.04746010592303325</v>
+      </c>
+      <c r="G333">
+        <v>0.07216494994254267</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>0.03013523805660434</v>
+      </c>
+      <c r="C334">
+        <v>0.03013523805660434</v>
+      </c>
+      <c r="D334">
+        <v>0.1213720338443653</v>
+      </c>
+      <c r="E334">
+        <v>0.04733445491821968</v>
+      </c>
+      <c r="F334">
+        <v>0.04733445491821968</v>
+      </c>
+      <c r="G334">
+        <v>0.06819984316825867</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>0.03153218689686705</v>
+      </c>
+      <c r="C335">
+        <v>0.03153218689686705</v>
+      </c>
+      <c r="D335">
+        <v>0.1029023767736468</v>
+      </c>
+      <c r="E335">
+        <v>0.04766842494234975</v>
+      </c>
+      <c r="F335">
+        <v>0.04766842494234975</v>
+      </c>
+      <c r="G335">
+        <v>0.07930214257584405</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>0.03034998501078435</v>
+      </c>
+      <c r="C336">
+        <v>0.03034998501078435</v>
+      </c>
+      <c r="D336">
+        <v>0.1029023767736468</v>
+      </c>
+      <c r="E336">
+        <v>0.04819528422629332</v>
+      </c>
+      <c r="F336">
+        <v>0.04819528422629332</v>
+      </c>
+      <c r="G336">
+        <v>0.07692307836474359</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>0.03099637576882631</v>
+      </c>
+      <c r="C337">
+        <v>0.03099637576882631</v>
+      </c>
+      <c r="D337">
+        <v>0.113456466247507</v>
+      </c>
+      <c r="E337">
+        <v>0.0469690713969419</v>
+      </c>
+      <c r="F337">
+        <v>0.0469690713969419</v>
+      </c>
+      <c r="G337">
+        <v>0.07216494994254267</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>0.03029631019267684</v>
+      </c>
+      <c r="C338">
+        <v>0.03029631019267684</v>
+      </c>
+      <c r="D338">
+        <v>0.1213720338443653</v>
+      </c>
+      <c r="E338">
+        <v>0.04774674153122327</v>
+      </c>
+      <c r="F338">
+        <v>0.04774674153122327</v>
+      </c>
+      <c r="G338">
+        <v>0.07375099290750217</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>0.0301459520209905</v>
+      </c>
+      <c r="C339">
+        <v>0.0301459520209905</v>
+      </c>
+      <c r="D339">
+        <v>0.1029023765770615</v>
+      </c>
+      <c r="E339">
+        <v>0.04679100798601012</v>
+      </c>
+      <c r="F339">
+        <v>0.04679100798601012</v>
+      </c>
+      <c r="G339">
+        <v>0.08009516453100139</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>0.03076456320081349</v>
+      </c>
+      <c r="C340">
+        <v>0.03076456320081349</v>
+      </c>
+      <c r="D340">
+        <v>0.09234828690661603</v>
+      </c>
+      <c r="E340">
+        <v>0.04673119228773416</v>
+      </c>
+      <c r="F340">
+        <v>0.04673119228773416</v>
+      </c>
+      <c r="G340">
+        <v>0.08643933579999241</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>0.02967494676051794</v>
+      </c>
+      <c r="C341">
+        <v>0.02967494676051794</v>
+      </c>
+      <c r="D341">
+        <v>0.09762533164354616</v>
+      </c>
+      <c r="E341">
+        <v>0.04706469236841333</v>
+      </c>
+      <c r="F341">
+        <v>0.04706469236841333</v>
+      </c>
+      <c r="G341">
+        <v>0.07295797130685303</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <v>0.03140858367164091</v>
+      </c>
+      <c r="C342">
+        <v>0.03140858367164091</v>
+      </c>
+      <c r="D342">
+        <v>0.09762533164354616</v>
+      </c>
+      <c r="E342">
+        <v>0.04718022974626022</v>
+      </c>
+      <c r="F342">
+        <v>0.04718022974626022</v>
+      </c>
+      <c r="G342">
+        <v>0.08485329271686351</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <v>0.03031834541257264</v>
+      </c>
+      <c r="C343">
+        <v>0.03031834541257264</v>
+      </c>
+      <c r="D343">
+        <v>0.1108179439773346</v>
+      </c>
+      <c r="E343">
+        <v>0.04686380826190858</v>
+      </c>
+      <c r="F343">
+        <v>0.04686380826190858</v>
+      </c>
+      <c r="G343">
+        <v>0.08009516417649319</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <v>0.03002677451927303</v>
+      </c>
+      <c r="C344">
+        <v>0.03002677451927303</v>
+      </c>
+      <c r="D344">
+        <v>0.08707124216968591</v>
+      </c>
+      <c r="E344">
+        <v>0.04682398144182329</v>
+      </c>
+      <c r="F344">
+        <v>0.04682398144182329</v>
+      </c>
+      <c r="G344">
+        <v>0.06978588567235751</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <v>0.02968583919481426</v>
+      </c>
+      <c r="C345">
+        <v>0.02968583919481426</v>
+      </c>
+      <c r="D345">
+        <v>0.1160949891074352</v>
+      </c>
+      <c r="E345">
+        <v>0.04733092008597269</v>
+      </c>
+      <c r="F345">
+        <v>0.04733092008597269</v>
+      </c>
+      <c r="G345">
+        <v>0.07375099289568524</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <v>0.03071648602946453</v>
+      </c>
+      <c r="C346">
+        <v>0.03071648602946453</v>
+      </c>
+      <c r="D346">
+        <v>0.1081794213139916</v>
+      </c>
+      <c r="E346">
+        <v>0.04684898818855622</v>
+      </c>
+      <c r="F346">
+        <v>0.04684898818855622</v>
+      </c>
+      <c r="G346">
+        <v>0.08326725003551057</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <v>0.0300115753643431</v>
+      </c>
+      <c r="C347">
+        <v>0.0300115753643431</v>
+      </c>
+      <c r="D347">
+        <v>0.1029023765770615</v>
+      </c>
+      <c r="E347">
+        <v>0.046876807183819</v>
+      </c>
+      <c r="F347">
+        <v>0.046876807183819</v>
+      </c>
+      <c r="G347">
+        <v>0.07216494988345798</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <v>0.02927539351649366</v>
+      </c>
+      <c r="C348">
+        <v>0.02927539351649366</v>
+      </c>
+      <c r="D348">
+        <v>0.09234828690661603</v>
+      </c>
+      <c r="E348">
+        <v>0.04591403622106367</v>
+      </c>
+      <c r="F348">
+        <v>0.04591403622106367</v>
+      </c>
+      <c r="G348">
+        <v>0.08009516435374729</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <v>0.03002856343512799</v>
+      </c>
+      <c r="C349">
+        <v>0.03002856343512799</v>
+      </c>
+      <c r="D349">
+        <v>0.08443271930975775</v>
+      </c>
+      <c r="E349">
+        <v>0.04681688946103832</v>
+      </c>
+      <c r="F349">
+        <v>0.04681688946103832</v>
+      </c>
+      <c r="G349">
+        <v>0.07375099302567158</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <v>0.02942418109006334</v>
+      </c>
+      <c r="C350">
+        <v>0.02942418109006334</v>
+      </c>
+      <c r="D350">
+        <v>0.0923482867100308</v>
+      </c>
+      <c r="E350">
+        <v>0.0462858265311613</v>
+      </c>
+      <c r="F350">
+        <v>0.0462858265311613</v>
+      </c>
+      <c r="G350">
+        <v>0.0634417142261124</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351">
+        <v>0.0290978935873996</v>
+      </c>
+      <c r="C351">
+        <v>0.0290978935873996</v>
+      </c>
+      <c r="D351">
+        <v>0.1160949891074352</v>
+      </c>
+      <c r="E351">
+        <v>0.04689542767071091</v>
+      </c>
+      <c r="F351">
+        <v>0.04689542767071091</v>
+      </c>
+      <c r="G351">
+        <v>0.08088818554080356</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352">
+        <v>0.02993025736868539</v>
+      </c>
+      <c r="C352">
+        <v>0.02993025736868539</v>
+      </c>
+      <c r="D352">
+        <v>0.1160949891074352</v>
+      </c>
+      <c r="E352">
+        <v>0.04587634342067493</v>
+      </c>
+      <c r="F352">
+        <v>0.04587634342067493</v>
+      </c>
+      <c r="G352">
+        <v>0.08406027158889195</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353">
+        <v>0.03163990642786969</v>
+      </c>
+      <c r="C353">
+        <v>0.03163990642786969</v>
+      </c>
+      <c r="D353">
+        <v>0.0817941968626586</v>
+      </c>
+      <c r="E353">
+        <v>0.04668613466228123</v>
+      </c>
+      <c r="F353">
+        <v>0.04668613466228123</v>
+      </c>
+      <c r="G353">
+        <v>0.07692307836474359</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354">
+        <v>0.02937762862892138</v>
+      </c>
+      <c r="C354">
+        <v>0.02937762862892138</v>
+      </c>
+      <c r="D354">
+        <v>0.1160949891074352</v>
+      </c>
+      <c r="E354">
+        <v>0.04623506009035126</v>
+      </c>
+      <c r="F354">
+        <v>0.04623506009035126</v>
+      </c>
+      <c r="G354">
+        <v>0.0800951642946626</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355">
+        <v>0.0292074286027524</v>
+      </c>
+      <c r="C355">
+        <v>0.0292074286027524</v>
+      </c>
+      <c r="D355">
+        <v>0.1213720338443653</v>
+      </c>
+      <c r="E355">
+        <v>0.04602894666741331</v>
+      </c>
+      <c r="F355">
+        <v>0.04602894666741331</v>
+      </c>
+      <c r="G355">
+        <v>0.08168120708236801</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356">
+        <v>0.02883099622552659</v>
+      </c>
+      <c r="C356">
+        <v>0.02883099622552659</v>
+      </c>
+      <c r="D356">
+        <v>0.1134564666406775</v>
+      </c>
+      <c r="E356">
+        <v>0.04660276444680534</v>
+      </c>
+      <c r="F356">
+        <v>0.04660276444680534</v>
+      </c>
+      <c r="G356">
+        <v>0.09278350724623753</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357">
+        <v>0.0291408251056885</v>
+      </c>
+      <c r="C357">
+        <v>0.0291408251056885</v>
+      </c>
+      <c r="D357">
+        <v>0.1160949889108499</v>
+      </c>
+      <c r="E357">
+        <v>0.04636281504222649</v>
+      </c>
+      <c r="F357">
+        <v>0.04636281504222649</v>
+      </c>
+      <c r="G357">
+        <v>0.06819984306190621</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358">
+        <v>0.03014687574554559</v>
+      </c>
+      <c r="C358">
+        <v>0.03014687574554559</v>
+      </c>
+      <c r="D358">
+        <v>0.1002638539137186</v>
+      </c>
+      <c r="E358">
+        <v>0.04580292773922694</v>
+      </c>
+      <c r="F358">
+        <v>0.04580292773922694</v>
+      </c>
+      <c r="G358">
+        <v>0.08009516410559156</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359">
+        <v>0.02958422008223615</v>
+      </c>
+      <c r="C359">
+        <v>0.02958422008223615</v>
+      </c>
+      <c r="D359">
+        <v>0.1029023765770615</v>
+      </c>
+      <c r="E359">
+        <v>0.04581541542339004</v>
+      </c>
+      <c r="F359">
+        <v>0.04581541542339004</v>
+      </c>
+      <c r="G359">
+        <v>0.08168120718872046</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360">
+        <v>0.02949339226084837</v>
+      </c>
+      <c r="C360">
+        <v>0.02949339226084837</v>
+      </c>
+      <c r="D360">
+        <v>0.1029023765770615</v>
+      </c>
+      <c r="E360">
+        <v>0.04539336253498207</v>
+      </c>
+      <c r="F360">
+        <v>0.04539336253498207</v>
+      </c>
+      <c r="G360">
+        <v>0.07850912161330965</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <v>0.02908719191450557</v>
+      </c>
+      <c r="C361">
+        <v>0.02908719191450557</v>
+      </c>
+      <c r="D361">
+        <v>0.08179419666607336</v>
+      </c>
+      <c r="E361">
+        <v>0.04596626919285822</v>
+      </c>
+      <c r="F361">
+        <v>0.04596626919285822</v>
+      </c>
+      <c r="G361">
+        <v>0.07216494982437327</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362">
+        <v>0.02938842924808135</v>
+      </c>
+      <c r="C362">
+        <v>0.02938842924808135</v>
+      </c>
+      <c r="D362">
+        <v>0.1187335113776076</v>
+      </c>
+      <c r="E362">
+        <v>0.04541672903875998</v>
+      </c>
+      <c r="F362">
+        <v>0.04541672903875998</v>
+      </c>
+      <c r="G362">
+        <v>0.0681998430028215</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <v>0.02938236061257549</v>
+      </c>
+      <c r="C363">
+        <v>0.02938236061257549</v>
+      </c>
+      <c r="D363">
+        <v>0.1187335115741928</v>
+      </c>
+      <c r="E363">
+        <v>0.04499443951317661</v>
+      </c>
+      <c r="F363">
+        <v>0.04499443951317661</v>
+      </c>
+      <c r="G363">
+        <v>0.08802537876495192</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <v>0.0285184290653247</v>
+      </c>
+      <c r="C364">
+        <v>0.0285184290653247</v>
+      </c>
+      <c r="D364">
+        <v>0.08179419725582908</v>
+      </c>
+      <c r="E364">
+        <v>0.04594692852995066</v>
+      </c>
+      <c r="F364">
+        <v>0.04594692852995066</v>
+      </c>
+      <c r="G364">
+        <v>0.08088818565897295</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>0.02894601137881071</v>
+      </c>
+      <c r="C365">
+        <v>0.02894601137881071</v>
+      </c>
+      <c r="D365">
+        <v>0.105540898847234</v>
+      </c>
+      <c r="E365">
+        <v>0.04510729602175417</v>
+      </c>
+      <c r="F365">
+        <v>0.04510729602175417</v>
+      </c>
+      <c r="G365">
+        <v>0.08723235698704868</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>0.02862192278034926</v>
+      </c>
+      <c r="C366">
+        <v>0.02862192278034926</v>
+      </c>
+      <c r="D366">
+        <v>0.1213720338443653</v>
+      </c>
+      <c r="E366">
+        <v>0.04538023757949932</v>
+      </c>
+      <c r="F366">
+        <v>0.04538023757949932</v>
+      </c>
+      <c r="G366">
+        <v>0.0816812071414527</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <v>0.02880929249749177</v>
+      </c>
+      <c r="C367">
+        <v>0.02880929249749177</v>
+      </c>
+      <c r="D367">
+        <v>0.1108179437807493</v>
+      </c>
+      <c r="E367">
+        <v>0.04488530563904027</v>
+      </c>
+      <c r="F367">
+        <v>0.04488530563904027</v>
+      </c>
+      <c r="G367">
+        <v>0.08406027135255316</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <v>0.02896211601518547</v>
+      </c>
+      <c r="C368">
+        <v>0.02896211601518547</v>
+      </c>
+      <c r="D368">
+        <v>0.105540898847234</v>
+      </c>
+      <c r="E368">
+        <v>0.04550915434483873</v>
+      </c>
+      <c r="F368">
+        <v>0.04550915434483873</v>
+      </c>
+      <c r="G368">
+        <v>0.08961142149357262</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369">
+        <v>0.02929238204433924</v>
+      </c>
+      <c r="C369">
+        <v>0.02929238204433924</v>
+      </c>
+      <c r="D369">
+        <v>0.1081794213139916</v>
+      </c>
+      <c r="E369">
+        <v>0.04528902921290931</v>
+      </c>
+      <c r="F369">
+        <v>0.04528902921290931</v>
+      </c>
+      <c r="G369">
+        <v>0.08326724981098871</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370">
+        <v>0.02911540354285045</v>
+      </c>
+      <c r="C370">
+        <v>0.02911540354285045</v>
+      </c>
+      <c r="D370">
+        <v>0.1213720338443653</v>
+      </c>
+      <c r="E370">
+        <v>0.04568266432546227</v>
+      </c>
+      <c r="F370">
+        <v>0.04568266432546227</v>
+      </c>
+      <c r="G370">
+        <v>0.08723235756607872</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371">
+        <v>0.03036809257553561</v>
+      </c>
+      <c r="C371">
+        <v>0.03036809257553561</v>
+      </c>
+      <c r="D371">
+        <v>0.07651715173255799</v>
+      </c>
+      <c r="E371">
+        <v>0.04532884858093689</v>
+      </c>
+      <c r="F371">
+        <v>0.04532884858093689</v>
+      </c>
+      <c r="G371">
+        <v>0.08406027135255316</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372">
+        <v>0.02947339795942671</v>
+      </c>
+      <c r="C372">
+        <v>0.02947339795942671</v>
+      </c>
+      <c r="D372">
+        <v>0.1108179439773346</v>
+      </c>
+      <c r="E372">
+        <v>0.04516758729868423</v>
+      </c>
+      <c r="F372">
+        <v>0.04516758729868423</v>
+      </c>
+      <c r="G372">
+        <v>0.09278350700989874</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373">
+        <v>0.0280952175985776</v>
+      </c>
+      <c r="C373">
+        <v>0.0280952175985776</v>
+      </c>
+      <c r="D373">
+        <v>0.1240105566846349</v>
+      </c>
+      <c r="E373">
+        <v>0.04510160238673345</v>
+      </c>
+      <c r="F373">
+        <v>0.04510160238673345</v>
+      </c>
+      <c r="G373">
+        <v>0.07771610020173153</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374">
+        <v>0.02839128903081361</v>
+      </c>
+      <c r="C374">
+        <v>0.02839128903081361</v>
+      </c>
+      <c r="D374">
+        <v>0.1002638539137186</v>
+      </c>
+      <c r="E374">
+        <v>0.04537475116633641</v>
+      </c>
+      <c r="F374">
+        <v>0.04537475116633641</v>
+      </c>
+      <c r="G374">
+        <v>0.07692307871925179</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375">
+        <v>0.02926098647721525</v>
+      </c>
+      <c r="C375">
+        <v>0.02926098647721525</v>
+      </c>
+      <c r="D375">
+        <v>0.113456465834678</v>
+      </c>
+      <c r="E375">
+        <v>0.04517586015808876</v>
+      </c>
+      <c r="F375">
+        <v>0.04517586015808876</v>
+      </c>
+      <c r="G375">
+        <v>0.08723235692796397</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376">
+        <v>0.0280610363301391</v>
+      </c>
+      <c r="C376">
+        <v>0.0280610363301391</v>
+      </c>
+      <c r="D376">
+        <v>0.1134564666406775</v>
+      </c>
+      <c r="E376">
+        <v>0.04510927392342656</v>
+      </c>
+      <c r="F376">
+        <v>0.04510927392342656</v>
+      </c>
+      <c r="G376">
+        <v>0.07613005688226383</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377">
+        <v>0.02785109494638317</v>
+      </c>
+      <c r="C377">
+        <v>0.02785109494638317</v>
+      </c>
+      <c r="D377">
+        <v>0.09234828633651884</v>
+      </c>
+      <c r="E377">
+        <v>0.04478080538644335</v>
+      </c>
+      <c r="F377">
+        <v>0.04478080538644335</v>
+      </c>
+      <c r="G377">
+        <v>0.07454401449633438</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378">
+        <v>0.0280283096204647</v>
+      </c>
+      <c r="C378">
+        <v>0.0280283096204647</v>
+      </c>
+      <c r="D378">
+        <v>0.1002638541103038</v>
+      </c>
+      <c r="E378">
+        <v>0.0446863014141687</v>
+      </c>
+      <c r="F378">
+        <v>0.0446863014141687</v>
+      </c>
+      <c r="G378">
+        <v>0.07533703593154638</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379">
+        <v>0.0281986160090778</v>
+      </c>
+      <c r="C379">
+        <v>0.0281986160090778</v>
+      </c>
+      <c r="D379">
+        <v>0.1002638539333771</v>
+      </c>
+      <c r="E379">
+        <v>0.04504361257110674</v>
+      </c>
+      <c r="F379">
+        <v>0.04504361257110674</v>
+      </c>
+      <c r="G379">
+        <v>0.07850912121153369</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380">
+        <v>0.02905181017864034</v>
+      </c>
+      <c r="C380">
+        <v>0.02905181017864034</v>
+      </c>
+      <c r="D380">
+        <v>0.0897097640663464</v>
+      </c>
+      <c r="E380">
+        <v>0.04393984638243133</v>
+      </c>
+      <c r="F380">
+        <v>0.04393984638243133</v>
+      </c>
+      <c r="G380">
+        <v>0.08009516417649319</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381">
+        <v>0.02865557882217273</v>
+      </c>
+      <c r="C381">
+        <v>0.02865557882217273</v>
+      </c>
+      <c r="D381">
+        <v>0.1240105564880497</v>
+      </c>
+      <c r="E381">
+        <v>0.04453770485747248</v>
+      </c>
+      <c r="F381">
+        <v>0.04453770485747248</v>
+      </c>
+      <c r="G381">
+        <v>0.07850912143605555</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382">
+        <v>0.02823558714152326</v>
+      </c>
+      <c r="C382">
+        <v>0.02823558714152326</v>
+      </c>
+      <c r="D382">
+        <v>0.1134564664440923</v>
+      </c>
+      <c r="E382">
+        <v>0.04469253477167034</v>
+      </c>
+      <c r="F382">
+        <v>0.04469253477167034</v>
+      </c>
+      <c r="G382">
+        <v>0.07850912162512659</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383">
+        <v>0.02754124660919713</v>
+      </c>
+      <c r="C383">
+        <v>0.02754124660919713</v>
+      </c>
+      <c r="D383">
+        <v>0.09762533144696092</v>
+      </c>
+      <c r="E383">
+        <v>0.044450831598795</v>
+      </c>
+      <c r="F383">
+        <v>0.044450831598795</v>
+      </c>
+      <c r="G383">
+        <v>0.08406027139982092</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384">
+        <v>0.02736804929210517</v>
+      </c>
+      <c r="C384">
+        <v>0.02736804929210517</v>
+      </c>
+      <c r="D384">
+        <v>0.1134564666406775</v>
+      </c>
+      <c r="E384">
+        <v>0.04496477754944662</v>
+      </c>
+      <c r="F384">
+        <v>0.04496477754944662</v>
+      </c>
+      <c r="G384">
+        <v>0.08168120724780516</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385">
+        <v>0.0279537037870107</v>
+      </c>
+      <c r="C385">
+        <v>0.0279537037870107</v>
+      </c>
+      <c r="D385">
+        <v>0.1134564664440923</v>
+      </c>
+      <c r="E385">
+        <v>0.04450225401418631</v>
+      </c>
+      <c r="F385">
+        <v>0.04450225401418631</v>
+      </c>
+      <c r="G385">
+        <v>0.0832672496928193</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386">
+        <v>0.02779967239554136</v>
+      </c>
+      <c r="C386">
+        <v>0.02779967239554136</v>
+      </c>
+      <c r="D386">
+        <v>0.1081794213139916</v>
+      </c>
+      <c r="E386">
+        <v>0.04388063237614617</v>
+      </c>
+      <c r="F386">
+        <v>0.04388063237614617</v>
+      </c>
+      <c r="G386">
+        <v>0.08088818571805764</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387">
+        <v>0.02783860829916824</v>
+      </c>
+      <c r="C387">
+        <v>0.02783860829916824</v>
+      </c>
+      <c r="D387">
+        <v>0.1002638539137186</v>
+      </c>
+      <c r="E387">
+        <v>0.04381981533254119</v>
+      </c>
+      <c r="F387">
+        <v>0.04381981533254119</v>
+      </c>
+      <c r="G387">
+        <v>0.08326724998824281</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7">
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+      <c r="B388">
+        <v>0.02856401698098648</v>
+      </c>
+      <c r="C388">
+        <v>0.02856401698098648</v>
+      </c>
+      <c r="D388">
+        <v>0.1002638541299624</v>
+      </c>
+      <c r="E388">
+        <v>0.04378729636214443</v>
+      </c>
+      <c r="F388">
+        <v>0.04378729636214443</v>
+      </c>
+      <c r="G388">
+        <v>0.08406027188431546</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389">
+        <v>0.02818989317795375</v>
+      </c>
+      <c r="C389">
+        <v>0.02818989317795375</v>
+      </c>
+      <c r="D389">
+        <v>0.1187335113776076</v>
+      </c>
+      <c r="E389">
+        <v>0.04361255470926236</v>
+      </c>
+      <c r="F389">
+        <v>0.04361255470926236</v>
+      </c>
+      <c r="G389">
+        <v>0.08326724981098871</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7">
+      <c r="A390" s="1">
+        <v>388</v>
+      </c>
+      <c r="B390">
+        <v>0.02738001022615659</v>
+      </c>
+      <c r="C390">
+        <v>0.02738001022615659</v>
+      </c>
+      <c r="D390">
+        <v>0.1081794215105769</v>
+      </c>
+      <c r="E390">
+        <v>0.04414416503376851</v>
+      </c>
+      <c r="F390">
+        <v>0.04414416503376851</v>
+      </c>
+      <c r="G390">
+        <v>0.08802537863496558</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7">
+      <c r="A391" s="1">
+        <v>389</v>
+      </c>
+      <c r="B391">
+        <v>0.0275134381870088</v>
+      </c>
+      <c r="C391">
+        <v>0.0275134381870088</v>
+      </c>
+      <c r="D391">
+        <v>0.09234828633651884</v>
+      </c>
+      <c r="E391">
+        <v>0.04343979258731327</v>
+      </c>
+      <c r="F391">
+        <v>0.04343979258731327</v>
+      </c>
+      <c r="G391">
+        <v>0.08326725016549691</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7">
+      <c r="A392" s="1">
+        <v>390</v>
+      </c>
+      <c r="B392">
+        <v>0.02764475180971434</v>
+      </c>
+      <c r="C392">
+        <v>0.02764475180971434</v>
+      </c>
+      <c r="D392">
+        <v>0.08970976386976116</v>
+      </c>
+      <c r="E392">
+        <v>0.04432412961602778</v>
+      </c>
+      <c r="F392">
+        <v>0.04432412961602778</v>
+      </c>
+      <c r="G392">
+        <v>0.07057890703666787</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7">
+      <c r="A393" s="1">
+        <v>391</v>
+      </c>
+      <c r="B393">
+        <v>0.02792910756764437</v>
+      </c>
+      <c r="C393">
+        <v>0.02792910756764437</v>
+      </c>
+      <c r="D393">
+        <v>0.094986809196447</v>
+      </c>
+      <c r="E393">
+        <v>0.04409520946366271</v>
+      </c>
+      <c r="F393">
+        <v>0.04409520946366271</v>
+      </c>
+      <c r="G393">
+        <v>0.09992070011587771</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7">
+      <c r="A394" s="1">
+        <v>392</v>
+      </c>
+      <c r="B394">
+        <v>0.02785292040743425</v>
+      </c>
+      <c r="C394">
+        <v>0.02785292040743425</v>
+      </c>
+      <c r="D394">
+        <v>0.09762533146661945</v>
+      </c>
+      <c r="E394">
+        <v>0.04488529560941255</v>
+      </c>
+      <c r="F394">
+        <v>0.04488529560941255</v>
+      </c>
+      <c r="G394">
+        <v>0.07216494994254267</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7">
+      <c r="A395" s="1">
+        <v>393</v>
+      </c>
+      <c r="B395">
+        <v>0.02724359165827957</v>
+      </c>
+      <c r="C395">
+        <v>0.02724359165827957</v>
+      </c>
+      <c r="D395">
+        <v>0.1134564668372627</v>
+      </c>
+      <c r="E395">
+        <v>0.0442090447043777</v>
+      </c>
+      <c r="F395">
+        <v>0.0442090447043777</v>
+      </c>
+      <c r="G395">
+        <v>0.07216495006071207</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7">
+      <c r="A396" s="1">
+        <v>394</v>
+      </c>
+      <c r="B396">
+        <v>0.0267621243819791</v>
+      </c>
+      <c r="C396">
+        <v>0.0267621243819791</v>
+      </c>
+      <c r="D396">
+        <v>0.1108179439773346</v>
+      </c>
+      <c r="E396">
+        <v>0.0437433576472783</v>
+      </c>
+      <c r="F396">
+        <v>0.0437433576472783</v>
+      </c>
+      <c r="G396">
+        <v>0.08723235751881096</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7">
+      <c r="A397" s="1">
+        <v>395</v>
+      </c>
+      <c r="B397">
+        <v>0.0284729064945967</v>
+      </c>
+      <c r="C397">
+        <v>0.0284729064945967</v>
+      </c>
+      <c r="D397">
+        <v>0.1108179439773346</v>
+      </c>
+      <c r="E397">
+        <v>0.04351536166528498</v>
+      </c>
+      <c r="F397">
+        <v>0.04351536166528498</v>
+      </c>
+      <c r="G397">
+        <v>0.0951625711028298</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7">
+      <c r="A398" s="1">
+        <v>396</v>
+      </c>
+      <c r="B398">
+        <v>0.02696356385218908</v>
+      </c>
+      <c r="C398">
+        <v>0.02696356385218908</v>
+      </c>
+      <c r="D398">
+        <v>0.1187335113776076</v>
+      </c>
+      <c r="E398">
+        <v>0.04375842764447787</v>
+      </c>
+      <c r="F398">
+        <v>0.04375842764447787</v>
+      </c>
+      <c r="G398">
+        <v>0.09199048558650369</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7">
+      <c r="A399" s="1">
+        <v>397</v>
+      </c>
+      <c r="B399">
+        <v>0.02732925770661762</v>
+      </c>
+      <c r="C399">
+        <v>0.02732925770661762</v>
+      </c>
+      <c r="D399">
+        <v>0.09762533146661945</v>
+      </c>
+      <c r="E399">
+        <v>0.04332699169368615</v>
+      </c>
+      <c r="F399">
+        <v>0.04332699169368615</v>
+      </c>
+      <c r="G399">
+        <v>0.07850912127061839</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7">
+      <c r="A400" s="1">
+        <v>398</v>
+      </c>
+      <c r="B400">
+        <v>0.0276510743203138</v>
+      </c>
+      <c r="C400">
+        <v>0.0276510743203138</v>
+      </c>
+      <c r="D400">
+        <v>0.09762533146661945</v>
+      </c>
+      <c r="E400">
+        <v>0.04359214020853096</v>
+      </c>
+      <c r="F400">
+        <v>0.04359214020853096</v>
+      </c>
+      <c r="G400">
+        <v>0.07375099267116338</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7">
+      <c r="A401" s="1">
+        <v>399</v>
+      </c>
+      <c r="B401">
+        <v>0.02730961872810267</v>
+      </c>
+      <c r="C401">
+        <v>0.02730961872810267</v>
+      </c>
+      <c r="D401">
+        <v>0.1029023765967201</v>
+      </c>
+      <c r="E401">
+        <v>0.04323612534331009</v>
+      </c>
+      <c r="F401">
+        <v>0.04323612534331009</v>
+      </c>
+      <c r="G401">
+        <v>0.08326724998824281</v>
       </c>
     </row>
   </sheetData>
